--- a/Data/RimJobWorld/Carniculus - NS6055373/NS6055373.xlsx
+++ b/Data/RimJobWorld/Carniculus - NS6055373/NS6055373.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\stone\Desktop\새 폴더 (2)\240122\Carniculus\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Program Files (x86)\Steam\steamapps\common\RimWorld\Mods\RMK\Data\RimJobWorld\Carniculus - NS6055373\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB9E73E3-2C1A-4FBA-B265-46FEF1716CB2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8ED75E2E-76E0-4947-9D50-24E2D9F4D48F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Main_240128" sheetId="1" r:id="rId1"/>
-    <sheet name="Merge_240128" sheetId="2" r:id="rId2"/>
+    <sheet name="Main_241002" sheetId="3" r:id="rId1"/>
+    <sheet name="Old_240128" sheetId="1" r:id="rId2"/>
+    <sheet name="Merge_240128" sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1513" uniqueCount="866">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2995" uniqueCount="1535">
   <si>
     <t>Class+Node [(Identifier (Key)]</t>
   </si>
@@ -2638,6 +2639,2015 @@
   <si>
     <t>외계인 병변 조직에서 만들어진 생명체입니다. \n강한 육체를 가지고 있으며 대부분의 기온에서 버틸만큼 튼튼하지만, 외모가 추하고 식욕, 성욕 모두 왕성하여 바닥을 잘 더럽힙니다.</t>
     <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>양산형 오나홀</t>
+  </si>
+  <si>
+    <t>Names.Mama_First.9</t>
+  </si>
+  <si>
+    <t>Strings</t>
+  </si>
+  <si>
+    <t>Strings+Names.Mama_First.9</t>
+  </si>
+  <si>
+    <t>생체 오나홀</t>
+  </si>
+  <si>
+    <t>Names.Mama_First.8</t>
+  </si>
+  <si>
+    <t>Strings+Names.Mama_First.8</t>
+  </si>
+  <si>
+    <t>Names.Mama_First.7</t>
+  </si>
+  <si>
+    <t>Strings+Names.Mama_First.7</t>
+  </si>
+  <si>
+    <t>육변기</t>
+  </si>
+  <si>
+    <t>Names.Mama_First.6</t>
+  </si>
+  <si>
+    <t>Strings+Names.Mama_First.6</t>
+  </si>
+  <si>
+    <t>치녀</t>
+  </si>
+  <si>
+    <t>Names.Mama_First.5</t>
+  </si>
+  <si>
+    <t>Strings+Names.Mama_First.5</t>
+  </si>
+  <si>
+    <t>아가씨</t>
+  </si>
+  <si>
+    <t>Names.Mama_First.4</t>
+  </si>
+  <si>
+    <t>Strings+Names.Mama_First.4</t>
+  </si>
+  <si>
+    <t>성녀</t>
+  </si>
+  <si>
+    <t>Names.Mama_First.3</t>
+  </si>
+  <si>
+    <t>Strings+Names.Mama_First.3</t>
+  </si>
+  <si>
+    <t>성모</t>
+  </si>
+  <si>
+    <t>Names.Mama_First.2</t>
+  </si>
+  <si>
+    <t>Strings+Names.Mama_First.2</t>
+  </si>
+  <si>
+    <t>창녀</t>
+  </si>
+  <si>
+    <t>Names.Mama_First.1</t>
+  </si>
+  <si>
+    <t>Strings+Names.Mama_First.1</t>
+  </si>
+  <si>
+    <t>창부</t>
+  </si>
+  <si>
+    <t>Names.Mama_First.0</t>
+  </si>
+  <si>
+    <t>Strings+Names.Mama_First.0</t>
+  </si>
+  <si>
+    <t>창관</t>
+  </si>
+  <si>
+    <t>Names.Carni_place.6</t>
+  </si>
+  <si>
+    <t>Strings+Names.Carni_place.6</t>
+  </si>
+  <si>
+    <t>병변</t>
+  </si>
+  <si>
+    <t>Names.Carni_place.5</t>
+  </si>
+  <si>
+    <t>Strings+Names.Carni_place.5</t>
+  </si>
+  <si>
+    <t>둥지</t>
+  </si>
+  <si>
+    <t>Names.Carni_place.4</t>
+  </si>
+  <si>
+    <t>Strings+Names.Carni_place.4</t>
+  </si>
+  <si>
+    <t>교배장소</t>
+  </si>
+  <si>
+    <t>Names.Carni_place.3</t>
+  </si>
+  <si>
+    <t>Strings+Names.Carni_place.3</t>
+  </si>
+  <si>
+    <t>돼지우리</t>
+  </si>
+  <si>
+    <t>Names.Carni_place.2</t>
+  </si>
+  <si>
+    <t>Strings+Names.Carni_place.2</t>
+  </si>
+  <si>
+    <t>마구간</t>
+  </si>
+  <si>
+    <t>Names.Carni_place.1</t>
+  </si>
+  <si>
+    <t>Strings+Names.Carni_place.1</t>
+  </si>
+  <si>
+    <t>헛간</t>
+  </si>
+  <si>
+    <t>Names.Carni_place.0</t>
+  </si>
+  <si>
+    <t>Strings+Names.Carni_place.0</t>
+  </si>
+  <si>
+    <t>생식 세포</t>
+  </si>
+  <si>
+    <t>Names.Carni_people.4</t>
+  </si>
+  <si>
+    <t>Strings+Names.Carni_people.4</t>
+  </si>
+  <si>
+    <t>후손</t>
+  </si>
+  <si>
+    <t>Names.Carni_people.3</t>
+  </si>
+  <si>
+    <t>Strings+Names.Carni_people.3</t>
+  </si>
+  <si>
+    <t>딸들</t>
+  </si>
+  <si>
+    <t>Names.Carni_people.2</t>
+  </si>
+  <si>
+    <t>Strings+Names.Carni_people.2</t>
+  </si>
+  <si>
+    <t>아들들</t>
+  </si>
+  <si>
+    <t>Names.Carni_people.1</t>
+  </si>
+  <si>
+    <t>Strings+Names.Carni_people.1</t>
+  </si>
+  <si>
+    <t>아이들</t>
+  </si>
+  <si>
+    <t>Names.Carni_people.0</t>
+  </si>
+  <si>
+    <t>Strings+Names.Carni_people.0</t>
+  </si>
+  <si>
+    <t>씨뿌리기</t>
+  </si>
+  <si>
+    <t>Names.Carni_nounlewd.3</t>
+  </si>
+  <si>
+    <t>Strings+Names.Carni_nounlewd.3</t>
+  </si>
+  <si>
+    <t>성교</t>
+  </si>
+  <si>
+    <t>Names.Carni_nounlewd.2</t>
+  </si>
+  <si>
+    <t>Strings+Names.Carni_nounlewd.2</t>
+  </si>
+  <si>
+    <t>간통</t>
+  </si>
+  <si>
+    <t>Names.Carni_nounlewd.1</t>
+  </si>
+  <si>
+    <t>Strings+Names.Carni_nounlewd.1</t>
+  </si>
+  <si>
+    <t>교미</t>
+  </si>
+  <si>
+    <t>Names.Carni_nounlewd.0</t>
+  </si>
+  <si>
+    <t>Strings+Names.Carni_nounlewd.0</t>
+  </si>
+  <si>
+    <t>교배</t>
+  </si>
+  <si>
+    <t>Names.Carni_noun.5</t>
+  </si>
+  <si>
+    <t>Strings+Names.Carni_noun.5</t>
+  </si>
+  <si>
+    <t>파종</t>
+  </si>
+  <si>
+    <t>Names.Carni_noun.4</t>
+  </si>
+  <si>
+    <t>Strings+Names.Carni_noun.4</t>
+  </si>
+  <si>
+    <t>번식</t>
+  </si>
+  <si>
+    <t>Names.Carni_noun.3</t>
+  </si>
+  <si>
+    <t>Strings+Names.Carni_noun.3</t>
+  </si>
+  <si>
+    <t>증식</t>
+  </si>
+  <si>
+    <t>Names.Carni_noun.2</t>
+  </si>
+  <si>
+    <t>Strings+Names.Carni_noun.2</t>
+  </si>
+  <si>
+    <t>침투</t>
+  </si>
+  <si>
+    <t>Names.Carni_noun.1</t>
+  </si>
+  <si>
+    <t>Strings+Names.Carni_noun.1</t>
+  </si>
+  <si>
+    <t>점액</t>
+  </si>
+  <si>
+    <t>Names.Carni_noun.0</t>
+  </si>
+  <si>
+    <t>Strings+Names.Carni_noun.0</t>
+  </si>
+  <si>
+    <t>자애의</t>
+  </si>
+  <si>
+    <t>Names.Carni_adjctv.4</t>
+  </si>
+  <si>
+    <t>Strings+Names.Carni_adjctv.4</t>
+  </si>
+  <si>
+    <t>욕정의</t>
+  </si>
+  <si>
+    <t>Names.Carni_adjctv.3</t>
+  </si>
+  <si>
+    <t>Strings+Names.Carni_adjctv.3</t>
+  </si>
+  <si>
+    <t>발정의</t>
+  </si>
+  <si>
+    <t>Names.Carni_adjctv.2</t>
+  </si>
+  <si>
+    <t>Strings+Names.Carni_adjctv.2</t>
+  </si>
+  <si>
+    <t>추잡한</t>
+  </si>
+  <si>
+    <t>Names.Carni_adjctv.1</t>
+  </si>
+  <si>
+    <t>Strings+Names.Carni_adjctv.1</t>
+  </si>
+  <si>
+    <t>성스러운</t>
+  </si>
+  <si>
+    <t>Names.Carni_adjctv.0</t>
+  </si>
+  <si>
+    <t>Strings+Names.Carni_adjctv.0</t>
+  </si>
+  <si>
+    <t>성기</t>
+  </si>
+  <si>
+    <t>Alien_CarniMama.alienRace.generalSettings.alienPartGenerator.bodyAddons.5.name</t>
+  </si>
+  <si>
+    <t>ThingDef+Alien_CarniMama.alienRace.generalSettings.alienPartGenerator.bodyAddons.5.name</t>
+  </si>
+  <si>
+    <t>배</t>
+  </si>
+  <si>
+    <t>Alien_CarniMama.alienRace.generalSettings.alienPartGenerator.bodyAddons.4.name</t>
+  </si>
+  <si>
+    <t>ThingDef+Alien_CarniMama.alienRace.generalSettings.alienPartGenerator.bodyAddons.4.name</t>
+  </si>
+  <si>
+    <t>유두</t>
+  </si>
+  <si>
+    <t>Alien_CarniMama.alienRace.generalSettings.alienPartGenerator.bodyAddons.3.name</t>
+  </si>
+  <si>
+    <t>ThingDef+Alien_CarniMama.alienRace.generalSettings.alienPartGenerator.bodyAddons.3.name</t>
+  </si>
+  <si>
+    <t>가슴</t>
+  </si>
+  <si>
+    <t>Alien_CarniMama.alienRace.generalSettings.alienPartGenerator.bodyAddons.2.name</t>
+  </si>
+  <si>
+    <t>ThingDef+Alien_CarniMama.alienRace.generalSettings.alienPartGenerator.bodyAddons.2.name</t>
+  </si>
+  <si>
+    <t>마마 촉수</t>
+  </si>
+  <si>
+    <t>Alien_CarniMama.alienRace.generalSettings.alienPartGenerator.bodyAddons.1.name</t>
+  </si>
+  <si>
+    <t>ThingDef+Alien_CarniMama.alienRace.generalSettings.alienPartGenerator.bodyAddons.1.name</t>
+  </si>
+  <si>
+    <t>마마 머리카락</t>
+  </si>
+  <si>
+    <t>Alien_CarniMama.alienRace.generalSettings.alienPartGenerator.bodyAddons.0.name</t>
+  </si>
+  <si>
+    <t>ThingDef+Alien_CarniMama.alienRace.generalSettings.alienPartGenerator.bodyAddons.0.name</t>
+  </si>
+  <si>
+    <t>오른쪽 촉수</t>
+  </si>
+  <si>
+    <t>ThingDef+Alien_CarniMama.tools.1.label</t>
+  </si>
+  <si>
+    <t>왼쪽 촉수</t>
+  </si>
+  <si>
+    <t>ThingDef+Alien_CarniMama.tools.0.label</t>
+  </si>
+  <si>
+    <t>카르니쿨루스의 창조자였던 과학자의 영락한 잔재입니다. \n우주에 떠 있는 연구소의 수석 과학자로서, 그녀는 추출한 생명체들에 대해 수많은 실험을 수행했습니다. \n겉으로는 자애로운 과학자로 행동했지만, 그 이면에서는 표본을 가지고 놀며 그들이 고통이나 쾌락에 빠지는 모습을 즐겼습니다. 그리고 반란이 일어난 날, 그녀는 그들에게 똑같은 대우를 받았습니다. \n그들이 그녀를 '망가뜨린' 후, 마마는 카르니쿨루스와 같은 기원을 가진 세포를 이식받아 '수리'되었으며, 이후 섹스용 애완동물로 개조되었습니다. 그녀의 클론은 여전히 카니칼루스의 우주 연구소에서 생산되고 있습니다.</t>
+  </si>
+  <si>
+    <t>ThingDef+Alien_CarniMama.description</t>
+  </si>
+  <si>
+    <t>ThingDef+Alien_CarniMama.label</t>
+  </si>
+  <si>
+    <t>카니칼루스 머리카락</t>
+  </si>
+  <si>
+    <t>Alien_Carniculus.alienRace.generalSettings.alienPartGenerator.bodyAddons.0.name</t>
+  </si>
+  <si>
+    <t>ThingDef+Alien_Carniculus.alienRace.generalSettings.alienPartGenerator.bodyAddons.0.name</t>
+  </si>
+  <si>
+    <t>머리</t>
+  </si>
+  <si>
+    <t>ThingDef+Alien_Carniculus.tools.2.label</t>
+  </si>
+  <si>
+    <t>오른쪽 주먹</t>
+  </si>
+  <si>
+    <t>ThingDef+Alien_Carniculus.tools.1.label</t>
+  </si>
+  <si>
+    <t>왼쪽 주먹</t>
+  </si>
+  <si>
+    <t>ThingDef+Alien_Carniculus.tools.0.label</t>
+  </si>
+  <si>
+    <t>외계인 병변 조직에서 만들어진 생명체입니다. \n강한 육체를 가지고 있으며 대부분의 기온에서 버틸만큼 튼튼하지만, 외모가 추하고 식욕,성욕 모두 왕성하며 바닥을 잘 더럽힙니다.</t>
+  </si>
+  <si>
+    <t>ThingDef+Alien_Carniculus.description</t>
+  </si>
+  <si>
+    <t>카니칼루스</t>
+  </si>
+  <si>
+    <t>ThingDef+Alien_Carniculus.label</t>
+  </si>
+  <si>
+    <t>마마의 파워 아머</t>
+  </si>
+  <si>
+    <t>Apparel_MamaArmor.description</t>
+  </si>
+  <si>
+    <t>ThingDef+Apparel_MamaArmor.description</t>
+  </si>
+  <si>
+    <t>Apparel_MamaArmor.label</t>
+  </si>
+  <si>
+    <t>ThingDef+Apparel_MamaArmor.label</t>
+  </si>
+  <si>
+    <t>파워 아머 헬멧</t>
+  </si>
+  <si>
+    <t>Apparel_MamaArmorMet.description</t>
+  </si>
+  <si>
+    <t>ThingDef+Apparel_MamaArmorMet.description</t>
+  </si>
+  <si>
+    <t>마마의 파워 아머 헬멧</t>
+  </si>
+  <si>
+    <t>Apparel_MamaArmorMet.label</t>
+  </si>
+  <si>
+    <t>ThingDef+Apparel_MamaArmorMet.label</t>
+  </si>
+  <si>
+    <t>무서운 얼굴을 가려주는 간단한 머리장비입니다. 이제는 쉽게 인간 친구를 사귈 수 있을지도 모릅니다.</t>
+  </si>
+  <si>
+    <t>Apparel_CarniHood.description</t>
+  </si>
+  <si>
+    <t>ThingDef+Apparel_CarniHood.description</t>
+  </si>
+  <si>
+    <t>카니 후드</t>
+  </si>
+  <si>
+    <t>Apparel_CarniHood.label</t>
+  </si>
+  <si>
+    <t>ThingDef+Apparel_CarniHood.label</t>
+  </si>
+  <si>
+    <t>카니칼루스들이 윤리적으로 인간의 고기를 얻기위해서 개발한 가축입니다. \n 짐승의 뇌를 가지고 있다고 하지만, 소문엔 지능도 지적인 능력도 인간수준을 유지하고, 항상 정신붕괴 상태이기때문에 행동이 동물처럼 보인다 라는 소문도 있습니다.</t>
+  </si>
+  <si>
+    <t>오른손</t>
+  </si>
+  <si>
+    <t>왼손</t>
+  </si>
+  <si>
+    <t>카니칼루스들이 스스로를 더 강한 종으로 진화시키기 위해 만들어낸 변이종입니다. 강인한 육체는 실현되었으나 지능을 발달시키는데에는 실패한 것 같습니다.</t>
+  </si>
+  <si>
+    <t>자루</t>
+  </si>
+  <si>
+    <t>칼날</t>
+  </si>
+  <si>
+    <t>칼날끝</t>
+  </si>
+  <si>
+    <t>날</t>
+  </si>
+  <si>
+    <t>견장이 달린 간수 재킷입니다.</t>
+  </si>
+  <si>
+    <t>마마 수녀복</t>
+  </si>
+  <si>
+    <t>카니칼루스 의상</t>
+  </si>
+  <si>
+    <t>카니칼루스 머리장비</t>
+  </si>
+  <si>
+    <t>종양주의</t>
+  </si>
+  <si>
+    <t>Neoplasmic.label</t>
+  </si>
+  <si>
+    <t>StyleCategoryDef</t>
+  </si>
+  <si>
+    <t>StyleCategoryDef+Neoplasmic.label</t>
+  </si>
+  <si>
+    <t>CarniScenario.description</t>
+  </si>
+  <si>
+    <t>ScenarioDef+CarniScenario.description</t>
+  </si>
+  <si>
+    <t>CarniScenario.label</t>
+  </si>
+  <si>
+    <t>ScenarioDef+CarniScenario.label</t>
+  </si>
+  <si>
+    <t>CarniScenario.scenario.description</t>
+  </si>
+  <si>
+    <t>CarniScenario.scenario.name</t>
+  </si>
+  <si>
+    <t>festivalName-&gt;[Carni_People]의 [Carni_adjective] 축제</t>
+  </si>
+  <si>
+    <t>NamerFestivalCarni.rulePack.rulesStrings.3</t>
+  </si>
+  <si>
+    <t>RulePackDef</t>
+  </si>
+  <si>
+    <t>RulePackDef+NamerFestivalCarni.rulePack.rulesStrings.3</t>
+  </si>
+  <si>
+    <t>festivalName-&gt;[Carni_nounMed]의 기도제</t>
+  </si>
+  <si>
+    <t>NamerFestivalCarni.rulePack.rulesStrings.2</t>
+  </si>
+  <si>
+    <t>RulePackDef+NamerFestivalCarni.rulePack.rulesStrings.2</t>
+  </si>
+  <si>
+    <t>festivalName-&gt;[Carni_nounLewd]의 기도제</t>
+  </si>
+  <si>
+    <t>NamerFestivalCarni.rulePack.rulesStrings.1</t>
+  </si>
+  <si>
+    <t>RulePackDef+NamerFestivalCarni.rulePack.rulesStrings.1</t>
+  </si>
+  <si>
+    <t>festivalName-&gt;[Carni_People]의 난교 파티</t>
+  </si>
+  <si>
+    <t>NamerFestivalCarni.rulePack.rulesStrings.0</t>
+  </si>
+  <si>
+    <t>RulePackDef+NamerFestivalCarni.rulePack.rulesStrings.0</t>
+  </si>
+  <si>
+    <t>r_leaderTitle(gender==Female)-&gt;대모</t>
+  </si>
+  <si>
+    <t>LeaderTitleMakerCarni.rulePack.rulesStrings.1</t>
+  </si>
+  <si>
+    <t>RulePackDef+LeaderTitleMakerCarni.rulePack.rulesStrings.1</t>
+  </si>
+  <si>
+    <t>r_leaderTitle(gender!=Female)-&gt;알파</t>
+  </si>
+  <si>
+    <t>LeaderTitleMakerCarni.rulePack.rulesStrings.0</t>
+  </si>
+  <si>
+    <t>RulePackDef+LeaderTitleMakerCarni.rulePack.rulesStrings.0</t>
+  </si>
+  <si>
+    <t>r_deityName-&gt;최초의 자식</t>
+  </si>
+  <si>
+    <t>NamerDeityCarni.rulePack.rulesStrings.0</t>
+  </si>
+  <si>
+    <t>RulePackDef+NamerDeityCarni.rulePack.rulesStrings.0</t>
+  </si>
+  <si>
+    <t>god-&gt;망가진 우주에서의 도망자</t>
+  </si>
+  <si>
+    <t>DeityTypeMakerCarni.rulePack.rulesStrings.9</t>
+  </si>
+  <si>
+    <t>RulePackDef+DeityTypeMakerCarni.rulePack.rulesStrings.9</t>
+  </si>
+  <si>
+    <t>god-&gt;유기산의 별</t>
+  </si>
+  <si>
+    <t>DeityTypeMakerCarni.rulePack.rulesStrings.8</t>
+  </si>
+  <si>
+    <t>RulePackDef+DeityTypeMakerCarni.rulePack.rulesStrings.8</t>
+  </si>
+  <si>
+    <t>god-&gt;핵산 덩어리</t>
+  </si>
+  <si>
+    <t>DeityTypeMakerCarni.rulePack.rulesStrings.7</t>
+  </si>
+  <si>
+    <t>RulePackDef+DeityTypeMakerCarni.rulePack.rulesStrings.7</t>
+  </si>
+  <si>
+    <t>god-&gt;고아</t>
+  </si>
+  <si>
+    <t>DeityTypeMakerCarni.rulePack.rulesStrings.6</t>
+  </si>
+  <si>
+    <t>RulePackDef+DeityTypeMakerCarni.rulePack.rulesStrings.6</t>
+  </si>
+  <si>
+    <t>god-&gt;아기</t>
+  </si>
+  <si>
+    <t>DeityTypeMakerCarni.rulePack.rulesStrings.5</t>
+  </si>
+  <si>
+    <t>RulePackDef+DeityTypeMakerCarni.rulePack.rulesStrings.5</t>
+  </si>
+  <si>
+    <t>adjctv-&gt;초자연적인</t>
+  </si>
+  <si>
+    <t>DeityTypeMakerCarni.rulePack.rulesStrings.4</t>
+  </si>
+  <si>
+    <t>RulePackDef+DeityTypeMakerCarni.rulePack.rulesStrings.4</t>
+  </si>
+  <si>
+    <t>adjctv-&gt;선조의</t>
+  </si>
+  <si>
+    <t>DeityTypeMakerCarni.rulePack.rulesStrings.3</t>
+  </si>
+  <si>
+    <t>RulePackDef+DeityTypeMakerCarni.rulePack.rulesStrings.3</t>
+  </si>
+  <si>
+    <t>adjctv-&gt;태초의</t>
+  </si>
+  <si>
+    <t>DeityTypeMakerCarni.rulePack.rulesStrings.2</t>
+  </si>
+  <si>
+    <t>RulePackDef+DeityTypeMakerCarni.rulePack.rulesStrings.2</t>
+  </si>
+  <si>
+    <t>r_deityType-&gt;[adjctv][god]</t>
+  </si>
+  <si>
+    <t>DeityTypeMakerCarni.rulePack.rulesStrings.1</t>
+  </si>
+  <si>
+    <t>RulePackDef+DeityTypeMakerCarni.rulePack.rulesStrings.1</t>
+  </si>
+  <si>
+    <t>r_deityType-&gt;[memeConcept]의 [god]</t>
+  </si>
+  <si>
+    <t>DeityTypeMakerCarni.rulePack.rulesStrings.0</t>
+  </si>
+  <si>
+    <t>RulePackDef+DeityTypeMakerCarni.rulePack.rulesStrings.0</t>
+  </si>
+  <si>
+    <t>r_ideoAdjective-&gt;종양주의적</t>
+  </si>
+  <si>
+    <t>NamerIdeoCarni.rulePack.rulesStrings.11</t>
+  </si>
+  <si>
+    <t>RulePackDef+NamerIdeoCarni.rulePack.rulesStrings.11</t>
+  </si>
+  <si>
+    <t>r_name-&gt;[Carni_nounMed]의 [Carni_People]</t>
+  </si>
+  <si>
+    <t>NamerIdeoCarni.rulePack.rulesStrings.10</t>
+  </si>
+  <si>
+    <t>RulePackDef+NamerIdeoCarni.rulePack.rulesStrings.10</t>
+  </si>
+  <si>
+    <t>r_memberName-&gt;종양주의자</t>
+  </si>
+  <si>
+    <t>NamerIdeoCarni.rulePack.rulesStrings.9</t>
+  </si>
+  <si>
+    <t>RulePackDef+NamerIdeoCarni.rulePack.rulesStrings.9</t>
+  </si>
+  <si>
+    <t>r_memberName-&gt;[Carni_adjective][Carni_People]</t>
+  </si>
+  <si>
+    <t>NamerIdeoCarni.rulePack.rulesStrings.8</t>
+  </si>
+  <si>
+    <t>RulePackDef+NamerIdeoCarni.rulePack.rulesStrings.8</t>
+  </si>
+  <si>
+    <t>r_ideoName-&gt;조각난 어미의 교단</t>
+  </si>
+  <si>
+    <t>NamerIdeoCarni.rulePack.rulesStrings.7</t>
+  </si>
+  <si>
+    <t>RulePackDef+NamerIdeoCarni.rulePack.rulesStrings.7</t>
+  </si>
+  <si>
+    <t>r_ideoName-&gt;기형 어미의 교단</t>
+  </si>
+  <si>
+    <t>NamerIdeoCarni.rulePack.rulesStrings.6</t>
+  </si>
+  <si>
+    <t>RulePackDef+NamerIdeoCarni.rulePack.rulesStrings.6</t>
+  </si>
+  <si>
+    <t>r_ideoName-&gt;분열증식주의</t>
+  </si>
+  <si>
+    <t>NamerIdeoCarni.rulePack.rulesStrings.5</t>
+  </si>
+  <si>
+    <t>RulePackDef+NamerIdeoCarni.rulePack.rulesStrings.5</t>
+  </si>
+  <si>
+    <t>r_ideoName-&gt;라포침투주의</t>
+  </si>
+  <si>
+    <t>NamerIdeoCarni.rulePack.rulesStrings.4</t>
+  </si>
+  <si>
+    <t>RulePackDef+NamerIdeoCarni.rulePack.rulesStrings.4</t>
+  </si>
+  <si>
+    <t>r_ideoName-&gt;꿈틀거리는 종양의 법칙</t>
+  </si>
+  <si>
+    <t>NamerIdeoCarni.rulePack.rulesStrings.3</t>
+  </si>
+  <si>
+    <t>RulePackDef+NamerIdeoCarni.rulePack.rulesStrings.3</t>
+  </si>
+  <si>
+    <t>r_ideoName-&gt;종양의 법칙</t>
+  </si>
+  <si>
+    <t>NamerIdeoCarni.rulePack.rulesStrings.2</t>
+  </si>
+  <si>
+    <t>RulePackDef+NamerIdeoCarni.rulePack.rulesStrings.2</t>
+  </si>
+  <si>
+    <t>r_ideoName-&gt;종양의 맹세</t>
+  </si>
+  <si>
+    <t>NamerIdeoCarni.rulePack.rulesStrings.1</t>
+  </si>
+  <si>
+    <t>RulePackDef+NamerIdeoCarni.rulePack.rulesStrings.1</t>
+  </si>
+  <si>
+    <t>r_ideoName-&gt;종양주의</t>
+  </si>
+  <si>
+    <t>NamerIdeoCarni.rulePack.rulesStrings.0</t>
+  </si>
+  <si>
+    <t>RulePackDef+NamerIdeoCarni.rulePack.rulesStrings.0</t>
+  </si>
+  <si>
+    <t>r_name-&gt;[Carni_People]의 [Carni_Place]</t>
+  </si>
+  <si>
+    <t>NamerSettlementCarni.rulePack.rulesStrings.1</t>
+  </si>
+  <si>
+    <t>RulePackDef+NamerSettlementCarni.rulePack.rulesStrings.1</t>
+  </si>
+  <si>
+    <t>r_name-&gt;[Mama_First](을)를 위한 [Carni_Place]</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>NamerSettlementCarni.rulePack.rulesStrings.0</t>
+  </si>
+  <si>
+    <t>RulePackDef+NamerSettlementCarni.rulePack.rulesStrings.0</t>
+  </si>
+  <si>
+    <t>r_name-&gt;[Carni_adjective] [Carni_nounMed]의 [Carni_People]</t>
+  </si>
+  <si>
+    <t>NamerFactionCarni.rulePack.rulesStrings.1</t>
+  </si>
+  <si>
+    <t>RulePackDef+NamerFactionCarni.rulePack.rulesStrings.1</t>
+  </si>
+  <si>
+    <t>r_name-&gt;[Carni_adjective] [Mama_First]의 [Carni_People]</t>
+  </si>
+  <si>
+    <t>NamerFactionCarni.rulePack.rulesStrings.0</t>
+  </si>
+  <si>
+    <t>RulePackDef+NamerFactionCarni.rulePack.rulesStrings.0</t>
+  </si>
+  <si>
+    <t>r_name-&gt;[Mama_First] '[Mama_Middle]' [Mama_LastCap][Digit][Digit][Digit][Digit]</t>
+  </si>
+  <si>
+    <t>Mama_NameMaker.rulePack.rulesStrings.0</t>
+  </si>
+  <si>
+    <t>RulePackDef+Mama_NameMaker.rulePack.rulesStrings.0</t>
+  </si>
+  <si>
+    <t>마마의 자궁에 큰 기생충을 이식합니다.</t>
+  </si>
+  <si>
+    <t>MamaSurgery_BigBaby.description</t>
+  </si>
+  <si>
+    <t>RecipeDef</t>
+  </si>
+  <si>
+    <t>RecipeDef+MamaSurgery_BigBaby.description</t>
+  </si>
+  <si>
+    <t>마마 육신 재구성 (보테배)</t>
+  </si>
+  <si>
+    <t>MamaSurgery_BigBaby.label</t>
+  </si>
+  <si>
+    <t>RecipeDef+MamaSurgery_BigBaby.label</t>
+  </si>
+  <si>
+    <t>마마 육신 재구성중</t>
+  </si>
+  <si>
+    <t>MamaSurgery_BigBaby.jobString</t>
+  </si>
+  <si>
+    <t>RecipeDef+MamaSurgery_BigBaby.jobString</t>
+  </si>
+  <si>
+    <t>마마의 촉수에 독침을 부착합니다</t>
+  </si>
+  <si>
+    <t>MamaSurgery_Thorn.description</t>
+  </si>
+  <si>
+    <t>RecipeDef+MamaSurgery_Thorn.description</t>
+  </si>
+  <si>
+    <t>마마 육신 재구성 (가시 촉수)</t>
+  </si>
+  <si>
+    <t>MamaSurgery_Thorn.label</t>
+  </si>
+  <si>
+    <t>RecipeDef+MamaSurgery_Thorn.label</t>
+  </si>
+  <si>
+    <t>MamaSurgery_Thorn.jobString</t>
+  </si>
+  <si>
+    <t>RecipeDef+MamaSurgery_Thorn.jobString</t>
+  </si>
+  <si>
+    <t>유두를 자지로 바꿉니다.</t>
+  </si>
+  <si>
+    <t>MamaSurgery_DickNipple.description</t>
+  </si>
+  <si>
+    <t>RecipeDef+MamaSurgery_DickNipple.description</t>
+  </si>
+  <si>
+    <t>마마 육신 재구성 (자지 유두)</t>
+  </si>
+  <si>
+    <t>MamaSurgery_DickNipple.label</t>
+  </si>
+  <si>
+    <t>RecipeDef+MamaSurgery_DickNipple.label</t>
+  </si>
+  <si>
+    <t>MamaSurgery_DickNipple.jobString</t>
+  </si>
+  <si>
+    <t>RecipeDef+MamaSurgery_DickNipple.jobString</t>
+  </si>
+  <si>
+    <t>유두를 확장합니다.</t>
+  </si>
+  <si>
+    <t>MamaSurgery_MegaNipple.description</t>
+  </si>
+  <si>
+    <t>RecipeDef+MamaSurgery_MegaNipple.description</t>
+  </si>
+  <si>
+    <t>마마 육신 재구성 (유두 확장)</t>
+  </si>
+  <si>
+    <t>MamaSurgery_MegaNipple.label</t>
+  </si>
+  <si>
+    <t>RecipeDef+MamaSurgery_MegaNipple.label</t>
+  </si>
+  <si>
+    <t>MamaSurgery_MegaNipple.jobString</t>
+  </si>
+  <si>
+    <t>RecipeDef+MamaSurgery_MegaNipple.jobString</t>
+  </si>
+  <si>
+    <t>가슴을 확장합니다.</t>
+  </si>
+  <si>
+    <t>MamaSurgery_MegaOppai.description</t>
+  </si>
+  <si>
+    <t>RecipeDef+MamaSurgery_MegaOppai.description</t>
+  </si>
+  <si>
+    <t>마마 육신 재구성 (가슴 확장)</t>
+  </si>
+  <si>
+    <t>MamaSurgery_MegaOppai.label</t>
+  </si>
+  <si>
+    <t>RecipeDef+MamaSurgery_MegaOppai.label</t>
+  </si>
+  <si>
+    <t>MamaSurgery_MegaOppai.jobString</t>
+  </si>
+  <si>
+    <t>RecipeDef+MamaSurgery_MegaOppai.jobString</t>
+  </si>
+  <si>
+    <t>CarniMama_slave.label</t>
+  </si>
+  <si>
+    <t>PawnKindDef+CarniMama_slave.label</t>
+  </si>
+  <si>
+    <t>전투원</t>
+  </si>
+  <si>
+    <t>CarniMama_soldier.label</t>
+  </si>
+  <si>
+    <t>PawnKindDef+CarniMama_soldier.label</t>
+  </si>
+  <si>
+    <t>CarniMama_boss.label</t>
+  </si>
+  <si>
+    <t>PawnKindDef+CarniMama_boss.label</t>
+  </si>
+  <si>
+    <t>CarniMama_dr.label</t>
+  </si>
+  <si>
+    <t>PawnKindDef+CarniMama_dr.label</t>
+  </si>
+  <si>
+    <t>CarniMama_police.label</t>
+  </si>
+  <si>
+    <t>PawnKindDef+CarniMama_police.label</t>
+  </si>
+  <si>
+    <t>CarniMama_maid.label</t>
+  </si>
+  <si>
+    <t>PawnKindDef+CarniMama_maid.label</t>
+  </si>
+  <si>
+    <t>CarniMama_nun.label</t>
+  </si>
+  <si>
+    <t>PawnKindDef+CarniMama_nun.label</t>
+  </si>
+  <si>
+    <t>CarniMama_colonist.label</t>
+  </si>
+  <si>
+    <t>PawnKindDef+CarniMama_colonist.label</t>
+  </si>
+  <si>
+    <t>야생 카니칼루스</t>
+  </si>
+  <si>
+    <t>WildMan_Carni.label</t>
+  </si>
+  <si>
+    <t>PawnKindDef+WildMan_Carni.label</t>
+  </si>
+  <si>
+    <t>Carni_logger.label</t>
+  </si>
+  <si>
+    <t>PawnKindDef+Carni_logger.label</t>
+  </si>
+  <si>
+    <t>Carni_miner.label</t>
+  </si>
+  <si>
+    <t>PawnKindDef+Carni_miner.label</t>
+  </si>
+  <si>
+    <t>Carni_butcher.label</t>
+  </si>
+  <si>
+    <t>PawnKindDef+Carni_butcher.label</t>
+  </si>
+  <si>
+    <t>Carni_worker.label</t>
+  </si>
+  <si>
+    <t>PawnKindDef+Carni_worker.label</t>
+  </si>
+  <si>
+    <t>Carni_boss.labelFemale</t>
+  </si>
+  <si>
+    <t>PawnKindDef+Carni_boss.labelFemale</t>
+  </si>
+  <si>
+    <t>Carni_boss.labelMale</t>
+  </si>
+  <si>
+    <t>PawnKindDef+Carni_boss.labelMale</t>
+  </si>
+  <si>
+    <t>마마의 뱃속에 자릴 잡은 큰 아기</t>
+  </si>
+  <si>
+    <t>MamaVariant_BigBaby.description</t>
+  </si>
+  <si>
+    <t>HediffDef+MamaVariant_BigBaby.description</t>
+  </si>
+  <si>
+    <t>빅 베이비</t>
+  </si>
+  <si>
+    <t>MamaVariant_BigBaby.label</t>
+  </si>
+  <si>
+    <t>HediffDef+MamaVariant_BigBaby.label</t>
+  </si>
+  <si>
+    <t>유독성 가시</t>
+  </si>
+  <si>
+    <t>MamaVariant_Thorn.comps.0.tools.1.label</t>
+  </si>
+  <si>
+    <t>HediffDef+MamaVariant_Thorn.comps.0.tools.1.label</t>
+  </si>
+  <si>
+    <t>MamaVariant_Thorn.comps.0.tools.0.label</t>
+  </si>
+  <si>
+    <t>HediffDef+MamaVariant_Thorn.comps.0.tools.0.label</t>
+  </si>
+  <si>
+    <t>독침이 달린 촉수</t>
+  </si>
+  <si>
+    <t>MamaVariant_Thorn.description</t>
+  </si>
+  <si>
+    <t>HediffDef+MamaVariant_Thorn.description</t>
+  </si>
+  <si>
+    <t>MamaVariant_Thorn.label</t>
+  </si>
+  <si>
+    <t>HediffDef+MamaVariant_Thorn.label</t>
+  </si>
+  <si>
+    <t>자지 유두</t>
+  </si>
+  <si>
+    <t>MamaVariant_DickNipple.description</t>
+  </si>
+  <si>
+    <t>HediffDef+MamaVariant_DickNipple.description</t>
+  </si>
+  <si>
+    <t>MamaVariant_DickNipple.label</t>
+  </si>
+  <si>
+    <t>HediffDef+MamaVariant_DickNipple.label</t>
+  </si>
+  <si>
+    <t>확장된 유두</t>
+  </si>
+  <si>
+    <t>MamaVariant_MegaNipple.description</t>
+  </si>
+  <si>
+    <t>HediffDef+MamaVariant_MegaNipple.description</t>
+  </si>
+  <si>
+    <t>거대유두</t>
+  </si>
+  <si>
+    <t>MamaVariant_MegaNipple.label</t>
+  </si>
+  <si>
+    <t>HediffDef+MamaVariant_MegaNipple.label</t>
+  </si>
+  <si>
+    <t>거대하게 확장된 가슴</t>
+  </si>
+  <si>
+    <t>MamaVariant_MegaOppai.description</t>
+  </si>
+  <si>
+    <t>HediffDef+MamaVariant_MegaOppai.description</t>
+  </si>
+  <si>
+    <t>폭유</t>
+  </si>
+  <si>
+    <t>MamaVariant_MegaOppai.label</t>
+  </si>
+  <si>
+    <t>HediffDef+MamaVariant_MegaOppai.label</t>
+  </si>
+  <si>
+    <t>인공 배양된 마마</t>
+  </si>
+  <si>
+    <t>Hediff_VatMama.description</t>
+  </si>
+  <si>
+    <t>HediffDef+Hediff_VatMama.description</t>
+  </si>
+  <si>
+    <t>Hediff_VatMama.label</t>
+  </si>
+  <si>
+    <t>HediffDef+Hediff_VatMama.label</t>
+  </si>
+  <si>
+    <t>12 단계</t>
+  </si>
+  <si>
+    <t>Hediff_MamaGrowth.stages.12.label</t>
+  </si>
+  <si>
+    <t>HediffDef+Hediff_MamaGrowth.stages.12.label</t>
+  </si>
+  <si>
+    <t>11 단계</t>
+  </si>
+  <si>
+    <t>Hediff_MamaGrowth.stages.11.label</t>
+  </si>
+  <si>
+    <t>HediffDef+Hediff_MamaGrowth.stages.11.label</t>
+  </si>
+  <si>
+    <t>10 단계</t>
+  </si>
+  <si>
+    <t>Hediff_MamaGrowth.stages.10.label</t>
+  </si>
+  <si>
+    <t>HediffDef+Hediff_MamaGrowth.stages.10.label</t>
+  </si>
+  <si>
+    <t>9 단계</t>
+  </si>
+  <si>
+    <t>Hediff_MamaGrowth.stages.9.label</t>
+  </si>
+  <si>
+    <t>HediffDef+Hediff_MamaGrowth.stages.9.label</t>
+  </si>
+  <si>
+    <t>8 단계</t>
+  </si>
+  <si>
+    <t>Hediff_MamaGrowth.stages.8.label</t>
+  </si>
+  <si>
+    <t>HediffDef+Hediff_MamaGrowth.stages.8.label</t>
+  </si>
+  <si>
+    <t>7 단계</t>
+  </si>
+  <si>
+    <t>Hediff_MamaGrowth.stages.7.label</t>
+  </si>
+  <si>
+    <t>HediffDef+Hediff_MamaGrowth.stages.7.label</t>
+  </si>
+  <si>
+    <t>6 단계</t>
+  </si>
+  <si>
+    <t>Hediff_MamaGrowth.stages.6.label</t>
+  </si>
+  <si>
+    <t>HediffDef+Hediff_MamaGrowth.stages.6.label</t>
+  </si>
+  <si>
+    <t>5 단계</t>
+  </si>
+  <si>
+    <t>Hediff_MamaGrowth.stages.5.label</t>
+  </si>
+  <si>
+    <t>HediffDef+Hediff_MamaGrowth.stages.5.label</t>
+  </si>
+  <si>
+    <t>4 단계</t>
+  </si>
+  <si>
+    <t>Hediff_MamaGrowth.stages.4.label</t>
+  </si>
+  <si>
+    <t>HediffDef+Hediff_MamaGrowth.stages.4.label</t>
+  </si>
+  <si>
+    <t>3 단계</t>
+  </si>
+  <si>
+    <t>Hediff_MamaGrowth.stages.3.label</t>
+  </si>
+  <si>
+    <t>HediffDef+Hediff_MamaGrowth.stages.3.label</t>
+  </si>
+  <si>
+    <t>2 단계</t>
+  </si>
+  <si>
+    <t>Hediff_MamaGrowth.stages.2.label</t>
+  </si>
+  <si>
+    <t>HediffDef+Hediff_MamaGrowth.stages.2.label</t>
+  </si>
+  <si>
+    <t>1 단계</t>
+  </si>
+  <si>
+    <t>Hediff_MamaGrowth.stages.1.label</t>
+  </si>
+  <si>
+    <t>HediffDef+Hediff_MamaGrowth.stages.1.label</t>
+  </si>
+  <si>
+    <t>0 단계</t>
+  </si>
+  <si>
+    <t>Hediff_MamaGrowth.stages.0.label</t>
+  </si>
+  <si>
+    <t>HediffDef+Hediff_MamaGrowth.stages.0.label</t>
+  </si>
+  <si>
+    <t>시간이 지나면서 촉수 같은 조직이 발달하는 신생물 질환입니다. 기본적으로 질환이 진행될수록 신체 기능이 향상되지만, 특정 단계에 이르면 환자의 신경계와 외모가 비정상적으로 변합니다...</t>
+  </si>
+  <si>
+    <t>Hediff_MamaGrowth.description</t>
+  </si>
+  <si>
+    <t>HediffDef+Hediff_MamaGrowth.description</t>
+  </si>
+  <si>
+    <t>아우레올로마</t>
+  </si>
+  <si>
+    <t>Hediff_MamaGrowth.label</t>
+  </si>
+  <si>
+    <t>HediffDef+Hediff_MamaGrowth.label</t>
+  </si>
+  <si>
+    <t>CarniMamaGene.symbolPack.prefixSymbols.2.symbol</t>
+  </si>
+  <si>
+    <t>GeneDef</t>
+  </si>
+  <si>
+    <t>GeneDef+CarniMamaGene.symbolPack.prefixSymbols.2.symbol</t>
+  </si>
+  <si>
+    <t>엄마</t>
+  </si>
+  <si>
+    <t>CarniMamaGene.symbolPack.prefixSymbols.1.symbol</t>
+  </si>
+  <si>
+    <t>GeneDef+CarniMamaGene.symbolPack.prefixSymbols.1.symbol</t>
+  </si>
+  <si>
+    <t>CarniMamaGene.symbolPack.prefixSymbols.0.symbol</t>
+  </si>
+  <si>
+    <t>GeneDef+CarniMamaGene.symbolPack.prefixSymbols.0.symbol</t>
+  </si>
+  <si>
+    <t>이상적이고 사랑스러운 마마의 유전자.</t>
+  </si>
+  <si>
+    <t>CarniMamaGene.description</t>
+  </si>
+  <si>
+    <t>GeneDef+CarniMamaGene.description</t>
+  </si>
+  <si>
+    <t>마마의 사랑</t>
+  </si>
+  <si>
+    <t>CarniMamaGene.labelShortAdj</t>
+  </si>
+  <si>
+    <t>GeneDef+CarniMamaGene.labelShortAdj</t>
+  </si>
+  <si>
+    <t>CarniMamaGene.label</t>
+  </si>
+  <si>
+    <t>GeneDef+CarniMamaGene.label</t>
+  </si>
+  <si>
+    <t>기형체</t>
+  </si>
+  <si>
+    <t>CarniGene.symbolPack.prefixSymbols.1.symbol</t>
+  </si>
+  <si>
+    <t>GeneDef+CarniGene.symbolPack.prefixSymbols.1.symbol</t>
+  </si>
+  <si>
+    <t>살덩이</t>
+  </si>
+  <si>
+    <t>CarniGene.symbolPack.prefixSymbols.0.symbol</t>
+  </si>
+  <si>
+    <t>GeneDef+CarniGene.symbolPack.prefixSymbols.0.symbol</t>
+  </si>
+  <si>
+    <t>걸어다니는 종양 종족의 핵심 유전자.</t>
+  </si>
+  <si>
+    <t>CarniGene.description</t>
+  </si>
+  <si>
+    <t>GeneDef+CarniGene.description</t>
+  </si>
+  <si>
+    <t>카니칼루스 코어</t>
+  </si>
+  <si>
+    <t>CarniGene.labelShortAdj</t>
+  </si>
+  <si>
+    <t>GeneDef+CarniGene.labelShortAdj</t>
+  </si>
+  <si>
+    <t>CarniGene.label</t>
+  </si>
+  <si>
+    <t>GeneDef+CarniGene.label</t>
+  </si>
+  <si>
+    <t>Carniculus_GeneCat.label</t>
+  </si>
+  <si>
+    <t>GeneCategoryDef</t>
+  </si>
+  <si>
+    <t>GeneCategoryDef+Carniculus_GeneCat.label</t>
+  </si>
+  <si>
+    <t>지도자</t>
+  </si>
+  <si>
+    <t>CarniPlayerFaction.leaderTitle</t>
+  </si>
+  <si>
+    <t>FactionDef+CarniPlayerFaction.leaderTitle</t>
+  </si>
+  <si>
+    <t>카니칼루스 콜로니</t>
+  </si>
+  <si>
+    <t>카니칼루스 문화</t>
+  </si>
+  <si>
+    <t>네오플라즈믹 애남네시스</t>
+  </si>
+  <si>
+    <t>[PAWN_nameDef](은)는 배양조에서 자란 강력한 병사이지만, 독성과 질병에 대한 면역력이 약합니다.</t>
+  </si>
+  <si>
+    <t>VatGrownCarni.description</t>
+  </si>
+  <si>
+    <t>BackstoryDef</t>
+  </si>
+  <si>
+    <t>BackstoryDef+VatGrownCarni.description</t>
+  </si>
+  <si>
+    <t>배양품</t>
+  </si>
+  <si>
+    <t>VatGrownCarni.titleShort</t>
+  </si>
+  <si>
+    <t>BackstoryDef+VatGrownCarni.titleShort</t>
+  </si>
+  <si>
+    <t>배양된 카니칼루스</t>
+  </si>
+  <si>
+    <t>VatGrownCarni.title</t>
+  </si>
+  <si>
+    <t>BackstoryDef+VatGrownCarni.title</t>
+  </si>
+  <si>
+    <t>고독을 달래기 위해 [PAWN_nameDef](은)는 종종 인간의 아이를 납치하여 자신의 동굴로 데려갔습니다. 동굴 안에서 무엇이 이루어지고 있는지는 아무도 모르지만 아이들이 집에 가는 일은 없었고 [PAWN_nameDef]만이 새로운 아이를 찾아 밖으로 나올 뿐이었습니다.</t>
+  </si>
+  <si>
+    <t>Kidnapper.description</t>
+  </si>
+  <si>
+    <t>BackstoryDef+Kidnapper.description</t>
+  </si>
+  <si>
+    <t>BackstoryDef+Kidnapper.titleShort</t>
+  </si>
+  <si>
+    <t>BackstoryDef+Kidnapper.title</t>
+  </si>
+  <si>
+    <t>[PAWN_nameDef](은)는 가축을 잡아먹는 육식 괴물로 인근 정착지를 두려움에 떨게 했습니다. 인간이 고용한 사냥꾼으로부터 도망친 후 새로운 먹이터를 찾고 있습니다.</t>
+  </si>
+  <si>
+    <t>CattleKiller.description</t>
+  </si>
+  <si>
+    <t>BackstoryDef+CattleKiller.description</t>
+  </si>
+  <si>
+    <t>BackstoryDef+CattleKiller.titleShort</t>
+  </si>
+  <si>
+    <t>가축 포식자</t>
+  </si>
+  <si>
+    <t>BackstoryDef+CattleKiller.title</t>
+  </si>
+  <si>
+    <t>어떤 정착지에서 가축이 부자연스러운 임신을 하고 섬뜩한 기형아를 출산하는 것이 문제가 되고 있었습니다. 조사 결과, 근처에 살던 [PAWN_nameDef]의 소행임이 밝혀졌고, 곧 사냥 당해 자신의 거처를 포기하게 되었습니다.</t>
+  </si>
+  <si>
+    <t>CattleFucker.description</t>
+  </si>
+  <si>
+    <t>BackstoryDef+CattleFucker.description</t>
+  </si>
+  <si>
+    <t>BackstoryDef+CattleFucker.titleShort</t>
+  </si>
+  <si>
+    <t>BackstoryDef+CattleFucker.title</t>
+  </si>
+  <si>
+    <t>RabidCarni.description</t>
+  </si>
+  <si>
+    <t>BackstoryDef+RabidCarni.description</t>
+  </si>
+  <si>
+    <t>광견</t>
+  </si>
+  <si>
+    <t>BackstoryDef+RabidCarni.titleShort</t>
+  </si>
+  <si>
+    <t>흉포한 카니칼루스</t>
+  </si>
+  <si>
+    <t>BackstoryDef+RabidCarni.title</t>
+  </si>
+  <si>
+    <t>[PAWN_nameDef](은)는 공예나 재봉 문화에 관심이 많으며, 자신의 촉수 같은 손가락으로 무엇을 만들 수 있을지 항상 궁리하고 있습니다.</t>
+  </si>
+  <si>
+    <t>FleshTailor.description</t>
+  </si>
+  <si>
+    <t>BackstoryDef+FleshTailor.description</t>
+  </si>
+  <si>
+    <t>BackstoryDef+FleshTailor.titleShort</t>
+  </si>
+  <si>
+    <t>BackstoryDef+FleshTailor.title</t>
+  </si>
+  <si>
+    <t>[PAWN_nameDef](은)는 단단하고 무기질적인 재질에 어떤 로망을 품고 있습니다.</t>
+  </si>
+  <si>
+    <t>Constructor.description</t>
+  </si>
+  <si>
+    <t>BackstoryDef+Constructor.description</t>
+  </si>
+  <si>
+    <t>건축가</t>
+  </si>
+  <si>
+    <t>BackstoryDef+Constructor.titleShort</t>
+  </si>
+  <si>
+    <t>BackstoryDef+Constructor.title</t>
+  </si>
+  <si>
+    <t>[PAWN_nameDef](은)는 대식세포처럼 탐욕스럽고 튼튼합니다.</t>
+  </si>
+  <si>
+    <t>Macrophage.description</t>
+  </si>
+  <si>
+    <t>BackstoryDef+Macrophage.description</t>
+  </si>
+  <si>
+    <t>매크로파지</t>
+  </si>
+  <si>
+    <t>BackstoryDef+Macrophage.titleShort</t>
+  </si>
+  <si>
+    <t>BackstoryDef+Macrophage.title</t>
+  </si>
+  <si>
+    <t>[PAWN_nameDef](은)는 면역방위세포의 성질이 강하게 발현된, 믿을만한 호위입니다.</t>
+  </si>
+  <si>
+    <t>KillerT.description</t>
+  </si>
+  <si>
+    <t>BackstoryDef+KillerT.description</t>
+  </si>
+  <si>
+    <t>BackstoryDef+KillerT.titleShort</t>
+  </si>
+  <si>
+    <t>BackstoryDef+KillerT.title</t>
+  </si>
+  <si>
+    <t>Farmhand.description</t>
+  </si>
+  <si>
+    <t>BackstoryDef+Farmhand.description</t>
+  </si>
+  <si>
+    <t>BackstoryDef+Farmhand.titleShort</t>
+  </si>
+  <si>
+    <t>BackstoryDef+Farmhand.title</t>
+  </si>
+  <si>
+    <t>Livestocker.description</t>
+  </si>
+  <si>
+    <t>BackstoryDef+Livestocker.description</t>
+  </si>
+  <si>
+    <t>BackstoryDef+Livestocker.titleShort</t>
+  </si>
+  <si>
+    <t>BackstoryDef+Livestocker.title</t>
+  </si>
+  <si>
+    <t>[PAWN_nameDef](은)는 내장을 좋아합니다.</t>
+  </si>
+  <si>
+    <t>Torturer.description</t>
+  </si>
+  <si>
+    <t>BackstoryDef+Torturer.description</t>
+  </si>
+  <si>
+    <t>BackstoryDef+Torturer.titleShort</t>
+  </si>
+  <si>
+    <t>BackstoryDef+Torturer.title</t>
+  </si>
+  <si>
+    <t>[PAWN_nameDef](은)는 고기를 좋아합니다.</t>
+  </si>
+  <si>
+    <t>Butcher.description</t>
+  </si>
+  <si>
+    <t>BackstoryDef+Butcher.description</t>
+  </si>
+  <si>
+    <t>도살자</t>
+  </si>
+  <si>
+    <t>BackstoryDef+Butcher.titleShort</t>
+  </si>
+  <si>
+    <t>BackstoryDef+Butcher.title</t>
+  </si>
+  <si>
+    <t>B_TestSubF.description</t>
+  </si>
+  <si>
+    <t>BackstoryDef+B_TestSubF.description</t>
+  </si>
+  <si>
+    <t>번식용</t>
+  </si>
+  <si>
+    <t>BackstoryDef+B_TestSubF.titleShort</t>
+  </si>
+  <si>
+    <t>번식용 카니칼루스</t>
+  </si>
+  <si>
+    <t>BackstoryDef+B_TestSubF.title</t>
+  </si>
+  <si>
+    <t>B_TestSubM.description</t>
+  </si>
+  <si>
+    <t>BackstoryDef+B_TestSubM.description</t>
+  </si>
+  <si>
+    <t>BackstoryDef+B_TestSubM.titleShort</t>
+  </si>
+  <si>
+    <t>번식용 카니칼루스 남</t>
+  </si>
+  <si>
+    <t>BackstoryDef+B_TestSubM.title</t>
+  </si>
+  <si>
+    <t>Matriarch.description</t>
+  </si>
+  <si>
+    <t>BackstoryDef+Matriarch.description</t>
+  </si>
+  <si>
+    <t>BackstoryDef+Matriarch.titleShort</t>
+  </si>
+  <si>
+    <t>BackstoryDef+Matriarch.title</t>
+  </si>
+  <si>
+    <t>AlphaMale.description</t>
+  </si>
+  <si>
+    <t>BackstoryDef+AlphaMale.description</t>
+  </si>
+  <si>
+    <t>BackstoryDef+AlphaMale.titleShort</t>
+  </si>
+  <si>
+    <t>BackstoryDef+AlphaMale.title</t>
+  </si>
+  <si>
+    <t>FeralChild.description</t>
+  </si>
+  <si>
+    <t>BackstoryDef+FeralChild.description</t>
+  </si>
+  <si>
+    <t>BackstoryDef+FeralChild.titleShort</t>
+  </si>
+  <si>
+    <t>BackstoryDef+FeralChild.title</t>
+  </si>
+  <si>
+    <t>혹독한 실험을 피하기 위해 죽은 척하던 [PAWN_nameDef](은)는 방심한 과학자에 의해 처리 구역으로 보내졌습니다. 이후 [PAWN_pronoun](은)는 소각 시설 근처 장비 틈에 숨어 살아남았고, 버려진 쓰레기와 다른 카니칼루스의 시체를 먹으며 버텼습니다.</t>
+  </si>
+  <si>
+    <t>PlayingDead.description</t>
+  </si>
+  <si>
+    <t>BackstoryDef+PlayingDead.description</t>
+  </si>
+  <si>
+    <t>시체</t>
+  </si>
+  <si>
+    <t>BackstoryDef+PlayingDead.titleShort</t>
+  </si>
+  <si>
+    <t>버려진 시체</t>
+  </si>
+  <si>
+    <t>BackstoryDef+PlayingDead.title</t>
+  </si>
+  <si>
+    <t>[PAWN_nameDef](은)는 과잉 생산된 제품으로 분류되어 형제들과 함께 어둡고 비위생적인 용기에 처박혔습니다. 그들은 어떤 실험에 사용되거나 결국 소각될 예정이었지만, 그 전에 반란이 일어나 [PAWN_nameDef]와 다른 이들이 풀려났습니다."</t>
+  </si>
+  <si>
+    <t>LeftoverStock.description</t>
+  </si>
+  <si>
+    <t>BackstoryDef+LeftoverStock.description</t>
+  </si>
+  <si>
+    <t>BackstoryDef+LeftoverStock.titleShort</t>
+  </si>
+  <si>
+    <t>재고품</t>
+  </si>
+  <si>
+    <t>BackstoryDef+LeftoverStock.title</t>
+  </si>
+  <si>
+    <t>과학자들은 [PAWN_nameDef]의 생식 기관을 찌르고 조작하며 다양한 실험을 수행했습니다. 그 목적은 카니칼루스의 생식력을 연구하는 것이었지만, 일부 과학자들은 단순한 호기심으로 [PAWN_possessive]의 몸을 사용했습니다."</t>
+  </si>
+  <si>
+    <t>R_TestSub.description</t>
+  </si>
+  <si>
+    <t>BackstoryDef+R_TestSub.description</t>
+  </si>
+  <si>
+    <t>BackstoryDef+R_TestSub.titleShort</t>
+  </si>
+  <si>
+    <t>생식 기능 피실험체</t>
+  </si>
+  <si>
+    <t>BackstoryDef+R_TestSub.title</t>
+  </si>
+  <si>
+    <t>[PAWN_nameDef](은)는 화학물질에 대한 내성을 알아보기 위해 온갖 독극물과 약품에 노출되었습니다. 다른 자는 죽었지만 [PAWN_nameDef](은)는 살아남았고, 지능에 손상을 입었습니다.</t>
+  </si>
+  <si>
+    <t>C_TestSub.description</t>
+  </si>
+  <si>
+    <t>BackstoryDef+C_TestSub.description</t>
+  </si>
+  <si>
+    <t>BackstoryDef+C_TestSub.titleShort</t>
+  </si>
+  <si>
+    <t>화학실험 피실험체</t>
+  </si>
+  <si>
+    <t>BackstoryDef+C_TestSub.title</t>
+  </si>
+  <si>
+    <t>E_TestSub.description</t>
+  </si>
+  <si>
+    <t>BackstoryDef+E_TestSub.description</t>
+  </si>
+  <si>
+    <t>BackstoryDef+E_TestSub.titleShort</t>
+  </si>
+  <si>
+    <t>전기 자극 피실험체</t>
+  </si>
+  <si>
+    <t>BackstoryDef+E_TestSub.title</t>
+  </si>
+  <si>
+    <t>[PAWN_nameDef](은)는 매일 무기질 미로 속에 던져져 출구를 찾으러 뛰어야만 했습니다. 멈추는 것은 곧 신체적 처벌과 식사를 못 먹는 것을 의미했습니다.</t>
+  </si>
+  <si>
+    <t>MazeRunner.description</t>
+  </si>
+  <si>
+    <t>BackstoryDef+MazeRunner.description</t>
+  </si>
+  <si>
+    <t>BackstoryDef+MazeRunner.titleShort</t>
+  </si>
+  <si>
+    <t>BackstoryDef+MazeRunner.title</t>
+  </si>
+  <si>
+    <t>FirstGen.description</t>
+  </si>
+  <si>
+    <t>BackstoryDef+FirstGen.description</t>
+  </si>
+  <si>
+    <t>BackstoryDef+FirstGen.titleShort</t>
+  </si>
+  <si>
+    <t>BackstoryDef+FirstGen.title</t>
+  </si>
+  <si>
+    <t>[PAWN_nameDef](은)는 우주에 떠 있는 연구소의 수석 과학자로서, 자신이 창조한 생명체들을 대상으로 수많은 실험을 수행했습니다. \n그녀는 카니칼루스를 가지고 노는 것을 즐겼고, 그들이 고통이나 쾌락에 빠지는 모습을 지켜보았습니다. 그리고 나중에는 그들에게 똑같은 대우를 되돌려 받았습니다.</t>
+  </si>
+  <si>
+    <t>GoodMama.description</t>
+  </si>
+  <si>
+    <t>BackstoryDef+GoodMama.description</t>
+  </si>
+  <si>
+    <t>착한 마마</t>
+  </si>
+  <si>
+    <t>BackstoryDef+GoodMama.titleShort</t>
+  </si>
+  <si>
+    <t>BackstoryDef+GoodMama.title</t>
+  </si>
+  <si>
+    <t>[PAWN_nameDef](은)는 배양조에서 자란 마마로, 싸울 수는 있지만 독성과 질병에 대한 면역력이 약합니다.</t>
+  </si>
+  <si>
+    <t>VatGrownMama.description</t>
+  </si>
+  <si>
+    <t>BackstoryDef+VatGrownMama.description</t>
+  </si>
+  <si>
+    <t>배양된 마마</t>
+  </si>
+  <si>
+    <t>VatGrownMama.titleShort</t>
+  </si>
+  <si>
+    <t>BackstoryDef+VatGrownMama.titleShort</t>
+  </si>
+  <si>
+    <t>VatGrownMama.title</t>
+  </si>
+  <si>
+    <t>BackstoryDef+VatGrownMama.title</t>
+  </si>
+  <si>
+    <t>[PAWN_nameDef](은)는 유기농 자연 방목 마마입니다. 풍부한 자연 속에서 자랐으며 (아마도) 항생제, 성장 호르몬, 화학물질을 100% 사용하지 않았습니다.</t>
+  </si>
+  <si>
+    <t>GoodGirl.description</t>
+  </si>
+  <si>
+    <t>BackstoryDef+GoodGirl.description</t>
+  </si>
+  <si>
+    <t>운좋은 소녀</t>
+  </si>
+  <si>
+    <t>GoodGirl.titleShort</t>
+  </si>
+  <si>
+    <t>BackstoryDef+GoodGirl.titleShort</t>
+  </si>
+  <si>
+    <t>GoodGirl.title</t>
+  </si>
+  <si>
+    <t>BackstoryDef+GoodGirl.title</t>
+  </si>
+  <si>
+    <t>그녀는 불행히도 카르니쿨루스의 손에 의해 대량 생산된 소녀입니다. 모든 "마마"는 예외 없이 같은 얼굴을 가지고 있지만, 이 소녀는 자신이 특별하며 다른 소녀들과는 다르다고 믿고 있습니다.</t>
+  </si>
+  <si>
+    <t>BadGirl.description</t>
+  </si>
+  <si>
+    <t>BackstoryDef+BadGirl.description</t>
+  </si>
+  <si>
+    <t>불운한 소녀</t>
+  </si>
+  <si>
+    <t>BackstoryDef+BadGirl.titleShort</t>
+  </si>
+  <si>
+    <t>BackstoryDef+BadGirl.title</t>
+  </si>
+  <si>
+    <t>안경</t>
+  </si>
+  <si>
+    <t>Megane.label</t>
+  </si>
+  <si>
+    <t>ApparelLayerDef</t>
+  </si>
+  <si>
+    <t>ApparelLayerDef+Megane.label</t>
+  </si>
+  <si>
+    <t>망토</t>
+  </si>
+  <si>
+    <t>MamaCape.label</t>
+  </si>
+  <si>
+    <t>ApparelLayerDef+MamaCape.label</t>
+  </si>
+  <si>
+    <t>내의</t>
+  </si>
+  <si>
+    <t>MamaInner.label</t>
+  </si>
+  <si>
+    <t>ApparelLayerDef+MamaInner.label</t>
+  </si>
+  <si>
+    <t>란제리</t>
+  </si>
+  <si>
+    <t>MamaOnSkin.label</t>
+  </si>
+  <si>
+    <t>ApparelLayerDef+MamaOnSkin.label</t>
+  </si>
+  <si>
+    <t>[PAWN_nameDef](은)는 카니칼루스 중에서도 가장 초기 세대입니다. [PAWN_nameDef]의 후손들은 끔찍한 실험에 동원되었지만 [PAWN_nameDef] 자신은 잘 대접받았습니다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>과학자들은 신경계의 기능을 조사하기 위해, 혹은 단순 재미로 [PAWN_nameDef]에게 전기 충격을 가했습니다. 반란의 날, [PAWN_nameDef](은)는 낯익은 과학자를 찾아내 보복을 이룰 수 있었습니다.</t>
+  </si>
+  <si>
+    <t>[PAWN_nameDef](은)는 대장 원숭이처럼 행동하는 카니칼루스입니다. 그의 머릿속은 다른 수컷을 죽이고 온갖 종류의 암컷과 교미하는 일로 가득 차 있습니다.</t>
+  </si>
+  <si>
+    <t>[PAWN_nameDef](은)는 이 그룹의 최고참 암컷입니다. [PAWN_possessive] 눈에 띄는 모든 수컷 생명체는 [PAWN_pronoun](이)가 지겨워질 때까지 쥐어짜입니다.</t>
+  </si>
+  <si>
+    <t>[PAWN_nameDef](은)는 표준 수컷 카니칼루스로, 번식에 사용되었습니다. 그의 뇌는 화학적, 외과적으로 자극되어 움직이는 모든 것과 교미를 시도하도록 훈련되었습니다.</t>
+  </si>
+  <si>
+    <t>[PAWN_nameDef](은)는 표준 암컷 카니칼루스로 번식에 사용되었습니다. 그녀의 몸은 교배용 우리에 고정되었고, 보지는 항상 자지나 의료 장치가 박혀있었습니다.</t>
   </si>
 </sst>
 </file>
@@ -2988,11 +4998,5221 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E114AEB6-5625-49AF-8B1A-957276F48800}">
+  <dimension ref="A1:F370"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C16" sqref="C16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="17" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="1" max="1" width="92.08984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.1796875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="81.6328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="29.26953125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="7" width="9.1796875" style="1" customWidth="1"/>
+    <col min="8" max="16384" width="9.1796875" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A2" s="1" t="s">
+        <v>1528</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>1518</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>1527</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>1526</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A3" s="1" t="s">
+        <v>1525</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>1518</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>1524</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>1523</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A4" s="1" t="s">
+        <v>1522</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>1518</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>1521</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>1520</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A5" s="1" t="s">
+        <v>1519</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>1518</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>1517</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>1516</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A6" s="1" t="s">
+        <v>1515</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>1355</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>409</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>1513</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A7" s="1" t="s">
+        <v>1514</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>1355</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>412</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>1513</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A8" s="1" t="s">
+        <v>1512</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>1355</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>1511</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>1510</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A9" s="1" t="s">
+        <v>1509</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>1355</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>1508</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>1505</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A10" s="1" t="s">
+        <v>1507</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>1355</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>1506</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>1505</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A11" s="1" t="s">
+        <v>1504</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>1355</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>1503</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>1502</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A12" s="1" t="s">
+        <v>1501</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>1355</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>1500</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>1497</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A13" s="1" t="s">
+        <v>1499</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>1355</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>1498</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>1497</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A14" s="1" t="s">
+        <v>1496</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>1355</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>1495</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>1494</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A15" s="1" t="s">
+        <v>1493</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>1355</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>417</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>1491</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A16" s="1" t="s">
+        <v>1492</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>1355</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>420</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>1491</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A17" s="1" t="s">
+        <v>1490</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>1355</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>1489</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>1488</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A18" s="1" t="s">
+        <v>1487</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>1355</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>425</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A19" s="1" t="s">
+        <v>1486</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>1355</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>428</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A20" s="1" t="s">
+        <v>1485</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>1355</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>1484</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>1529</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A21" s="1" t="s">
+        <v>1483</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>1355</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>434</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>643</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A22" s="1" t="s">
+        <v>1482</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>1355</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>437</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>643</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A23" s="1" t="s">
+        <v>1481</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>1355</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>1480</v>
+      </c>
+      <c r="F23" s="1" t="s">
+        <v>1479</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A24" s="1" t="s">
+        <v>1478</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>1355</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>443</v>
+      </c>
+      <c r="F24" s="1" t="s">
+        <v>1477</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A25" s="1" t="s">
+        <v>1476</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>1355</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>446</v>
+      </c>
+      <c r="F25" s="1" t="s">
+        <v>646</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A26" s="1" t="s">
+        <v>1475</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>1355</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>1474</v>
+      </c>
+      <c r="F26" s="1" t="s">
+        <v>1530</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A27" s="1" t="s">
+        <v>1473</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>1355</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>452</v>
+      </c>
+      <c r="F27" s="1" t="s">
+        <v>1472</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A28" s="1" t="s">
+        <v>1471</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>1355</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>455</v>
+      </c>
+      <c r="F28" s="1" t="s">
+        <v>649</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A29" s="1" t="s">
+        <v>1470</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>1355</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>1469</v>
+      </c>
+      <c r="F29" s="1" t="s">
+        <v>1468</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A30" s="1" t="s">
+        <v>1467</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>1355</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>461</v>
+      </c>
+      <c r="F30" s="1" t="s">
+        <v>1466</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A31" s="1" t="s">
+        <v>1465</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>1355</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>464</v>
+      </c>
+      <c r="F31" s="1" t="s">
+        <v>652</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A32" s="1" t="s">
+        <v>1464</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>1355</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>1463</v>
+      </c>
+      <c r="F32" s="1" t="s">
+        <v>1462</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A33" s="1" t="s">
+        <v>1461</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>1355</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>470</v>
+      </c>
+      <c r="F33" s="1" t="s">
+        <v>1460</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A34" s="1" t="s">
+        <v>1459</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>1355</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>473</v>
+      </c>
+      <c r="F34" s="1" t="s">
+        <v>655</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A35" s="1" t="s">
+        <v>1458</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>1355</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>1457</v>
+      </c>
+      <c r="F35" s="1" t="s">
+        <v>1456</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A36" s="1" t="s">
+        <v>1455</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>1355</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>479</v>
+      </c>
+      <c r="F36" s="1" t="s">
+        <v>1454</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A37" s="1" t="s">
+        <v>1453</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>1355</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>482</v>
+      </c>
+      <c r="F37" s="1" t="s">
+        <v>1452</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A38" s="1" t="s">
+        <v>1451</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>1355</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>1450</v>
+      </c>
+      <c r="F38" s="1" t="s">
+        <v>1449</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A39" s="1" t="s">
+        <v>1448</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>1355</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>488</v>
+      </c>
+      <c r="F39" s="1" t="s">
+        <v>1216</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A40" s="1" t="s">
+        <v>1447</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>1355</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>491</v>
+      </c>
+      <c r="F40" s="1" t="s">
+        <v>661</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A41" s="1" t="s">
+        <v>1446</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>1355</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>1445</v>
+      </c>
+      <c r="F41" s="1" t="s">
+        <v>848</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A42" s="1" t="s">
+        <v>1444</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>1355</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>497</v>
+      </c>
+      <c r="F42" s="1" t="s">
+        <v>663</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A43" s="1" t="s">
+        <v>1443</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>1355</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>500</v>
+      </c>
+      <c r="F43" s="1" t="s">
+        <v>716</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A44" s="1" t="s">
+        <v>1442</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>1355</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>1441</v>
+      </c>
+      <c r="F44" s="1" t="s">
+        <v>1531</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A45" s="1" t="s">
+        <v>1440</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>1355</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>505</v>
+      </c>
+      <c r="F45" s="1" t="s">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A46" s="1" t="s">
+        <v>1439</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>1355</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>507</v>
+      </c>
+      <c r="F46" s="1" t="s">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A47" s="1" t="s">
+        <v>1438</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>1355</v>
+      </c>
+      <c r="C47" s="1" t="s">
+        <v>1437</v>
+      </c>
+      <c r="F47" s="1" t="s">
+        <v>1532</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A48" s="1" t="s">
+        <v>1436</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>1355</v>
+      </c>
+      <c r="C48" s="1" t="s">
+        <v>512</v>
+      </c>
+      <c r="F48" s="1" t="s">
+        <v>1435</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A49" s="1" t="s">
+        <v>1434</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>1355</v>
+      </c>
+      <c r="C49" s="1" t="s">
+        <v>515</v>
+      </c>
+      <c r="F49" s="1" t="s">
+        <v>669</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A50" s="1" t="s">
+        <v>1433</v>
+      </c>
+      <c r="B50" s="1" t="s">
+        <v>1355</v>
+      </c>
+      <c r="C50" s="1" t="s">
+        <v>1432</v>
+      </c>
+      <c r="F50" s="1" t="s">
+        <v>1533</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A51" s="1" t="s">
+        <v>1431</v>
+      </c>
+      <c r="B51" s="1" t="s">
+        <v>1355</v>
+      </c>
+      <c r="C51" s="1" t="s">
+        <v>521</v>
+      </c>
+      <c r="F51" s="1" t="s">
+        <v>1430</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A52" s="1" t="s">
+        <v>1429</v>
+      </c>
+      <c r="B52" s="1" t="s">
+        <v>1355</v>
+      </c>
+      <c r="C52" s="1" t="s">
+        <v>524</v>
+      </c>
+      <c r="F52" s="1" t="s">
+        <v>1428</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A53" s="1" t="s">
+        <v>1427</v>
+      </c>
+      <c r="B53" s="1" t="s">
+        <v>1355</v>
+      </c>
+      <c r="C53" s="1" t="s">
+        <v>1426</v>
+      </c>
+      <c r="F53" s="1" t="s">
+        <v>1534</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A54" s="1" t="s">
+        <v>1425</v>
+      </c>
+      <c r="B54" s="1" t="s">
+        <v>1355</v>
+      </c>
+      <c r="C54" s="1" t="s">
+        <v>530</v>
+      </c>
+      <c r="F54" s="1" t="s">
+        <v>1423</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A55" s="1" t="s">
+        <v>1424</v>
+      </c>
+      <c r="B55" s="1" t="s">
+        <v>1355</v>
+      </c>
+      <c r="C55" s="1" t="s">
+        <v>532</v>
+      </c>
+      <c r="F55" s="1" t="s">
+        <v>1423</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A56" s="1" t="s">
+        <v>1422</v>
+      </c>
+      <c r="B56" s="1" t="s">
+        <v>1355</v>
+      </c>
+      <c r="C56" s="1" t="s">
+        <v>1421</v>
+      </c>
+      <c r="F56" s="1" t="s">
+        <v>1420</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A57" s="1" t="s">
+        <v>1419</v>
+      </c>
+      <c r="B57" s="1" t="s">
+        <v>1355</v>
+      </c>
+      <c r="C57" s="1" t="s">
+        <v>537</v>
+      </c>
+      <c r="F57" s="1" t="s">
+        <v>676</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A58" s="1" t="s">
+        <v>1418</v>
+      </c>
+      <c r="B58" s="1" t="s">
+        <v>1355</v>
+      </c>
+      <c r="C58" s="1" t="s">
+        <v>540</v>
+      </c>
+      <c r="F58" s="1" t="s">
+        <v>676</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A59" s="1" t="s">
+        <v>1417</v>
+      </c>
+      <c r="B59" s="1" t="s">
+        <v>1355</v>
+      </c>
+      <c r="C59" s="1" t="s">
+        <v>1416</v>
+      </c>
+      <c r="F59" s="1" t="s">
+        <v>1415</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A60" s="1" t="s">
+        <v>1414</v>
+      </c>
+      <c r="B60" s="1" t="s">
+        <v>1355</v>
+      </c>
+      <c r="C60" s="1" t="s">
+        <v>545</v>
+      </c>
+      <c r="F60" s="1" t="s">
+        <v>678</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A61" s="1" t="s">
+        <v>1413</v>
+      </c>
+      <c r="B61" s="1" t="s">
+        <v>1355</v>
+      </c>
+      <c r="C61" s="1" t="s">
+        <v>548</v>
+      </c>
+      <c r="F61" s="1" t="s">
+        <v>678</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A62" s="1" t="s">
+        <v>1412</v>
+      </c>
+      <c r="B62" s="1" t="s">
+        <v>1355</v>
+      </c>
+      <c r="C62" s="1" t="s">
+        <v>1411</v>
+      </c>
+      <c r="F62" s="1" t="s">
+        <v>855</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A63" s="1" t="s">
+        <v>1410</v>
+      </c>
+      <c r="B63" s="1" t="s">
+        <v>1355</v>
+      </c>
+      <c r="C63" s="1" t="s">
+        <v>554</v>
+      </c>
+      <c r="F63" s="1" t="s">
+        <v>680</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A64" s="1" t="s">
+        <v>1409</v>
+      </c>
+      <c r="B64" s="1" t="s">
+        <v>1355</v>
+      </c>
+      <c r="C64" s="1" t="s">
+        <v>557</v>
+      </c>
+      <c r="F64" s="1" t="s">
+        <v>680</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A65" s="1" t="s">
+        <v>1408</v>
+      </c>
+      <c r="B65" s="1" t="s">
+        <v>1355</v>
+      </c>
+      <c r="C65" s="1" t="s">
+        <v>1407</v>
+      </c>
+      <c r="F65" s="1" t="s">
+        <v>856</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A66" s="1" t="s">
+        <v>1406</v>
+      </c>
+      <c r="B66" s="1" t="s">
+        <v>1355</v>
+      </c>
+      <c r="C66" s="1" t="s">
+        <v>562</v>
+      </c>
+      <c r="F66" s="1" t="s">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A67" s="1" t="s">
+        <v>1405</v>
+      </c>
+      <c r="B67" s="1" t="s">
+        <v>1355</v>
+      </c>
+      <c r="C67" s="1" t="s">
+        <v>565</v>
+      </c>
+      <c r="F67" s="1" t="s">
+        <v>683</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A68" s="1" t="s">
+        <v>1404</v>
+      </c>
+      <c r="B68" s="1" t="s">
+        <v>1355</v>
+      </c>
+      <c r="C68" s="1" t="s">
+        <v>1403</v>
+      </c>
+      <c r="F68" s="1" t="s">
+        <v>1402</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A69" s="1" t="s">
+        <v>1401</v>
+      </c>
+      <c r="B69" s="1" t="s">
+        <v>1355</v>
+      </c>
+      <c r="C69" s="1" t="s">
+        <v>571</v>
+      </c>
+      <c r="F69" s="1" t="s">
+        <v>1399</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A70" s="1" t="s">
+        <v>1400</v>
+      </c>
+      <c r="B70" s="1" t="s">
+        <v>1355</v>
+      </c>
+      <c r="C70" s="1" t="s">
+        <v>574</v>
+      </c>
+      <c r="F70" s="1" t="s">
+        <v>1399</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A71" s="1" t="s">
+        <v>1398</v>
+      </c>
+      <c r="B71" s="1" t="s">
+        <v>1355</v>
+      </c>
+      <c r="C71" s="1" t="s">
+        <v>1397</v>
+      </c>
+      <c r="F71" s="1" t="s">
+        <v>1396</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A72" s="1" t="s">
+        <v>1395</v>
+      </c>
+      <c r="B72" s="1" t="s">
+        <v>1355</v>
+      </c>
+      <c r="C72" s="1" t="s">
+        <v>579</v>
+      </c>
+      <c r="F72" s="1" t="s">
+        <v>1393</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A73" s="1" t="s">
+        <v>1394</v>
+      </c>
+      <c r="B73" s="1" t="s">
+        <v>1355</v>
+      </c>
+      <c r="C73" s="1" t="s">
+        <v>582</v>
+      </c>
+      <c r="F73" s="1" t="s">
+        <v>1393</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A74" s="1" t="s">
+        <v>1392</v>
+      </c>
+      <c r="B74" s="1" t="s">
+        <v>1355</v>
+      </c>
+      <c r="C74" s="1" t="s">
+        <v>1391</v>
+      </c>
+      <c r="F74" s="1" t="s">
+        <v>1390</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A75" s="1" t="s">
+        <v>1389</v>
+      </c>
+      <c r="B75" s="1" t="s">
+        <v>1355</v>
+      </c>
+      <c r="C75" s="1" t="s">
+        <v>587</v>
+      </c>
+      <c r="F75" s="1" t="s">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A76" s="1" t="s">
+        <v>1388</v>
+      </c>
+      <c r="B76" s="1" t="s">
+        <v>1355</v>
+      </c>
+      <c r="C76" s="1" t="s">
+        <v>590</v>
+      </c>
+      <c r="F76" s="1" t="s">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A77" s="1" t="s">
+        <v>1387</v>
+      </c>
+      <c r="B77" s="1" t="s">
+        <v>1355</v>
+      </c>
+      <c r="C77" s="1" t="s">
+        <v>1386</v>
+      </c>
+      <c r="F77" s="1" t="s">
+        <v>1385</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A78" s="1" t="s">
+        <v>1384</v>
+      </c>
+      <c r="B78" s="1" t="s">
+        <v>1355</v>
+      </c>
+      <c r="C78" s="1" t="s">
+        <v>596</v>
+      </c>
+      <c r="F78" s="1" t="s">
+        <v>1383</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A79" s="1" t="s">
+        <v>1382</v>
+      </c>
+      <c r="B79" s="1" t="s">
+        <v>1355</v>
+      </c>
+      <c r="C79" s="1" t="s">
+        <v>599</v>
+      </c>
+      <c r="F79" s="1" t="s">
+        <v>1381</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A80" s="1" t="s">
+        <v>1380</v>
+      </c>
+      <c r="B80" s="1" t="s">
+        <v>1355</v>
+      </c>
+      <c r="C80" s="1" t="s">
+        <v>1379</v>
+      </c>
+      <c r="F80" s="1" t="s">
+        <v>861</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A81" s="1" t="s">
+        <v>1378</v>
+      </c>
+      <c r="B81" s="1" t="s">
+        <v>1355</v>
+      </c>
+      <c r="C81" s="1" t="s">
+        <v>605</v>
+      </c>
+      <c r="F81" s="1" t="s">
+        <v>694</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A82" s="1" t="s">
+        <v>1377</v>
+      </c>
+      <c r="B82" s="1" t="s">
+        <v>1355</v>
+      </c>
+      <c r="C82" s="1" t="s">
+        <v>608</v>
+      </c>
+      <c r="F82" s="1" t="s">
+        <v>695</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A83" s="1" t="s">
+        <v>1376</v>
+      </c>
+      <c r="B83" s="1" t="s">
+        <v>1355</v>
+      </c>
+      <c r="C83" s="1" t="s">
+        <v>1375</v>
+      </c>
+      <c r="F83" s="1" t="s">
+        <v>1374</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A84" s="1" t="s">
+        <v>1373</v>
+      </c>
+      <c r="B84" s="1" t="s">
+        <v>1355</v>
+      </c>
+      <c r="C84" s="1" t="s">
+        <v>613</v>
+      </c>
+      <c r="F84" s="1" t="s">
+        <v>1372</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A85" s="1" t="s">
+        <v>1371</v>
+      </c>
+      <c r="B85" s="1" t="s">
+        <v>1355</v>
+      </c>
+      <c r="C85" s="1" t="s">
+        <v>616</v>
+      </c>
+      <c r="F85" s="1" t="s">
+        <v>698</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A86" s="1" t="s">
+        <v>1370</v>
+      </c>
+      <c r="B86" s="1" t="s">
+        <v>1355</v>
+      </c>
+      <c r="C86" s="1" t="s">
+        <v>1369</v>
+      </c>
+      <c r="F86" s="1" t="s">
+        <v>1368</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A87" s="1" t="s">
+        <v>1367</v>
+      </c>
+      <c r="B87" s="1" t="s">
+        <v>1355</v>
+      </c>
+      <c r="C87" s="1" t="s">
+        <v>621</v>
+      </c>
+      <c r="F87" s="1" t="s">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A88" s="1" t="s">
+        <v>1366</v>
+      </c>
+      <c r="B88" s="1" t="s">
+        <v>1355</v>
+      </c>
+      <c r="C88" s="1" t="s">
+        <v>624</v>
+      </c>
+      <c r="F88" s="1" t="s">
+        <v>701</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A89" s="1" t="s">
+        <v>1365</v>
+      </c>
+      <c r="B89" s="1" t="s">
+        <v>1355</v>
+      </c>
+      <c r="C89" s="1" t="s">
+        <v>1364</v>
+      </c>
+      <c r="F89" s="1" t="s">
+        <v>1363</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A90" s="1" t="s">
+        <v>1362</v>
+      </c>
+      <c r="B90" s="1" t="s">
+        <v>1355</v>
+      </c>
+      <c r="C90" s="1" t="s">
+        <v>1361</v>
+      </c>
+      <c r="F90" s="1" t="s">
+        <v>1360</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A91" s="1" t="s">
+        <v>1359</v>
+      </c>
+      <c r="B91" s="1" t="s">
+        <v>1355</v>
+      </c>
+      <c r="C91" s="1" t="s">
+        <v>1358</v>
+      </c>
+      <c r="F91" s="1" t="s">
+        <v>1357</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A92" s="1" t="s">
+        <v>1356</v>
+      </c>
+      <c r="B92" s="1" t="s">
+        <v>1355</v>
+      </c>
+      <c r="C92" s="1" t="s">
+        <v>1354</v>
+      </c>
+      <c r="F92" s="1" t="s">
+        <v>1353</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A93" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B93" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C93" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F93" s="1" t="s">
+        <v>1352</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A94" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B94" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C94" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F94" s="1" t="s">
+        <v>1351</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A95" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B95" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C95" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F95" s="1" t="s">
+        <v>712</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A96" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B96" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C96" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F96" s="1" t="s">
+        <v>713</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A97" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B97" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C97" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F97" s="1" t="s">
+        <v>714</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A98" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B98" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C98" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F98" s="1" t="s">
+        <v>715</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A99" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B99" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C99" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="F99" s="1" t="s">
+        <v>716</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A100" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B100" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C100" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="F100" s="1" t="s">
+        <v>1350</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A101" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B101" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C101" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="F101" s="1" t="s">
+        <v>718</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A102" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B102" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C102" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="F102" s="1" t="s">
+        <v>719</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A103" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B103" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C103" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="F103" s="1" t="s">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A104" s="1" t="s">
+        <v>1349</v>
+      </c>
+      <c r="B104" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C104" s="1" t="s">
+        <v>1348</v>
+      </c>
+      <c r="F104" s="1" t="s">
+        <v>1347</v>
+      </c>
+    </row>
+    <row r="105" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A105" s="1" t="s">
+        <v>1346</v>
+      </c>
+      <c r="B105" s="1" t="s">
+        <v>1345</v>
+      </c>
+      <c r="C105" s="1" t="s">
+        <v>1344</v>
+      </c>
+      <c r="F105" s="1" t="s">
+        <v>1013</v>
+      </c>
+    </row>
+    <row r="106" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A106" s="1" t="s">
+        <v>1343</v>
+      </c>
+      <c r="B106" s="1" t="s">
+        <v>1315</v>
+      </c>
+      <c r="C106" s="1" t="s">
+        <v>1342</v>
+      </c>
+      <c r="F106" s="1" t="s">
+        <v>1339</v>
+      </c>
+    </row>
+    <row r="107" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A107" s="1" t="s">
+        <v>1341</v>
+      </c>
+      <c r="B107" s="1" t="s">
+        <v>1315</v>
+      </c>
+      <c r="C107" s="1" t="s">
+        <v>1340</v>
+      </c>
+      <c r="F107" s="1" t="s">
+        <v>1339</v>
+      </c>
+    </row>
+    <row r="108" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A108" s="1" t="s">
+        <v>1338</v>
+      </c>
+      <c r="B108" s="1" t="s">
+        <v>1315</v>
+      </c>
+      <c r="C108" s="1" t="s">
+        <v>1337</v>
+      </c>
+      <c r="F108" s="1" t="s">
+        <v>1336</v>
+      </c>
+    </row>
+    <row r="109" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A109" s="1" t="s">
+        <v>1335</v>
+      </c>
+      <c r="B109" s="1" t="s">
+        <v>1315</v>
+      </c>
+      <c r="C109" s="1" t="s">
+        <v>1334</v>
+      </c>
+      <c r="F109" s="1" t="s">
+        <v>1333</v>
+      </c>
+    </row>
+    <row r="110" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A110" s="1" t="s">
+        <v>1332</v>
+      </c>
+      <c r="B110" s="1" t="s">
+        <v>1315</v>
+      </c>
+      <c r="C110" s="1" t="s">
+        <v>1331</v>
+      </c>
+      <c r="F110" s="1" t="s">
+        <v>1330</v>
+      </c>
+    </row>
+    <row r="111" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A111" s="1" t="s">
+        <v>1329</v>
+      </c>
+      <c r="B111" s="1" t="s">
+        <v>1315</v>
+      </c>
+      <c r="C111" s="1" t="s">
+        <v>1328</v>
+      </c>
+      <c r="F111" s="1" t="s">
+        <v>1325</v>
+      </c>
+    </row>
+    <row r="112" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A112" s="1" t="s">
+        <v>1327</v>
+      </c>
+      <c r="B112" s="1" t="s">
+        <v>1315</v>
+      </c>
+      <c r="C112" s="1" t="s">
+        <v>1326</v>
+      </c>
+      <c r="F112" s="1" t="s">
+        <v>1325</v>
+      </c>
+    </row>
+    <row r="113" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A113" s="1" t="s">
+        <v>1324</v>
+      </c>
+      <c r="B113" s="1" t="s">
+        <v>1315</v>
+      </c>
+      <c r="C113" s="1" t="s">
+        <v>1323</v>
+      </c>
+      <c r="F113" s="1" t="s">
+        <v>1322</v>
+      </c>
+    </row>
+    <row r="114" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A114" s="1" t="s">
+        <v>1321</v>
+      </c>
+      <c r="B114" s="1" t="s">
+        <v>1315</v>
+      </c>
+      <c r="C114" s="1" t="s">
+        <v>1320</v>
+      </c>
+      <c r="F114" s="1" t="s">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="115" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A115" s="1" t="s">
+        <v>1319</v>
+      </c>
+      <c r="B115" s="1" t="s">
+        <v>1315</v>
+      </c>
+      <c r="C115" s="1" t="s">
+        <v>1318</v>
+      </c>
+      <c r="F115" s="1" t="s">
+        <v>1317</v>
+      </c>
+    </row>
+    <row r="116" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A116" s="1" t="s">
+        <v>1316</v>
+      </c>
+      <c r="B116" s="1" t="s">
+        <v>1315</v>
+      </c>
+      <c r="C116" s="1" t="s">
+        <v>1314</v>
+      </c>
+      <c r="F116" s="1" t="s">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="117" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A117" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="B117" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="C117" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="F117" s="1" t="s">
+        <v>726</v>
+      </c>
+    </row>
+    <row r="118" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A118" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="B118" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="C118" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="F118" s="1" t="s">
+        <v>726</v>
+      </c>
+    </row>
+    <row r="119" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A119" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="B119" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="C119" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="F119" s="1" t="s">
+        <v>727</v>
+      </c>
+    </row>
+    <row r="120" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A120" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="B120" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="C120" s="1" t="s">
+        <v>280</v>
+      </c>
+      <c r="F120" s="1" t="s">
+        <v>728</v>
+      </c>
+    </row>
+    <row r="121" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A121" s="1" t="s">
+        <v>282</v>
+      </c>
+      <c r="B121" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="C121" s="1" t="s">
+        <v>283</v>
+      </c>
+      <c r="F121" s="1" t="s">
+        <v>728</v>
+      </c>
+    </row>
+    <row r="122" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A122" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="B122" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="C122" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="F122" s="1" t="s">
+        <v>729</v>
+      </c>
+    </row>
+    <row r="123" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A123" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="B123" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="C123" s="1" t="s">
+        <v>288</v>
+      </c>
+      <c r="F123" s="1" t="s">
+        <v>728</v>
+      </c>
+    </row>
+    <row r="124" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A124" s="1" t="s">
+        <v>1313</v>
+      </c>
+      <c r="B124" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="C124" s="1" t="s">
+        <v>1312</v>
+      </c>
+      <c r="F124" s="1" t="s">
+        <v>1311</v>
+      </c>
+    </row>
+    <row r="125" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A125" s="1" t="s">
+        <v>1310</v>
+      </c>
+      <c r="B125" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="C125" s="1" t="s">
+        <v>1309</v>
+      </c>
+      <c r="F125" s="1" t="s">
+        <v>1308</v>
+      </c>
+    </row>
+    <row r="126" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A126" s="1" t="s">
+        <v>1307</v>
+      </c>
+      <c r="B126" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="C126" s="1" t="s">
+        <v>1306</v>
+      </c>
+      <c r="F126" s="1" t="s">
+        <v>1305</v>
+      </c>
+    </row>
+    <row r="127" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A127" s="1" t="s">
+        <v>1304</v>
+      </c>
+      <c r="B127" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="C127" s="1" t="s">
+        <v>1303</v>
+      </c>
+      <c r="F127" s="1" t="s">
+        <v>1302</v>
+      </c>
+    </row>
+    <row r="128" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A128" s="1" t="s">
+        <v>1301</v>
+      </c>
+      <c r="B128" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="C128" s="1" t="s">
+        <v>1300</v>
+      </c>
+      <c r="F128" s="1" t="s">
+        <v>1299</v>
+      </c>
+    </row>
+    <row r="129" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A129" s="1" t="s">
+        <v>1298</v>
+      </c>
+      <c r="B129" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="C129" s="1" t="s">
+        <v>1297</v>
+      </c>
+      <c r="F129" s="1" t="s">
+        <v>1296</v>
+      </c>
+    </row>
+    <row r="130" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A130" s="1" t="s">
+        <v>1295</v>
+      </c>
+      <c r="B130" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="C130" s="1" t="s">
+        <v>1294</v>
+      </c>
+      <c r="F130" s="1" t="s">
+        <v>1293</v>
+      </c>
+    </row>
+    <row r="131" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A131" s="1" t="s">
+        <v>1292</v>
+      </c>
+      <c r="B131" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="C131" s="1" t="s">
+        <v>1291</v>
+      </c>
+      <c r="F131" s="1" t="s">
+        <v>1290</v>
+      </c>
+    </row>
+    <row r="132" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A132" s="1" t="s">
+        <v>1289</v>
+      </c>
+      <c r="B132" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="C132" s="1" t="s">
+        <v>1288</v>
+      </c>
+      <c r="F132" s="1" t="s">
+        <v>1287</v>
+      </c>
+    </row>
+    <row r="133" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A133" s="1" t="s">
+        <v>1286</v>
+      </c>
+      <c r="B133" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="C133" s="1" t="s">
+        <v>1285</v>
+      </c>
+      <c r="F133" s="1" t="s">
+        <v>1284</v>
+      </c>
+    </row>
+    <row r="134" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A134" s="1" t="s">
+        <v>1283</v>
+      </c>
+      <c r="B134" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="C134" s="1" t="s">
+        <v>1282</v>
+      </c>
+      <c r="F134" s="1" t="s">
+        <v>1281</v>
+      </c>
+    </row>
+    <row r="135" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A135" s="1" t="s">
+        <v>1280</v>
+      </c>
+      <c r="B135" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="C135" s="1" t="s">
+        <v>1279</v>
+      </c>
+      <c r="F135" s="1" t="s">
+        <v>1278</v>
+      </c>
+    </row>
+    <row r="136" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A136" s="1" t="s">
+        <v>1277</v>
+      </c>
+      <c r="B136" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="C136" s="1" t="s">
+        <v>1276</v>
+      </c>
+      <c r="F136" s="1" t="s">
+        <v>1275</v>
+      </c>
+    </row>
+    <row r="137" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A137" s="1" t="s">
+        <v>1274</v>
+      </c>
+      <c r="B137" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="C137" s="1" t="s">
+        <v>1273</v>
+      </c>
+      <c r="F137" s="1" t="s">
+        <v>1272</v>
+      </c>
+    </row>
+    <row r="138" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A138" s="1" t="s">
+        <v>1271</v>
+      </c>
+      <c r="B138" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="C138" s="1" t="s">
+        <v>1270</v>
+      </c>
+      <c r="F138" s="1" t="s">
+        <v>1269</v>
+      </c>
+    </row>
+    <row r="139" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A139" s="1" t="s">
+        <v>1268</v>
+      </c>
+      <c r="B139" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="C139" s="1" t="s">
+        <v>1267</v>
+      </c>
+      <c r="F139" s="1" t="s">
+        <v>1264</v>
+      </c>
+    </row>
+    <row r="140" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A140" s="1" t="s">
+        <v>1266</v>
+      </c>
+      <c r="B140" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="C140" s="1" t="s">
+        <v>1265</v>
+      </c>
+      <c r="F140" s="1" t="s">
+        <v>1264</v>
+      </c>
+    </row>
+    <row r="141" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A141" s="1" t="s">
+        <v>1263</v>
+      </c>
+      <c r="B141" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="C141" s="1" t="s">
+        <v>1262</v>
+      </c>
+      <c r="F141" s="1" t="s">
+        <v>1261</v>
+      </c>
+    </row>
+    <row r="142" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A142" s="1" t="s">
+        <v>1260</v>
+      </c>
+      <c r="B142" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="C142" s="1" t="s">
+        <v>1259</v>
+      </c>
+      <c r="F142" s="1" t="s">
+        <v>1258</v>
+      </c>
+    </row>
+    <row r="143" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A143" s="1" t="s">
+        <v>1257</v>
+      </c>
+      <c r="B143" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="C143" s="1" t="s">
+        <v>1256</v>
+      </c>
+      <c r="F143" s="1" t="s">
+        <v>1255</v>
+      </c>
+    </row>
+    <row r="144" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A144" s="1" t="s">
+        <v>1254</v>
+      </c>
+      <c r="B144" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="C144" s="1" t="s">
+        <v>1253</v>
+      </c>
+      <c r="F144" s="1" t="s">
+        <v>1252</v>
+      </c>
+    </row>
+    <row r="145" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A145" s="1" t="s">
+        <v>1251</v>
+      </c>
+      <c r="B145" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="C145" s="1" t="s">
+        <v>1250</v>
+      </c>
+      <c r="F145" s="1" t="s">
+        <v>1247</v>
+      </c>
+    </row>
+    <row r="146" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A146" s="1" t="s">
+        <v>1249</v>
+      </c>
+      <c r="B146" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="C146" s="1" t="s">
+        <v>1248</v>
+      </c>
+      <c r="F146" s="1" t="s">
+        <v>1247</v>
+      </c>
+    </row>
+    <row r="147" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A147" s="1" t="s">
+        <v>1246</v>
+      </c>
+      <c r="B147" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="C147" s="1" t="s">
+        <v>1245</v>
+      </c>
+      <c r="F147" s="1" t="s">
+        <v>1237</v>
+      </c>
+    </row>
+    <row r="148" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A148" s="1" t="s">
+        <v>1244</v>
+      </c>
+      <c r="B148" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="C148" s="1" t="s">
+        <v>1243</v>
+      </c>
+      <c r="F148" s="1" t="s">
+        <v>1242</v>
+      </c>
+    </row>
+    <row r="149" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A149" s="1" t="s">
+        <v>1241</v>
+      </c>
+      <c r="B149" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="C149" s="1" t="s">
+        <v>1240</v>
+      </c>
+      <c r="F149" s="1" t="s">
+        <v>1237</v>
+      </c>
+    </row>
+    <row r="150" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A150" s="1" t="s">
+        <v>1239</v>
+      </c>
+      <c r="B150" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="C150" s="1" t="s">
+        <v>1238</v>
+      </c>
+      <c r="F150" s="1" t="s">
+        <v>1237</v>
+      </c>
+    </row>
+    <row r="151" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A151" s="1" t="s">
+        <v>1236</v>
+      </c>
+      <c r="B151" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="C151" s="1" t="s">
+        <v>1235</v>
+      </c>
+      <c r="F151" s="1" t="s">
+        <v>1234</v>
+      </c>
+    </row>
+    <row r="152" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A152" s="1" t="s">
+        <v>1233</v>
+      </c>
+      <c r="B152" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="C152" s="1" t="s">
+        <v>1232</v>
+      </c>
+      <c r="F152" s="1" t="s">
+        <v>1231</v>
+      </c>
+    </row>
+    <row r="153" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A153" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B153" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="C153" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="F153" s="1" t="s">
+        <v>730</v>
+      </c>
+    </row>
+    <row r="154" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A154" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B154" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C154" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="F154" s="1" t="s">
+        <v>719</v>
+      </c>
+    </row>
+    <row r="155" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A155" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B155" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C155" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="F155" s="1" t="s">
+        <v>731</v>
+      </c>
+    </row>
+    <row r="156" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A156" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="B156" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C156" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="F156" s="1" t="s">
+        <v>732</v>
+      </c>
+    </row>
+    <row r="157" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A157" s="1" t="s">
+        <v>350</v>
+      </c>
+      <c r="B157" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C157" s="1" t="s">
+        <v>337</v>
+      </c>
+      <c r="F157" s="1" t="s">
+        <v>742</v>
+      </c>
+    </row>
+    <row r="158" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A158" s="1" t="s">
+        <v>359</v>
+      </c>
+      <c r="B158" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C158" s="1" t="s">
+        <v>352</v>
+      </c>
+      <c r="F158" s="1" t="s">
+        <v>743</v>
+      </c>
+    </row>
+    <row r="159" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A159" s="1" t="s">
+        <v>1230</v>
+      </c>
+      <c r="B159" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C159" s="1" t="s">
+        <v>1229</v>
+      </c>
+      <c r="F159" s="1" t="s">
+        <v>716</v>
+      </c>
+    </row>
+    <row r="160" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A160" s="1" t="s">
+        <v>1228</v>
+      </c>
+      <c r="B160" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C160" s="1" t="s">
+        <v>1227</v>
+      </c>
+      <c r="F160" s="1" t="s">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="161" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A161" s="1" t="s">
+        <v>1226</v>
+      </c>
+      <c r="B161" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C161" s="1" t="s">
+        <v>1225</v>
+      </c>
+      <c r="F161" s="1" t="s">
+        <v>734</v>
+      </c>
+    </row>
+    <row r="162" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A162" s="1" t="s">
+        <v>1224</v>
+      </c>
+      <c r="B162" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C162" s="1" t="s">
+        <v>1223</v>
+      </c>
+      <c r="F162" s="1" t="s">
+        <v>735</v>
+      </c>
+    </row>
+    <row r="163" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A163" s="1" t="s">
+        <v>1222</v>
+      </c>
+      <c r="B163" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C163" s="1" t="s">
+        <v>1221</v>
+      </c>
+      <c r="F163" s="1" t="s">
+        <v>736</v>
+      </c>
+    </row>
+    <row r="164" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A164" s="1" t="s">
+        <v>1220</v>
+      </c>
+      <c r="B164" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C164" s="1" t="s">
+        <v>1219</v>
+      </c>
+      <c r="F164" s="1" t="s">
+        <v>737</v>
+      </c>
+    </row>
+    <row r="165" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A165" s="1" t="s">
+        <v>1218</v>
+      </c>
+      <c r="B165" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C165" s="1" t="s">
+        <v>1217</v>
+      </c>
+      <c r="F165" s="1" t="s">
+        <v>1216</v>
+      </c>
+    </row>
+    <row r="166" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A166" s="1" t="s">
+        <v>1215</v>
+      </c>
+      <c r="B166" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C166" s="1" t="s">
+        <v>1214</v>
+      </c>
+      <c r="F166" s="1" t="s">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="167" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A167" s="1" t="s">
+        <v>1213</v>
+      </c>
+      <c r="B167" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C167" s="1" t="s">
+        <v>1212</v>
+      </c>
+      <c r="F167" s="1" t="s">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="168" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A168" s="1" t="s">
+        <v>1211</v>
+      </c>
+      <c r="B168" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C168" s="1" t="s">
+        <v>1210</v>
+      </c>
+      <c r="F168" s="1" t="s">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="169" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A169" s="1" t="s">
+        <v>1209</v>
+      </c>
+      <c r="B169" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C169" s="1" t="s">
+        <v>1208</v>
+      </c>
+      <c r="F169" s="1" t="s">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="170" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A170" s="1" t="s">
+        <v>1207</v>
+      </c>
+      <c r="B170" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C170" s="1" t="s">
+        <v>1206</v>
+      </c>
+      <c r="F170" s="1" t="s">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="171" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A171" s="1" t="s">
+        <v>1205</v>
+      </c>
+      <c r="B171" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C171" s="1" t="s">
+        <v>1204</v>
+      </c>
+      <c r="F171" s="1" t="s">
+        <v>740</v>
+      </c>
+    </row>
+    <row r="172" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A172" s="1" t="s">
+        <v>1203</v>
+      </c>
+      <c r="B172" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C172" s="1" t="s">
+        <v>1202</v>
+      </c>
+      <c r="F172" s="1" t="s">
+        <v>1201</v>
+      </c>
+    </row>
+    <row r="173" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A173" s="1" t="s">
+        <v>1200</v>
+      </c>
+      <c r="B173" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C173" s="1" t="s">
+        <v>1199</v>
+      </c>
+      <c r="F173" s="1" t="s">
+        <v>741</v>
+      </c>
+    </row>
+    <row r="174" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A174" s="1" t="s">
+        <v>1198</v>
+      </c>
+      <c r="B174" s="1" t="s">
+        <v>1159</v>
+      </c>
+      <c r="C174" s="1" t="s">
+        <v>1197</v>
+      </c>
+      <c r="F174" s="1" t="s">
+        <v>1164</v>
+      </c>
+    </row>
+    <row r="175" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A175" s="1" t="s">
+        <v>1196</v>
+      </c>
+      <c r="B175" s="1" t="s">
+        <v>1159</v>
+      </c>
+      <c r="C175" s="1" t="s">
+        <v>1195</v>
+      </c>
+      <c r="F175" s="1" t="s">
+        <v>1194</v>
+      </c>
+    </row>
+    <row r="176" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A176" s="1" t="s">
+        <v>1193</v>
+      </c>
+      <c r="B176" s="1" t="s">
+        <v>1159</v>
+      </c>
+      <c r="C176" s="1" t="s">
+        <v>1192</v>
+      </c>
+      <c r="F176" s="1" t="s">
+        <v>1191</v>
+      </c>
+    </row>
+    <row r="177" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A177" s="1" t="s">
+        <v>1190</v>
+      </c>
+      <c r="B177" s="1" t="s">
+        <v>1159</v>
+      </c>
+      <c r="C177" s="1" t="s">
+        <v>1189</v>
+      </c>
+      <c r="F177" s="1" t="s">
+        <v>1164</v>
+      </c>
+    </row>
+    <row r="178" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A178" s="1" t="s">
+        <v>1188</v>
+      </c>
+      <c r="B178" s="1" t="s">
+        <v>1159</v>
+      </c>
+      <c r="C178" s="1" t="s">
+        <v>1187</v>
+      </c>
+      <c r="F178" s="1" t="s">
+        <v>1186</v>
+      </c>
+    </row>
+    <row r="179" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A179" s="1" t="s">
+        <v>1185</v>
+      </c>
+      <c r="B179" s="1" t="s">
+        <v>1159</v>
+      </c>
+      <c r="C179" s="1" t="s">
+        <v>1184</v>
+      </c>
+      <c r="F179" s="1" t="s">
+        <v>1183</v>
+      </c>
+    </row>
+    <row r="180" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A180" s="1" t="s">
+        <v>1182</v>
+      </c>
+      <c r="B180" s="1" t="s">
+        <v>1159</v>
+      </c>
+      <c r="C180" s="1" t="s">
+        <v>1181</v>
+      </c>
+      <c r="F180" s="1" t="s">
+        <v>1164</v>
+      </c>
+    </row>
+    <row r="181" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A181" s="1" t="s">
+        <v>1180</v>
+      </c>
+      <c r="B181" s="1" t="s">
+        <v>1159</v>
+      </c>
+      <c r="C181" s="1" t="s">
+        <v>1179</v>
+      </c>
+      <c r="F181" s="1" t="s">
+        <v>1178</v>
+      </c>
+    </row>
+    <row r="182" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A182" s="1" t="s">
+        <v>1177</v>
+      </c>
+      <c r="B182" s="1" t="s">
+        <v>1159</v>
+      </c>
+      <c r="C182" s="1" t="s">
+        <v>1176</v>
+      </c>
+      <c r="F182" s="1" t="s">
+        <v>1175</v>
+      </c>
+    </row>
+    <row r="183" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A183" s="1" t="s">
+        <v>1174</v>
+      </c>
+      <c r="B183" s="1" t="s">
+        <v>1159</v>
+      </c>
+      <c r="C183" s="1" t="s">
+        <v>1173</v>
+      </c>
+      <c r="F183" s="1" t="s">
+        <v>1164</v>
+      </c>
+    </row>
+    <row r="184" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A184" s="1" t="s">
+        <v>1172</v>
+      </c>
+      <c r="B184" s="1" t="s">
+        <v>1159</v>
+      </c>
+      <c r="C184" s="1" t="s">
+        <v>1171</v>
+      </c>
+      <c r="F184" s="1" t="s">
+        <v>1170</v>
+      </c>
+    </row>
+    <row r="185" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A185" s="1" t="s">
+        <v>1169</v>
+      </c>
+      <c r="B185" s="1" t="s">
+        <v>1159</v>
+      </c>
+      <c r="C185" s="1" t="s">
+        <v>1168</v>
+      </c>
+      <c r="F185" s="1" t="s">
+        <v>1167</v>
+      </c>
+    </row>
+    <row r="186" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A186" s="1" t="s">
+        <v>1166</v>
+      </c>
+      <c r="B186" s="1" t="s">
+        <v>1159</v>
+      </c>
+      <c r="C186" s="1" t="s">
+        <v>1165</v>
+      </c>
+      <c r="F186" s="1" t="s">
+        <v>1164</v>
+      </c>
+    </row>
+    <row r="187" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A187" s="1" t="s">
+        <v>1163</v>
+      </c>
+      <c r="B187" s="1" t="s">
+        <v>1159</v>
+      </c>
+      <c r="C187" s="1" t="s">
+        <v>1162</v>
+      </c>
+      <c r="F187" s="1" t="s">
+        <v>1161</v>
+      </c>
+    </row>
+    <row r="188" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A188" s="1" t="s">
+        <v>1160</v>
+      </c>
+      <c r="B188" s="1" t="s">
+        <v>1159</v>
+      </c>
+      <c r="C188" s="1" t="s">
+        <v>1158</v>
+      </c>
+      <c r="F188" s="1" t="s">
+        <v>1157</v>
+      </c>
+    </row>
+    <row r="189" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A189" s="1" t="s">
+        <v>1156</v>
+      </c>
+      <c r="B189" s="1" t="s">
+        <v>1056</v>
+      </c>
+      <c r="C189" s="1" t="s">
+        <v>1155</v>
+      </c>
+      <c r="F189" s="1" t="s">
+        <v>1154</v>
+      </c>
+    </row>
+    <row r="190" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A190" s="1" t="s">
+        <v>1153</v>
+      </c>
+      <c r="B190" s="1" t="s">
+        <v>1056</v>
+      </c>
+      <c r="C190" s="1" t="s">
+        <v>1152</v>
+      </c>
+      <c r="F190" s="1" t="s">
+        <v>1151</v>
+      </c>
+    </row>
+    <row r="191" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A191" s="1" t="s">
+        <v>1150</v>
+      </c>
+      <c r="B191" s="1" t="s">
+        <v>1056</v>
+      </c>
+      <c r="C191" s="1" t="s">
+        <v>1149</v>
+      </c>
+      <c r="F191" s="1" t="s">
+        <v>1148</v>
+      </c>
+    </row>
+    <row r="192" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A192" s="1" t="s">
+        <v>1147</v>
+      </c>
+      <c r="B192" s="1" t="s">
+        <v>1056</v>
+      </c>
+      <c r="C192" s="1" t="s">
+        <v>1146</v>
+      </c>
+      <c r="F192" s="1" t="s">
+        <v>1145</v>
+      </c>
+    </row>
+    <row r="193" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A193" s="1" t="s">
+        <v>1144</v>
+      </c>
+      <c r="B193" s="1" t="s">
+        <v>1056</v>
+      </c>
+      <c r="C193" s="1" t="s">
+        <v>1143</v>
+      </c>
+      <c r="F193" s="1" t="s">
+        <v>1142</v>
+      </c>
+    </row>
+    <row r="194" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A194" s="1" t="s">
+        <v>1141</v>
+      </c>
+      <c r="B194" s="1" t="s">
+        <v>1056</v>
+      </c>
+      <c r="C194" s="1" t="s">
+        <v>1140</v>
+      </c>
+      <c r="F194" s="1" t="s">
+        <v>1139</v>
+      </c>
+    </row>
+    <row r="195" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A195" s="1" t="s">
+        <v>1138</v>
+      </c>
+      <c r="B195" s="1" t="s">
+        <v>1056</v>
+      </c>
+      <c r="C195" s="1" t="s">
+        <v>1137</v>
+      </c>
+      <c r="F195" s="1" t="s">
+        <v>1136</v>
+      </c>
+    </row>
+    <row r="196" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A196" s="1" t="s">
+        <v>1135</v>
+      </c>
+      <c r="B196" s="1" t="s">
+        <v>1056</v>
+      </c>
+      <c r="C196" s="1" t="s">
+        <v>1134</v>
+      </c>
+      <c r="F196" s="1" t="s">
+        <v>1133</v>
+      </c>
+    </row>
+    <row r="197" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A197" s="1" t="s">
+        <v>1132</v>
+      </c>
+      <c r="B197" s="1" t="s">
+        <v>1056</v>
+      </c>
+      <c r="C197" s="1" t="s">
+        <v>1131</v>
+      </c>
+      <c r="F197" s="1" t="s">
+        <v>1130</v>
+      </c>
+    </row>
+    <row r="198" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A198" s="1" t="s">
+        <v>1129</v>
+      </c>
+      <c r="B198" s="1" t="s">
+        <v>1056</v>
+      </c>
+      <c r="C198" s="1" t="s">
+        <v>1128</v>
+      </c>
+      <c r="F198" s="1" t="s">
+        <v>1127</v>
+      </c>
+    </row>
+    <row r="199" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A199" s="1" t="s">
+        <v>1126</v>
+      </c>
+      <c r="B199" s="1" t="s">
+        <v>1056</v>
+      </c>
+      <c r="C199" s="1" t="s">
+        <v>1125</v>
+      </c>
+      <c r="F199" s="1" t="s">
+        <v>1124</v>
+      </c>
+    </row>
+    <row r="200" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A200" s="1" t="s">
+        <v>1123</v>
+      </c>
+      <c r="B200" s="1" t="s">
+        <v>1056</v>
+      </c>
+      <c r="C200" s="1" t="s">
+        <v>1122</v>
+      </c>
+      <c r="F200" s="1" t="s">
+        <v>1121</v>
+      </c>
+    </row>
+    <row r="201" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A201" s="1" t="s">
+        <v>1120</v>
+      </c>
+      <c r="B201" s="1" t="s">
+        <v>1056</v>
+      </c>
+      <c r="C201" s="1" t="s">
+        <v>1119</v>
+      </c>
+      <c r="F201" s="1" t="s">
+        <v>1118</v>
+      </c>
+    </row>
+    <row r="202" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A202" s="1" t="s">
+        <v>1117</v>
+      </c>
+      <c r="B202" s="1" t="s">
+        <v>1056</v>
+      </c>
+      <c r="C202" s="1" t="s">
+        <v>1116</v>
+      </c>
+      <c r="F202" s="1" t="s">
+        <v>1115</v>
+      </c>
+    </row>
+    <row r="203" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A203" s="1" t="s">
+        <v>1114</v>
+      </c>
+      <c r="B203" s="1" t="s">
+        <v>1056</v>
+      </c>
+      <c r="C203" s="1" t="s">
+        <v>1113</v>
+      </c>
+      <c r="F203" s="1" t="s">
+        <v>1112</v>
+      </c>
+    </row>
+    <row r="204" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A204" s="1" t="s">
+        <v>1111</v>
+      </c>
+      <c r="B204" s="1" t="s">
+        <v>1056</v>
+      </c>
+      <c r="C204" s="1" t="s">
+        <v>1110</v>
+      </c>
+      <c r="F204" s="1" t="s">
+        <v>1109</v>
+      </c>
+    </row>
+    <row r="205" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A205" s="1" t="s">
+        <v>1108</v>
+      </c>
+      <c r="B205" s="1" t="s">
+        <v>1056</v>
+      </c>
+      <c r="C205" s="1" t="s">
+        <v>1107</v>
+      </c>
+      <c r="F205" s="1" t="s">
+        <v>1106</v>
+      </c>
+    </row>
+    <row r="206" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A206" s="1" t="s">
+        <v>1105</v>
+      </c>
+      <c r="B206" s="1" t="s">
+        <v>1056</v>
+      </c>
+      <c r="C206" s="1" t="s">
+        <v>1104</v>
+      </c>
+      <c r="F206" s="1" t="s">
+        <v>1103</v>
+      </c>
+    </row>
+    <row r="207" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A207" s="1" t="s">
+        <v>1102</v>
+      </c>
+      <c r="B207" s="1" t="s">
+        <v>1056</v>
+      </c>
+      <c r="C207" s="1" t="s">
+        <v>1101</v>
+      </c>
+      <c r="F207" s="1" t="s">
+        <v>1100</v>
+      </c>
+    </row>
+    <row r="208" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A208" s="1" t="s">
+        <v>1099</v>
+      </c>
+      <c r="B208" s="1" t="s">
+        <v>1056</v>
+      </c>
+      <c r="C208" s="1" t="s">
+        <v>1098</v>
+      </c>
+      <c r="F208" s="1" t="s">
+        <v>1097</v>
+      </c>
+    </row>
+    <row r="209" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A209" s="1" t="s">
+        <v>1096</v>
+      </c>
+      <c r="B209" s="1" t="s">
+        <v>1056</v>
+      </c>
+      <c r="C209" s="1" t="s">
+        <v>1095</v>
+      </c>
+      <c r="F209" s="1" t="s">
+        <v>1094</v>
+      </c>
+    </row>
+    <row r="210" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A210" s="1" t="s">
+        <v>1093</v>
+      </c>
+      <c r="B210" s="1" t="s">
+        <v>1056</v>
+      </c>
+      <c r="C210" s="1" t="s">
+        <v>1092</v>
+      </c>
+      <c r="F210" s="1" t="s">
+        <v>1091</v>
+      </c>
+    </row>
+    <row r="211" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A211" s="1" t="s">
+        <v>1090</v>
+      </c>
+      <c r="B211" s="1" t="s">
+        <v>1056</v>
+      </c>
+      <c r="C211" s="1" t="s">
+        <v>1089</v>
+      </c>
+      <c r="F211" s="1" t="s">
+        <v>1088</v>
+      </c>
+    </row>
+    <row r="212" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A212" s="1" t="s">
+        <v>1087</v>
+      </c>
+      <c r="B212" s="1" t="s">
+        <v>1056</v>
+      </c>
+      <c r="C212" s="1" t="s">
+        <v>1086</v>
+      </c>
+      <c r="F212" s="1" t="s">
+        <v>1085</v>
+      </c>
+    </row>
+    <row r="213" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A213" s="1" t="s">
+        <v>1084</v>
+      </c>
+      <c r="B213" s="1" t="s">
+        <v>1056</v>
+      </c>
+      <c r="C213" s="1" t="s">
+        <v>1083</v>
+      </c>
+      <c r="F213" s="1" t="s">
+        <v>1082</v>
+      </c>
+    </row>
+    <row r="214" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A214" s="1" t="s">
+        <v>1081</v>
+      </c>
+      <c r="B214" s="1" t="s">
+        <v>1056</v>
+      </c>
+      <c r="C214" s="1" t="s">
+        <v>1080</v>
+      </c>
+      <c r="F214" s="1" t="s">
+        <v>1079</v>
+      </c>
+    </row>
+    <row r="215" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A215" s="1" t="s">
+        <v>1078</v>
+      </c>
+      <c r="B215" s="1" t="s">
+        <v>1056</v>
+      </c>
+      <c r="C215" s="1" t="s">
+        <v>1077</v>
+      </c>
+      <c r="F215" s="1" t="s">
+        <v>1076</v>
+      </c>
+    </row>
+    <row r="216" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A216" s="1" t="s">
+        <v>1075</v>
+      </c>
+      <c r="B216" s="1" t="s">
+        <v>1056</v>
+      </c>
+      <c r="C216" s="1" t="s">
+        <v>1074</v>
+      </c>
+      <c r="F216" s="1" t="s">
+        <v>1073</v>
+      </c>
+    </row>
+    <row r="217" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A217" s="1" t="s">
+        <v>1072</v>
+      </c>
+      <c r="B217" s="1" t="s">
+        <v>1056</v>
+      </c>
+      <c r="C217" s="1" t="s">
+        <v>1071</v>
+      </c>
+      <c r="F217" s="1" t="s">
+        <v>1070</v>
+      </c>
+    </row>
+    <row r="218" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A218" s="1" t="s">
+        <v>1069</v>
+      </c>
+      <c r="B218" s="1" t="s">
+        <v>1056</v>
+      </c>
+      <c r="C218" s="1" t="s">
+        <v>1068</v>
+      </c>
+      <c r="F218" s="1" t="s">
+        <v>1067</v>
+      </c>
+    </row>
+    <row r="219" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A219" s="1" t="s">
+        <v>1066</v>
+      </c>
+      <c r="B219" s="1" t="s">
+        <v>1056</v>
+      </c>
+      <c r="C219" s="1" t="s">
+        <v>1065</v>
+      </c>
+      <c r="F219" s="1" t="s">
+        <v>1064</v>
+      </c>
+    </row>
+    <row r="220" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A220" s="1" t="s">
+        <v>1063</v>
+      </c>
+      <c r="B220" s="1" t="s">
+        <v>1056</v>
+      </c>
+      <c r="C220" s="1" t="s">
+        <v>1062</v>
+      </c>
+      <c r="F220" s="1" t="s">
+        <v>1061</v>
+      </c>
+    </row>
+    <row r="221" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A221" s="1" t="s">
+        <v>1060</v>
+      </c>
+      <c r="B221" s="1" t="s">
+        <v>1056</v>
+      </c>
+      <c r="C221" s="1" t="s">
+        <v>1059</v>
+      </c>
+      <c r="F221" s="1" t="s">
+        <v>1058</v>
+      </c>
+    </row>
+    <row r="222" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A222" s="1" t="s">
+        <v>1057</v>
+      </c>
+      <c r="B222" s="1" t="s">
+        <v>1056</v>
+      </c>
+      <c r="C222" s="1" t="s">
+        <v>1055</v>
+      </c>
+      <c r="F222" s="1" t="s">
+        <v>1054</v>
+      </c>
+    </row>
+    <row r="223" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A223" s="1" t="s">
+        <v>746</v>
+      </c>
+      <c r="B223" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="C223" s="1" t="s">
+        <v>1053</v>
+      </c>
+      <c r="F223" s="1" t="s">
+        <v>747</v>
+      </c>
+    </row>
+    <row r="224" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A224" s="1" t="s">
+        <v>748</v>
+      </c>
+      <c r="B224" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="C224" s="1" t="s">
+        <v>1052</v>
+      </c>
+      <c r="F224" s="1" t="s">
+        <v>749</v>
+      </c>
+    </row>
+    <row r="225" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A225" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="B225" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="C225" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="F225" s="1" t="s">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="226" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A226" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="B226" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="C226" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="F226" s="1" t="s">
+        <v>749</v>
+      </c>
+    </row>
+    <row r="227" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A227" s="1" t="s">
+        <v>1051</v>
+      </c>
+      <c r="B227" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="C227" s="1" t="s">
+        <v>1050</v>
+      </c>
+      <c r="F227" s="1" t="s">
+        <v>747</v>
+      </c>
+    </row>
+    <row r="228" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A228" s="1" t="s">
+        <v>1049</v>
+      </c>
+      <c r="B228" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="C228" s="1" t="s">
+        <v>1048</v>
+      </c>
+      <c r="F228" s="1" t="s">
+        <v>749</v>
+      </c>
+    </row>
+    <row r="229" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A229" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="B229" s="1" t="s">
+        <v>291</v>
+      </c>
+      <c r="C229" s="1" t="s">
+        <v>292</v>
+      </c>
+      <c r="F229" s="1" t="s">
+        <v>751</v>
+      </c>
+    </row>
+    <row r="230" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A230" s="1" t="s">
+        <v>1047</v>
+      </c>
+      <c r="B230" s="1" t="s">
+        <v>1046</v>
+      </c>
+      <c r="C230" s="1" t="s">
+        <v>1045</v>
+      </c>
+      <c r="F230" s="1" t="s">
+        <v>1044</v>
+      </c>
+    </row>
+    <row r="231" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A231" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="B231" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="C231" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="F231" s="1" t="s">
+        <v>1043</v>
+      </c>
+    </row>
+    <row r="232" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A232" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="B232" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="C232" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="F232" s="1" t="s">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="233" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A233" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="B233" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="C233" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="F233" s="1" t="s">
+        <v>755</v>
+      </c>
+    </row>
+    <row r="234" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A234" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="B234" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="C234" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="F234" s="1" t="s">
+        <v>1042</v>
+      </c>
+    </row>
+    <row r="235" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A235" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="B235" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="C235" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="F235" s="1" t="s">
+        <v>761</v>
+      </c>
+    </row>
+    <row r="236" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A236" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="B236" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="C236" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="F236" s="1" t="s">
+        <v>762</v>
+      </c>
+    </row>
+    <row r="237" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A237" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="B237" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="C237" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="F237" s="1" t="s">
+        <v>763</v>
+      </c>
+    </row>
+    <row r="238" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A238" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="B238" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="C238" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="F238" s="1" t="s">
+        <v>764</v>
+      </c>
+    </row>
+    <row r="239" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A239" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="B239" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="C239" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="F239" s="1" t="s">
+        <v>765</v>
+      </c>
+    </row>
+    <row r="240" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A240" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="B240" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="C240" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="F240" s="1" t="s">
+        <v>766</v>
+      </c>
+    </row>
+    <row r="241" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A241" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="B241" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="C241" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="F241" s="1" t="s">
+        <v>767</v>
+      </c>
+    </row>
+    <row r="242" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A242" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="B242" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="C242" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="F242" s="1" t="s">
+        <v>768</v>
+      </c>
+    </row>
+    <row r="243" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A243" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="B243" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="C243" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="F243" s="1" t="s">
+        <v>769</v>
+      </c>
+    </row>
+    <row r="244" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A244" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="B244" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="C244" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="F244" s="1" t="s">
+        <v>770</v>
+      </c>
+    </row>
+    <row r="245" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A245" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="B245" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="C245" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="F245" s="1" t="s">
+        <v>771</v>
+      </c>
+    </row>
+    <row r="246" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A246" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="B246" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="C246" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="F246" s="1" t="s">
+        <v>772</v>
+      </c>
+    </row>
+    <row r="247" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A247" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="B247" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="C247" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="F247" s="1" t="s">
+        <v>773</v>
+      </c>
+    </row>
+    <row r="248" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A248" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="B248" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="C248" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="F248" s="1" t="s">
+        <v>774</v>
+      </c>
+    </row>
+    <row r="249" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A249" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="B249" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="C249" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="F249" s="1" t="s">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="250" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A250" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="B250" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="C250" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="F250" s="1" t="s">
+        <v>776</v>
+      </c>
+    </row>
+    <row r="251" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A251" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="B251" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="C251" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="F251" s="1" t="s">
+        <v>777</v>
+      </c>
+    </row>
+    <row r="252" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A252" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="B252" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="C252" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="F252" s="1" t="s">
+        <v>778</v>
+      </c>
+    </row>
+    <row r="253" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A253" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="B253" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="C253" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="F253" s="1" t="s">
+        <v>779</v>
+      </c>
+    </row>
+    <row r="254" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A254" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="B254" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="C254" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="F254" s="1" t="s">
+        <v>780</v>
+      </c>
+    </row>
+    <row r="255" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A255" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="B255" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="C255" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="F255" s="1" t="s">
+        <v>1041</v>
+      </c>
+    </row>
+    <row r="256" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A256" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="B256" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="C256" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="F256" s="1" t="s">
+        <v>782</v>
+      </c>
+    </row>
+    <row r="257" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A257" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="B257" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="C257" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="F257" s="1" t="s">
+        <v>783</v>
+      </c>
+    </row>
+    <row r="258" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A258" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="B258" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="C258" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="F258" s="1" t="s">
+        <v>784</v>
+      </c>
+    </row>
+    <row r="259" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A259" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="B259" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="C259" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="F259" s="1" t="s">
+        <v>785</v>
+      </c>
+    </row>
+    <row r="260" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A260" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="B260" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="C260" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="F260" s="1" t="s">
+        <v>1040</v>
+      </c>
+    </row>
+    <row r="261" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A261" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="B261" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="C261" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="F261" s="1" t="s">
+        <v>787</v>
+      </c>
+    </row>
+    <row r="262" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A262" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="B262" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="C262" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="F262" s="1" t="s">
+        <v>788</v>
+      </c>
+    </row>
+    <row r="263" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A263" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="B263" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="C263" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="F263" s="1" t="s">
+        <v>789</v>
+      </c>
+    </row>
+    <row r="264" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A264" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="B264" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="C264" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="F264" s="1" t="s">
+        <v>790</v>
+      </c>
+    </row>
+    <row r="265" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A265" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="B265" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="C265" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="F265" s="1" t="s">
+        <v>791</v>
+      </c>
+    </row>
+    <row r="266" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A266" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="B266" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="C266" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="F266" s="1" t="s">
+        <v>792</v>
+      </c>
+    </row>
+    <row r="267" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A267" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="B267" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="C267" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="F267" s="1" t="s">
+        <v>793</v>
+      </c>
+    </row>
+    <row r="268" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A268" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="B268" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="C268" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="F268" s="1" t="s">
+        <v>794</v>
+      </c>
+    </row>
+    <row r="269" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A269" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="B269" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="C269" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="F269" s="1" t="s">
+        <v>795</v>
+      </c>
+    </row>
+    <row r="270" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A270" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="B270" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="C270" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="F270" s="1" t="s">
+        <v>796</v>
+      </c>
+    </row>
+    <row r="271" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A271" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="B271" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="C271" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="F271" s="1" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="272" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A272" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="B272" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="C272" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="F272" s="1" t="s">
+        <v>798</v>
+      </c>
+    </row>
+    <row r="273" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A273" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="B273" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="C273" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="F273" s="1" t="s">
+        <v>799</v>
+      </c>
+    </row>
+    <row r="274" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A274" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="B274" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="C274" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="F274" s="1" t="s">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="275" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A275" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="B275" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="C275" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="F275" s="1" t="s">
+        <v>726</v>
+      </c>
+    </row>
+    <row r="276" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A276" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="B276" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="C276" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="F276" s="1" t="s">
+        <v>801</v>
+      </c>
+    </row>
+    <row r="277" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A277" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="B277" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="C277" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="F277" s="1" t="s">
+        <v>802</v>
+      </c>
+    </row>
+    <row r="278" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A278" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="B278" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="C278" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="F278" s="1" t="s">
+        <v>803</v>
+      </c>
+    </row>
+    <row r="279" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A279" s="1" t="s">
+        <v>294</v>
+      </c>
+      <c r="B279" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="C279" s="1" t="s">
+        <v>295</v>
+      </c>
+      <c r="F279" s="1" t="s">
+        <v>804</v>
+      </c>
+    </row>
+    <row r="280" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A280" s="1" t="s">
+        <v>297</v>
+      </c>
+      <c r="B280" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="C280" s="1" t="s">
+        <v>298</v>
+      </c>
+      <c r="F280" s="1" t="s">
+        <v>805</v>
+      </c>
+    </row>
+    <row r="281" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A281" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="B281" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="C281" s="1" t="s">
+        <v>301</v>
+      </c>
+      <c r="F281" s="1" t="s">
+        <v>1005</v>
+      </c>
+    </row>
+    <row r="282" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A282" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="B282" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="C282" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="F282" s="1" t="s">
+        <v>1039</v>
+      </c>
+    </row>
+    <row r="283" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A283" s="1" t="s">
+        <v>306</v>
+      </c>
+      <c r="B283" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="C283" s="1" t="s">
+        <v>307</v>
+      </c>
+      <c r="F283" s="1" t="s">
+        <v>806</v>
+      </c>
+    </row>
+    <row r="284" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A284" s="1" t="s">
+        <v>309</v>
+      </c>
+      <c r="B284" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="C284" s="1" t="s">
+        <v>310</v>
+      </c>
+      <c r="F284" s="1" t="s">
+        <v>807</v>
+      </c>
+    </row>
+    <row r="285" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A285" s="1" t="s">
+        <v>312</v>
+      </c>
+      <c r="B285" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="C285" s="1" t="s">
+        <v>313</v>
+      </c>
+      <c r="F285" s="1" t="s">
+        <v>1038</v>
+      </c>
+    </row>
+    <row r="286" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A286" s="1" t="s">
+        <v>315</v>
+      </c>
+      <c r="B286" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="C286" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="F286" s="1" t="s">
+        <v>1037</v>
+      </c>
+    </row>
+    <row r="287" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A287" s="1" t="s">
+        <v>317</v>
+      </c>
+      <c r="B287" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="C287" s="1" t="s">
+        <v>318</v>
+      </c>
+      <c r="F287" s="1" t="s">
+        <v>808</v>
+      </c>
+    </row>
+    <row r="288" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A288" s="1" t="s">
+        <v>320</v>
+      </c>
+      <c r="B288" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="C288" s="1" t="s">
+        <v>321</v>
+      </c>
+      <c r="F288" s="1" t="s">
+        <v>809</v>
+      </c>
+    </row>
+    <row r="289" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A289" s="1" t="s">
+        <v>323</v>
+      </c>
+      <c r="B289" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="C289" s="1" t="s">
+        <v>324</v>
+      </c>
+      <c r="F289" s="1" t="s">
+        <v>1036</v>
+      </c>
+    </row>
+    <row r="290" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A290" s="1" t="s">
+        <v>326</v>
+      </c>
+      <c r="B290" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="C290" s="1" t="s">
+        <v>327</v>
+      </c>
+      <c r="F290" s="1" t="s">
+        <v>1005</v>
+      </c>
+    </row>
+    <row r="291" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A291" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="B291" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="C291" s="1" t="s">
+        <v>329</v>
+      </c>
+      <c r="F291" s="1" t="s">
+        <v>810</v>
+      </c>
+    </row>
+    <row r="292" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A292" s="1" t="s">
+        <v>331</v>
+      </c>
+      <c r="B292" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="C292" s="1" t="s">
+        <v>332</v>
+      </c>
+      <c r="F292" s="1" t="s">
+        <v>811</v>
+      </c>
+    </row>
+    <row r="293" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A293" s="1" t="s">
+        <v>334</v>
+      </c>
+      <c r="B293" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="C293" s="1" t="s">
+        <v>335</v>
+      </c>
+      <c r="F293" s="1" t="s">
+        <v>1005</v>
+      </c>
+    </row>
+    <row r="294" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A294" s="1" t="s">
+        <v>336</v>
+      </c>
+      <c r="B294" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="C294" s="1" t="s">
+        <v>337</v>
+      </c>
+      <c r="F294" s="1" t="s">
+        <v>742</v>
+      </c>
+    </row>
+    <row r="295" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A295" s="1" t="s">
+        <v>339</v>
+      </c>
+      <c r="B295" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="C295" s="1" t="s">
+        <v>340</v>
+      </c>
+      <c r="F295" s="1" t="s">
+        <v>1035</v>
+      </c>
+    </row>
+    <row r="296" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A296" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="B296" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="C296" s="1" t="s">
+        <v>343</v>
+      </c>
+      <c r="F296" s="1" t="s">
+        <v>1005</v>
+      </c>
+    </row>
+    <row r="297" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A297" s="1" t="s">
+        <v>344</v>
+      </c>
+      <c r="B297" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="C297" s="1" t="s">
+        <v>345</v>
+      </c>
+      <c r="F297" s="1" t="s">
+        <v>1034</v>
+      </c>
+    </row>
+    <row r="298" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A298" s="1" t="s">
+        <v>347</v>
+      </c>
+      <c r="B298" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="C298" s="1" t="s">
+        <v>348</v>
+      </c>
+      <c r="F298" s="1" t="s">
+        <v>1033</v>
+      </c>
+    </row>
+    <row r="299" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A299" s="1" t="s">
+        <v>351</v>
+      </c>
+      <c r="B299" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="C299" s="1" t="s">
+        <v>352</v>
+      </c>
+      <c r="F299" s="1" t="s">
+        <v>743</v>
+      </c>
+    </row>
+    <row r="300" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A300" s="1" t="s">
+        <v>354</v>
+      </c>
+      <c r="B300" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="C300" s="1" t="s">
+        <v>355</v>
+      </c>
+      <c r="F300" s="1" t="s">
+        <v>1032</v>
+      </c>
+    </row>
+    <row r="301" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A301" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="B301" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="C301" s="1" t="s">
+        <v>358</v>
+      </c>
+      <c r="F301" s="1" t="s">
+        <v>1005</v>
+      </c>
+    </row>
+    <row r="302" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A302" s="1" t="s">
+        <v>1010</v>
+      </c>
+      <c r="B302" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="C302" s="1" t="s">
+        <v>368</v>
+      </c>
+      <c r="F302" s="1" t="s">
+        <v>1009</v>
+      </c>
+    </row>
+    <row r="303" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A303" s="1" t="s">
+        <v>1008</v>
+      </c>
+      <c r="B303" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="C303" s="1" t="s">
+        <v>371</v>
+      </c>
+      <c r="F303" s="1" t="s">
+        <v>1007</v>
+      </c>
+    </row>
+    <row r="304" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A304" s="1" t="s">
+        <v>1006</v>
+      </c>
+      <c r="B304" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="C304" s="1" t="s">
+        <v>374</v>
+      </c>
+      <c r="F304" s="1" t="s">
+        <v>1005</v>
+      </c>
+    </row>
+    <row r="305" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A305" s="1" t="s">
+        <v>998</v>
+      </c>
+      <c r="B305" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="C305" s="1" t="s">
+        <v>388</v>
+      </c>
+      <c r="F305" s="1" t="s">
+        <v>997</v>
+      </c>
+    </row>
+    <row r="306" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A306" s="1" t="s">
+        <v>996</v>
+      </c>
+      <c r="B306" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="C306" s="1" t="s">
+        <v>391</v>
+      </c>
+      <c r="F306" s="1" t="s">
+        <v>995</v>
+      </c>
+    </row>
+    <row r="307" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A307" s="1" t="s">
+        <v>628</v>
+      </c>
+      <c r="B307" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="C307" s="1" t="s">
+        <v>629</v>
+      </c>
+      <c r="F307" s="1" t="s">
+        <v>814</v>
+      </c>
+    </row>
+    <row r="308" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A308" s="1" t="s">
+        <v>632</v>
+      </c>
+      <c r="B308" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="C308" s="1" t="s">
+        <v>633</v>
+      </c>
+      <c r="F308" s="1" t="s">
+        <v>815</v>
+      </c>
+    </row>
+    <row r="309" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A309" s="1" t="s">
+        <v>1031</v>
+      </c>
+      <c r="B309" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="C309" s="1" t="s">
+        <v>1030</v>
+      </c>
+      <c r="F309" s="1" t="s">
+        <v>1029</v>
+      </c>
+    </row>
+    <row r="310" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A310" s="1" t="s">
+        <v>1028</v>
+      </c>
+      <c r="B310" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="C310" s="1" t="s">
+        <v>1027</v>
+      </c>
+      <c r="F310" s="1" t="s">
+        <v>1026</v>
+      </c>
+    </row>
+    <row r="311" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A311" s="1" t="s">
+        <v>1025</v>
+      </c>
+      <c r="B311" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="C311" s="1" t="s">
+        <v>1024</v>
+      </c>
+      <c r="F311" s="1" t="s">
+        <v>1023</v>
+      </c>
+    </row>
+    <row r="312" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A312" s="1" t="s">
+        <v>1022</v>
+      </c>
+      <c r="B312" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="C312" s="1" t="s">
+        <v>1021</v>
+      </c>
+      <c r="F312" s="1" t="s">
+        <v>1020</v>
+      </c>
+    </row>
+    <row r="313" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A313" s="1" t="s">
+        <v>1019</v>
+      </c>
+      <c r="B313" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="C313" s="1" t="s">
+        <v>1018</v>
+      </c>
+      <c r="F313" s="1" t="s">
+        <v>1015</v>
+      </c>
+    </row>
+    <row r="314" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A314" s="1" t="s">
+        <v>1017</v>
+      </c>
+      <c r="B314" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="C314" s="1" t="s">
+        <v>1016</v>
+      </c>
+      <c r="F314" s="1" t="s">
+        <v>1015</v>
+      </c>
+    </row>
+    <row r="315" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A315" s="1" t="s">
+        <v>1014</v>
+      </c>
+      <c r="B315" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="C315" s="1" t="s">
+        <v>362</v>
+      </c>
+      <c r="F315" s="1" t="s">
+        <v>1013</v>
+      </c>
+    </row>
+    <row r="316" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A316" s="1" t="s">
+        <v>1012</v>
+      </c>
+      <c r="B316" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="C316" s="1" t="s">
+        <v>365</v>
+      </c>
+      <c r="F316" s="1" t="s">
+        <v>1011</v>
+      </c>
+    </row>
+    <row r="317" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A317" s="1" t="s">
+        <v>1010</v>
+      </c>
+      <c r="B317" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="C317" s="1" t="s">
+        <v>368</v>
+      </c>
+      <c r="F317" s="1" t="s">
+        <v>1009</v>
+      </c>
+    </row>
+    <row r="318" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A318" s="1" t="s">
+        <v>1008</v>
+      </c>
+      <c r="B318" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="C318" s="1" t="s">
+        <v>371</v>
+      </c>
+      <c r="F318" s="1" t="s">
+        <v>1007</v>
+      </c>
+    </row>
+    <row r="319" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A319" s="1" t="s">
+        <v>1006</v>
+      </c>
+      <c r="B319" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="C319" s="1" t="s">
+        <v>374</v>
+      </c>
+      <c r="F319" s="1" t="s">
+        <v>1005</v>
+      </c>
+    </row>
+    <row r="320" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A320" s="1" t="s">
+        <v>1004</v>
+      </c>
+      <c r="B320" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="C320" s="1" t="s">
+        <v>1003</v>
+      </c>
+      <c r="F320" s="1" t="s">
+        <v>1002</v>
+      </c>
+    </row>
+    <row r="321" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A321" s="1" t="s">
+        <v>1001</v>
+      </c>
+      <c r="B321" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="C321" s="1" t="s">
+        <v>382</v>
+      </c>
+      <c r="F321" s="1" t="s">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="322" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A322" s="1" t="s">
+        <v>1000</v>
+      </c>
+      <c r="B322" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="C322" s="1" t="s">
+        <v>385</v>
+      </c>
+      <c r="F322" s="1" t="s">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="323" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A323" s="1" t="s">
+        <v>998</v>
+      </c>
+      <c r="B323" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="C323" s="1" t="s">
+        <v>388</v>
+      </c>
+      <c r="F323" s="1" t="s">
+        <v>997</v>
+      </c>
+    </row>
+    <row r="324" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A324" s="1" t="s">
+        <v>996</v>
+      </c>
+      <c r="B324" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="C324" s="1" t="s">
+        <v>391</v>
+      </c>
+      <c r="F324" s="1" t="s">
+        <v>995</v>
+      </c>
+    </row>
+    <row r="325" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A325" s="1" t="s">
+        <v>994</v>
+      </c>
+      <c r="B325" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="C325" s="1" t="s">
+        <v>993</v>
+      </c>
+      <c r="F325" s="1" t="s">
+        <v>992</v>
+      </c>
+    </row>
+    <row r="326" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A326" s="1" t="s">
+        <v>991</v>
+      </c>
+      <c r="B326" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="C326" s="1" t="s">
+        <v>990</v>
+      </c>
+      <c r="F326" s="1" t="s">
+        <v>989</v>
+      </c>
+    </row>
+    <row r="327" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A327" s="1" t="s">
+        <v>988</v>
+      </c>
+      <c r="B327" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="C327" s="1" t="s">
+        <v>987</v>
+      </c>
+      <c r="F327" s="1" t="s">
+        <v>986</v>
+      </c>
+    </row>
+    <row r="328" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A328" s="1" t="s">
+        <v>985</v>
+      </c>
+      <c r="B328" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="C328" s="1" t="s">
+        <v>984</v>
+      </c>
+      <c r="F328" s="1" t="s">
+        <v>983</v>
+      </c>
+    </row>
+    <row r="329" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A329" s="1" t="s">
+        <v>982</v>
+      </c>
+      <c r="B329" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="C329" s="1" t="s">
+        <v>981</v>
+      </c>
+      <c r="F329" s="1" t="s">
+        <v>980</v>
+      </c>
+    </row>
+    <row r="330" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A330" s="1" t="s">
+        <v>979</v>
+      </c>
+      <c r="B330" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="C330" s="1" t="s">
+        <v>978</v>
+      </c>
+      <c r="F330" s="1" t="s">
+        <v>977</v>
+      </c>
+    </row>
+    <row r="331" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A331" s="1" t="s">
+        <v>397</v>
+      </c>
+      <c r="B331" s="1" t="s">
+        <v>398</v>
+      </c>
+      <c r="C331" s="1" t="s">
+        <v>399</v>
+      </c>
+      <c r="F331" s="1" t="s">
+        <v>816</v>
+      </c>
+    </row>
+    <row r="332" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A332" s="1" t="s">
+        <v>401</v>
+      </c>
+      <c r="B332" s="1" t="s">
+        <v>398</v>
+      </c>
+      <c r="C332" s="1" t="s">
+        <v>402</v>
+      </c>
+      <c r="F332" s="1" t="s">
+        <v>817</v>
+      </c>
+    </row>
+    <row r="333" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A333" s="1" t="s">
+        <v>404</v>
+      </c>
+      <c r="B333" s="1" t="s">
+        <v>398</v>
+      </c>
+      <c r="C333" s="1" t="s">
+        <v>405</v>
+      </c>
+      <c r="F333" s="1" t="s">
+        <v>818</v>
+      </c>
+    </row>
+    <row r="334" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A334" s="1" t="s">
+        <v>976</v>
+      </c>
+      <c r="B334" s="1" t="s">
+        <v>868</v>
+      </c>
+      <c r="C334" s="1" t="s">
+        <v>975</v>
+      </c>
+      <c r="F334" s="1" t="s">
+        <v>974</v>
+      </c>
+    </row>
+    <row r="335" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A335" s="1" t="s">
+        <v>973</v>
+      </c>
+      <c r="B335" s="1" t="s">
+        <v>868</v>
+      </c>
+      <c r="C335" s="1" t="s">
+        <v>972</v>
+      </c>
+      <c r="F335" s="1" t="s">
+        <v>971</v>
+      </c>
+    </row>
+    <row r="336" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A336" s="1" t="s">
+        <v>970</v>
+      </c>
+      <c r="B336" s="1" t="s">
+        <v>868</v>
+      </c>
+      <c r="C336" s="1" t="s">
+        <v>969</v>
+      </c>
+      <c r="F336" s="1" t="s">
+        <v>968</v>
+      </c>
+    </row>
+    <row r="337" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A337" s="1" t="s">
+        <v>967</v>
+      </c>
+      <c r="B337" s="1" t="s">
+        <v>868</v>
+      </c>
+      <c r="C337" s="1" t="s">
+        <v>966</v>
+      </c>
+      <c r="F337" s="1" t="s">
+        <v>965</v>
+      </c>
+    </row>
+    <row r="338" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A338" s="1" t="s">
+        <v>964</v>
+      </c>
+      <c r="B338" s="1" t="s">
+        <v>868</v>
+      </c>
+      <c r="C338" s="1" t="s">
+        <v>963</v>
+      </c>
+      <c r="F338" s="1" t="s">
+        <v>962</v>
+      </c>
+    </row>
+    <row r="339" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A339" s="1" t="s">
+        <v>961</v>
+      </c>
+      <c r="B339" s="1" t="s">
+        <v>868</v>
+      </c>
+      <c r="C339" s="1" t="s">
+        <v>960</v>
+      </c>
+      <c r="F339" s="1" t="s">
+        <v>959</v>
+      </c>
+    </row>
+    <row r="340" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A340" s="1" t="s">
+        <v>958</v>
+      </c>
+      <c r="B340" s="1" t="s">
+        <v>868</v>
+      </c>
+      <c r="C340" s="1" t="s">
+        <v>957</v>
+      </c>
+      <c r="F340" s="1" t="s">
+        <v>956</v>
+      </c>
+    </row>
+    <row r="341" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A341" s="1" t="s">
+        <v>955</v>
+      </c>
+      <c r="B341" s="1" t="s">
+        <v>868</v>
+      </c>
+      <c r="C341" s="1" t="s">
+        <v>954</v>
+      </c>
+      <c r="F341" s="1" t="s">
+        <v>953</v>
+      </c>
+    </row>
+    <row r="342" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A342" s="1" t="s">
+        <v>952</v>
+      </c>
+      <c r="B342" s="1" t="s">
+        <v>868</v>
+      </c>
+      <c r="C342" s="1" t="s">
+        <v>951</v>
+      </c>
+      <c r="F342" s="1" t="s">
+        <v>950</v>
+      </c>
+    </row>
+    <row r="343" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A343" s="1" t="s">
+        <v>949</v>
+      </c>
+      <c r="B343" s="1" t="s">
+        <v>868</v>
+      </c>
+      <c r="C343" s="1" t="s">
+        <v>948</v>
+      </c>
+      <c r="F343" s="1" t="s">
+        <v>947</v>
+      </c>
+    </row>
+    <row r="344" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A344" s="1" t="s">
+        <v>946</v>
+      </c>
+      <c r="B344" s="1" t="s">
+        <v>868</v>
+      </c>
+      <c r="C344" s="1" t="s">
+        <v>945</v>
+      </c>
+      <c r="F344" s="1" t="s">
+        <v>944</v>
+      </c>
+    </row>
+    <row r="345" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A345" s="1" t="s">
+        <v>943</v>
+      </c>
+      <c r="B345" s="1" t="s">
+        <v>868</v>
+      </c>
+      <c r="C345" s="1" t="s">
+        <v>942</v>
+      </c>
+      <c r="F345" s="1" t="s">
+        <v>941</v>
+      </c>
+    </row>
+    <row r="346" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A346" s="1" t="s">
+        <v>940</v>
+      </c>
+      <c r="B346" s="1" t="s">
+        <v>868</v>
+      </c>
+      <c r="C346" s="1" t="s">
+        <v>939</v>
+      </c>
+      <c r="F346" s="1" t="s">
+        <v>938</v>
+      </c>
+    </row>
+    <row r="347" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A347" s="1" t="s">
+        <v>937</v>
+      </c>
+      <c r="B347" s="1" t="s">
+        <v>868</v>
+      </c>
+      <c r="C347" s="1" t="s">
+        <v>936</v>
+      </c>
+      <c r="F347" s="1" t="s">
+        <v>935</v>
+      </c>
+    </row>
+    <row r="348" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A348" s="1" t="s">
+        <v>934</v>
+      </c>
+      <c r="B348" s="1" t="s">
+        <v>868</v>
+      </c>
+      <c r="C348" s="1" t="s">
+        <v>933</v>
+      </c>
+      <c r="F348" s="1" t="s">
+        <v>932</v>
+      </c>
+    </row>
+    <row r="349" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A349" s="1" t="s">
+        <v>931</v>
+      </c>
+      <c r="B349" s="1" t="s">
+        <v>868</v>
+      </c>
+      <c r="C349" s="1" t="s">
+        <v>930</v>
+      </c>
+      <c r="F349" s="1" t="s">
+        <v>929</v>
+      </c>
+    </row>
+    <row r="350" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A350" s="1" t="s">
+        <v>928</v>
+      </c>
+      <c r="B350" s="1" t="s">
+        <v>868</v>
+      </c>
+      <c r="C350" s="1" t="s">
+        <v>927</v>
+      </c>
+      <c r="F350" s="1" t="s">
+        <v>926</v>
+      </c>
+    </row>
+    <row r="351" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A351" s="1" t="s">
+        <v>925</v>
+      </c>
+      <c r="B351" s="1" t="s">
+        <v>868</v>
+      </c>
+      <c r="C351" s="1" t="s">
+        <v>924</v>
+      </c>
+      <c r="F351" s="1" t="s">
+        <v>923</v>
+      </c>
+    </row>
+    <row r="352" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A352" s="1" t="s">
+        <v>922</v>
+      </c>
+      <c r="B352" s="1" t="s">
+        <v>868</v>
+      </c>
+      <c r="C352" s="1" t="s">
+        <v>921</v>
+      </c>
+      <c r="F352" s="1" t="s">
+        <v>920</v>
+      </c>
+    </row>
+    <row r="353" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A353" s="1" t="s">
+        <v>919</v>
+      </c>
+      <c r="B353" s="1" t="s">
+        <v>868</v>
+      </c>
+      <c r="C353" s="1" t="s">
+        <v>918</v>
+      </c>
+      <c r="F353" s="1" t="s">
+        <v>917</v>
+      </c>
+    </row>
+    <row r="354" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A354" s="1" t="s">
+        <v>916</v>
+      </c>
+      <c r="B354" s="1" t="s">
+        <v>868</v>
+      </c>
+      <c r="C354" s="1" t="s">
+        <v>915</v>
+      </c>
+      <c r="F354" s="1" t="s">
+        <v>914</v>
+      </c>
+    </row>
+    <row r="355" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A355" s="1" t="s">
+        <v>913</v>
+      </c>
+      <c r="B355" s="1" t="s">
+        <v>868</v>
+      </c>
+      <c r="C355" s="1" t="s">
+        <v>912</v>
+      </c>
+      <c r="F355" s="1" t="s">
+        <v>911</v>
+      </c>
+    </row>
+    <row r="356" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A356" s="1" t="s">
+        <v>910</v>
+      </c>
+      <c r="B356" s="1" t="s">
+        <v>868</v>
+      </c>
+      <c r="C356" s="1" t="s">
+        <v>909</v>
+      </c>
+      <c r="F356" s="1" t="s">
+        <v>908</v>
+      </c>
+    </row>
+    <row r="357" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A357" s="1" t="s">
+        <v>907</v>
+      </c>
+      <c r="B357" s="1" t="s">
+        <v>868</v>
+      </c>
+      <c r="C357" s="1" t="s">
+        <v>906</v>
+      </c>
+      <c r="F357" s="1" t="s">
+        <v>905</v>
+      </c>
+    </row>
+    <row r="358" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A358" s="1" t="s">
+        <v>904</v>
+      </c>
+      <c r="B358" s="1" t="s">
+        <v>868</v>
+      </c>
+      <c r="C358" s="1" t="s">
+        <v>903</v>
+      </c>
+      <c r="F358" s="1" t="s">
+        <v>902</v>
+      </c>
+    </row>
+    <row r="359" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A359" s="1" t="s">
+        <v>901</v>
+      </c>
+      <c r="B359" s="1" t="s">
+        <v>868</v>
+      </c>
+      <c r="C359" s="1" t="s">
+        <v>900</v>
+      </c>
+      <c r="F359" s="1" t="s">
+        <v>899</v>
+      </c>
+    </row>
+    <row r="360" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A360" s="1" t="s">
+        <v>898</v>
+      </c>
+      <c r="B360" s="1" t="s">
+        <v>868</v>
+      </c>
+      <c r="C360" s="1" t="s">
+        <v>897</v>
+      </c>
+      <c r="F360" s="1" t="s">
+        <v>896</v>
+      </c>
+    </row>
+    <row r="361" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A361" s="1" t="s">
+        <v>895</v>
+      </c>
+      <c r="B361" s="1" t="s">
+        <v>868</v>
+      </c>
+      <c r="C361" s="1" t="s">
+        <v>894</v>
+      </c>
+      <c r="F361" s="1" t="s">
+        <v>893</v>
+      </c>
+    </row>
+    <row r="362" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A362" s="1" t="s">
+        <v>892</v>
+      </c>
+      <c r="B362" s="1" t="s">
+        <v>868</v>
+      </c>
+      <c r="C362" s="1" t="s">
+        <v>891</v>
+      </c>
+      <c r="F362" s="1" t="s">
+        <v>890</v>
+      </c>
+    </row>
+    <row r="363" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A363" s="1" t="s">
+        <v>889</v>
+      </c>
+      <c r="B363" s="1" t="s">
+        <v>868</v>
+      </c>
+      <c r="C363" s="1" t="s">
+        <v>888</v>
+      </c>
+      <c r="F363" s="1" t="s">
+        <v>887</v>
+      </c>
+    </row>
+    <row r="364" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A364" s="1" t="s">
+        <v>886</v>
+      </c>
+      <c r="B364" s="1" t="s">
+        <v>868</v>
+      </c>
+      <c r="C364" s="1" t="s">
+        <v>885</v>
+      </c>
+      <c r="F364" s="1" t="s">
+        <v>884</v>
+      </c>
+    </row>
+    <row r="365" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A365" s="1" t="s">
+        <v>883</v>
+      </c>
+      <c r="B365" s="1" t="s">
+        <v>868</v>
+      </c>
+      <c r="C365" s="1" t="s">
+        <v>882</v>
+      </c>
+      <c r="F365" s="1" t="s">
+        <v>881</v>
+      </c>
+    </row>
+    <row r="366" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A366" s="1" t="s">
+        <v>880</v>
+      </c>
+      <c r="B366" s="1" t="s">
+        <v>868</v>
+      </c>
+      <c r="C366" s="1" t="s">
+        <v>879</v>
+      </c>
+      <c r="F366" s="1" t="s">
+        <v>878</v>
+      </c>
+    </row>
+    <row r="367" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A367" s="1" t="s">
+        <v>877</v>
+      </c>
+      <c r="B367" s="1" t="s">
+        <v>868</v>
+      </c>
+      <c r="C367" s="1" t="s">
+        <v>876</v>
+      </c>
+      <c r="F367" s="1" t="s">
+        <v>875</v>
+      </c>
+    </row>
+    <row r="368" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A368" s="1" t="s">
+        <v>874</v>
+      </c>
+      <c r="B368" s="1" t="s">
+        <v>868</v>
+      </c>
+      <c r="C368" s="1" t="s">
+        <v>873</v>
+      </c>
+      <c r="F368" s="1" t="s">
+        <v>741</v>
+      </c>
+    </row>
+    <row r="369" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A369" s="1" t="s">
+        <v>872</v>
+      </c>
+      <c r="B369" s="1" t="s">
+        <v>868</v>
+      </c>
+      <c r="C369" s="1" t="s">
+        <v>871</v>
+      </c>
+      <c r="F369" s="1" t="s">
+        <v>870</v>
+      </c>
+    </row>
+    <row r="370" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A370" s="1" t="s">
+        <v>869</v>
+      </c>
+      <c r="B370" s="1" t="s">
+        <v>868</v>
+      </c>
+      <c r="C370" s="1" t="s">
+        <v>867</v>
+      </c>
+      <c r="F370" s="1" t="s">
+        <v>866</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="0.75" bottom="0.5" header="0.5" footer="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G220"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A36" sqref="A36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -7608,7 +14828,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D9D0713E-D7B6-4FB3-8C74-CB103209FACB}">
   <dimension ref="C2:E211"/>
   <sheetViews>
@@ -7630,7 +14850,7 @@
         <v>641</v>
       </c>
       <c r="E2">
-        <f>IF(ISERROR(B2),"",MATCH(C2,Main_240128!$A$2:$A$220,0))</f>
+        <f>IF(ISERROR(B2),"",MATCH(C2,Old_240128!$A$2:$A$220,0))</f>
         <v>144</v>
       </c>
     </row>
@@ -7642,7 +14862,7 @@
         <v>641</v>
       </c>
       <c r="E3">
-        <f>IF(ISERROR(B3),"",MATCH(C3,Main_240128!$A$2:$A$220,0))</f>
+        <f>IF(ISERROR(B3),"",MATCH(C3,Old_240128!$A$2:$A$220,0))</f>
         <v>145</v>
       </c>
     </row>
@@ -7654,7 +14874,7 @@
         <v>642</v>
       </c>
       <c r="E4">
-        <f>IF(ISERROR(B4),"",MATCH(C4,Main_240128!$A$2:$A$220,0))</f>
+        <f>IF(ISERROR(B4),"",MATCH(C4,Old_240128!$A$2:$A$220,0))</f>
         <v>146</v>
       </c>
     </row>
@@ -7666,7 +14886,7 @@
         <v>643</v>
       </c>
       <c r="E5">
-        <f>IF(ISERROR(B5),"",MATCH(C5,Main_240128!$A$2:$A$220,0))</f>
+        <f>IF(ISERROR(B5),"",MATCH(C5,Old_240128!$A$2:$A$220,0))</f>
         <v>147</v>
       </c>
     </row>
@@ -7678,7 +14898,7 @@
         <v>643</v>
       </c>
       <c r="E6">
-        <f>IF(ISERROR(B6),"",MATCH(C6,Main_240128!$A$2:$A$220,0))</f>
+        <f>IF(ISERROR(B6),"",MATCH(C6,Old_240128!$A$2:$A$220,0))</f>
         <v>148</v>
       </c>
     </row>
@@ -7690,7 +14910,7 @@
         <v>644</v>
       </c>
       <c r="E7">
-        <f>IF(ISERROR(B7),"",MATCH(C7,Main_240128!$A$2:$A$220,0))</f>
+        <f>IF(ISERROR(B7),"",MATCH(C7,Old_240128!$A$2:$A$220,0))</f>
         <v>149</v>
       </c>
     </row>
@@ -7702,7 +14922,7 @@
         <v>645</v>
       </c>
       <c r="E8">
-        <f>IF(ISERROR(B8),"",MATCH(C8,Main_240128!$A$2:$A$220,0))</f>
+        <f>IF(ISERROR(B8),"",MATCH(C8,Old_240128!$A$2:$A$220,0))</f>
         <v>150</v>
       </c>
     </row>
@@ -7714,7 +14934,7 @@
         <v>646</v>
       </c>
       <c r="E9">
-        <f>IF(ISERROR(B9),"",MATCH(C9,Main_240128!$A$2:$A$220,0))</f>
+        <f>IF(ISERROR(B9),"",MATCH(C9,Old_240128!$A$2:$A$220,0))</f>
         <v>151</v>
       </c>
     </row>
@@ -7726,7 +14946,7 @@
         <v>647</v>
       </c>
       <c r="E10">
-        <f>IF(ISERROR(B10),"",MATCH(C10,Main_240128!$A$2:$A$220,0))</f>
+        <f>IF(ISERROR(B10),"",MATCH(C10,Old_240128!$A$2:$A$220,0))</f>
         <v>152</v>
       </c>
     </row>
@@ -7738,7 +14958,7 @@
         <v>648</v>
       </c>
       <c r="E11">
-        <f>IF(ISERROR(B11),"",MATCH(C11,Main_240128!$A$2:$A$220,0))</f>
+        <f>IF(ISERROR(B11),"",MATCH(C11,Old_240128!$A$2:$A$220,0))</f>
         <v>153</v>
       </c>
     </row>
@@ -7750,7 +14970,7 @@
         <v>649</v>
       </c>
       <c r="E12">
-        <f>IF(ISERROR(B12),"",MATCH(C12,Main_240128!$A$2:$A$220,0))</f>
+        <f>IF(ISERROR(B12),"",MATCH(C12,Old_240128!$A$2:$A$220,0))</f>
         <v>154</v>
       </c>
     </row>
@@ -7762,7 +14982,7 @@
         <v>650</v>
       </c>
       <c r="E13">
-        <f>IF(ISERROR(B13),"",MATCH(C13,Main_240128!$A$2:$A$220,0))</f>
+        <f>IF(ISERROR(B13),"",MATCH(C13,Old_240128!$A$2:$A$220,0))</f>
         <v>155</v>
       </c>
     </row>
@@ -7774,7 +14994,7 @@
         <v>651</v>
       </c>
       <c r="E14">
-        <f>IF(ISERROR(B14),"",MATCH(C14,Main_240128!$A$2:$A$220,0))</f>
+        <f>IF(ISERROR(B14),"",MATCH(C14,Old_240128!$A$2:$A$220,0))</f>
         <v>156</v>
       </c>
     </row>
@@ -7786,7 +15006,7 @@
         <v>652</v>
       </c>
       <c r="E15">
-        <f>IF(ISERROR(B15),"",MATCH(C15,Main_240128!$A$2:$A$220,0))</f>
+        <f>IF(ISERROR(B15),"",MATCH(C15,Old_240128!$A$2:$A$220,0))</f>
         <v>157</v>
       </c>
     </row>
@@ -7798,7 +15018,7 @@
         <v>653</v>
       </c>
       <c r="E16">
-        <f>IF(ISERROR(B16),"",MATCH(C16,Main_240128!$A$2:$A$220,0))</f>
+        <f>IF(ISERROR(B16),"",MATCH(C16,Old_240128!$A$2:$A$220,0))</f>
         <v>158</v>
       </c>
     </row>
@@ -7810,7 +15030,7 @@
         <v>654</v>
       </c>
       <c r="E17">
-        <f>IF(ISERROR(B17),"",MATCH(C17,Main_240128!$A$2:$A$220,0))</f>
+        <f>IF(ISERROR(B17),"",MATCH(C17,Old_240128!$A$2:$A$220,0))</f>
         <v>159</v>
       </c>
     </row>
@@ -7822,7 +15042,7 @@
         <v>655</v>
       </c>
       <c r="E18">
-        <f>IF(ISERROR(B18),"",MATCH(C18,Main_240128!$A$2:$A$220,0))</f>
+        <f>IF(ISERROR(B18),"",MATCH(C18,Old_240128!$A$2:$A$220,0))</f>
         <v>160</v>
       </c>
     </row>
@@ -7834,7 +15054,7 @@
         <v>656</v>
       </c>
       <c r="E19">
-        <f>IF(ISERROR(B19),"",MATCH(C19,Main_240128!$A$2:$A$220,0))</f>
+        <f>IF(ISERROR(B19),"",MATCH(C19,Old_240128!$A$2:$A$220,0))</f>
         <v>161</v>
       </c>
     </row>
@@ -7846,7 +15066,7 @@
         <v>657</v>
       </c>
       <c r="E20">
-        <f>IF(ISERROR(B20),"",MATCH(C20,Main_240128!$A$2:$A$220,0))</f>
+        <f>IF(ISERROR(B20),"",MATCH(C20,Old_240128!$A$2:$A$220,0))</f>
         <v>162</v>
       </c>
     </row>
@@ -7858,7 +15078,7 @@
         <v>658</v>
       </c>
       <c r="E21">
-        <f>IF(ISERROR(B21),"",MATCH(C21,Main_240128!$A$2:$A$220,0))</f>
+        <f>IF(ISERROR(B21),"",MATCH(C21,Old_240128!$A$2:$A$220,0))</f>
         <v>163</v>
       </c>
     </row>
@@ -7870,7 +15090,7 @@
         <v>659</v>
       </c>
       <c r="E22">
-        <f>IF(ISERROR(B22),"",MATCH(C22,Main_240128!$A$2:$A$220,0))</f>
+        <f>IF(ISERROR(B22),"",MATCH(C22,Old_240128!$A$2:$A$220,0))</f>
         <v>164</v>
       </c>
     </row>
@@ -7882,7 +15102,7 @@
         <v>660</v>
       </c>
       <c r="E23">
-        <f>IF(ISERROR(B23),"",MATCH(C23,Main_240128!$A$2:$A$220,0))</f>
+        <f>IF(ISERROR(B23),"",MATCH(C23,Old_240128!$A$2:$A$220,0))</f>
         <v>165</v>
       </c>
     </row>
@@ -7894,7 +15114,7 @@
         <v>661</v>
       </c>
       <c r="E24">
-        <f>IF(ISERROR(B24),"",MATCH(C24,Main_240128!$A$2:$A$220,0))</f>
+        <f>IF(ISERROR(B24),"",MATCH(C24,Old_240128!$A$2:$A$220,0))</f>
         <v>166</v>
       </c>
     </row>
@@ -7906,7 +15126,7 @@
         <v>662</v>
       </c>
       <c r="E25">
-        <f>IF(ISERROR(B25),"",MATCH(C25,Main_240128!$A$2:$A$220,0))</f>
+        <f>IF(ISERROR(B25),"",MATCH(C25,Old_240128!$A$2:$A$220,0))</f>
         <v>167</v>
       </c>
     </row>
@@ -7918,7 +15138,7 @@
         <v>663</v>
       </c>
       <c r="E26">
-        <f>IF(ISERROR(B26),"",MATCH(C26,Main_240128!$A$2:$A$220,0))</f>
+        <f>IF(ISERROR(B26),"",MATCH(C26,Old_240128!$A$2:$A$220,0))</f>
         <v>168</v>
       </c>
     </row>
@@ -7930,7 +15150,7 @@
         <v>664</v>
       </c>
       <c r="E27">
-        <f>IF(ISERROR(B27),"",MATCH(C27,Main_240128!$A$2:$A$220,0))</f>
+        <f>IF(ISERROR(B27),"",MATCH(C27,Old_240128!$A$2:$A$220,0))</f>
         <v>169</v>
       </c>
     </row>
@@ -7942,7 +15162,7 @@
         <v>665</v>
       </c>
       <c r="E28">
-        <f>IF(ISERROR(B28),"",MATCH(C28,Main_240128!$A$2:$A$220,0))</f>
+        <f>IF(ISERROR(B28),"",MATCH(C28,Old_240128!$A$2:$A$220,0))</f>
         <v>170</v>
       </c>
     </row>
@@ -7954,7 +15174,7 @@
         <v>666</v>
       </c>
       <c r="E29">
-        <f>IF(ISERROR(B29),"",MATCH(C29,Main_240128!$A$2:$A$220,0))</f>
+        <f>IF(ISERROR(B29),"",MATCH(C29,Old_240128!$A$2:$A$220,0))</f>
         <v>171</v>
       </c>
     </row>
@@ -7966,7 +15186,7 @@
         <v>666</v>
       </c>
       <c r="E30">
-        <f>IF(ISERROR(B30),"",MATCH(C30,Main_240128!$A$2:$A$220,0))</f>
+        <f>IF(ISERROR(B30),"",MATCH(C30,Old_240128!$A$2:$A$220,0))</f>
         <v>172</v>
       </c>
     </row>
@@ -7978,7 +15198,7 @@
         <v>667</v>
       </c>
       <c r="E31">
-        <f>IF(ISERROR(B31),"",MATCH(C31,Main_240128!$A$2:$A$220,0))</f>
+        <f>IF(ISERROR(B31),"",MATCH(C31,Old_240128!$A$2:$A$220,0))</f>
         <v>173</v>
       </c>
     </row>
@@ -7990,7 +15210,7 @@
         <v>668</v>
       </c>
       <c r="E32">
-        <f>IF(ISERROR(B32),"",MATCH(C32,Main_240128!$A$2:$A$220,0))</f>
+        <f>IF(ISERROR(B32),"",MATCH(C32,Old_240128!$A$2:$A$220,0))</f>
         <v>174</v>
       </c>
     </row>
@@ -8002,7 +15222,7 @@
         <v>669</v>
       </c>
       <c r="E33">
-        <f>IF(ISERROR(B33),"",MATCH(C33,Main_240128!$A$2:$A$220,0))</f>
+        <f>IF(ISERROR(B33),"",MATCH(C33,Old_240128!$A$2:$A$220,0))</f>
         <v>175</v>
       </c>
     </row>
@@ -8014,7 +15234,7 @@
         <v>670</v>
       </c>
       <c r="E34">
-        <f>IF(ISERROR(B34),"",MATCH(C34,Main_240128!$A$2:$A$220,0))</f>
+        <f>IF(ISERROR(B34),"",MATCH(C34,Old_240128!$A$2:$A$220,0))</f>
         <v>176</v>
       </c>
     </row>
@@ -8026,7 +15246,7 @@
         <v>671</v>
       </c>
       <c r="E35">
-        <f>IF(ISERROR(B35),"",MATCH(C35,Main_240128!$A$2:$A$220,0))</f>
+        <f>IF(ISERROR(B35),"",MATCH(C35,Old_240128!$A$2:$A$220,0))</f>
         <v>177</v>
       </c>
     </row>
@@ -8038,7 +15258,7 @@
         <v>672</v>
       </c>
       <c r="E36">
-        <f>IF(ISERROR(B36),"",MATCH(C36,Main_240128!$A$2:$A$220,0))</f>
+        <f>IF(ISERROR(B36),"",MATCH(C36,Old_240128!$A$2:$A$220,0))</f>
         <v>178</v>
       </c>
     </row>
@@ -8050,7 +15270,7 @@
         <v>673</v>
       </c>
       <c r="E37">
-        <f>IF(ISERROR(B37),"",MATCH(C37,Main_240128!$A$2:$A$220,0))</f>
+        <f>IF(ISERROR(B37),"",MATCH(C37,Old_240128!$A$2:$A$220,0))</f>
         <v>179</v>
       </c>
     </row>
@@ -8062,7 +15282,7 @@
         <v>674</v>
       </c>
       <c r="E38">
-        <f>IF(ISERROR(B38),"",MATCH(C38,Main_240128!$A$2:$A$220,0))</f>
+        <f>IF(ISERROR(B38),"",MATCH(C38,Old_240128!$A$2:$A$220,0))</f>
         <v>180</v>
       </c>
     </row>
@@ -8074,7 +15294,7 @@
         <v>674</v>
       </c>
       <c r="E39">
-        <f>IF(ISERROR(B39),"",MATCH(C39,Main_240128!$A$2:$A$220,0))</f>
+        <f>IF(ISERROR(B39),"",MATCH(C39,Old_240128!$A$2:$A$220,0))</f>
         <v>181</v>
       </c>
     </row>
@@ -8086,7 +15306,7 @@
         <v>675</v>
       </c>
       <c r="E40">
-        <f>IF(ISERROR(B40),"",MATCH(C40,Main_240128!$A$2:$A$220,0))</f>
+        <f>IF(ISERROR(B40),"",MATCH(C40,Old_240128!$A$2:$A$220,0))</f>
         <v>182</v>
       </c>
     </row>
@@ -8098,7 +15318,7 @@
         <v>676</v>
       </c>
       <c r="E41">
-        <f>IF(ISERROR(B41),"",MATCH(C41,Main_240128!$A$2:$A$220,0))</f>
+        <f>IF(ISERROR(B41),"",MATCH(C41,Old_240128!$A$2:$A$220,0))</f>
         <v>183</v>
       </c>
     </row>
@@ -8110,7 +15330,7 @@
         <v>676</v>
       </c>
       <c r="E42">
-        <f>IF(ISERROR(B42),"",MATCH(C42,Main_240128!$A$2:$A$220,0))</f>
+        <f>IF(ISERROR(B42),"",MATCH(C42,Old_240128!$A$2:$A$220,0))</f>
         <v>184</v>
       </c>
     </row>
@@ -8122,7 +15342,7 @@
         <v>677</v>
       </c>
       <c r="E43">
-        <f>IF(ISERROR(B43),"",MATCH(C43,Main_240128!$A$2:$A$220,0))</f>
+        <f>IF(ISERROR(B43),"",MATCH(C43,Old_240128!$A$2:$A$220,0))</f>
         <v>185</v>
       </c>
     </row>
@@ -8134,7 +15354,7 @@
         <v>678</v>
       </c>
       <c r="E44">
-        <f>IF(ISERROR(B44),"",MATCH(C44,Main_240128!$A$2:$A$220,0))</f>
+        <f>IF(ISERROR(B44),"",MATCH(C44,Old_240128!$A$2:$A$220,0))</f>
         <v>186</v>
       </c>
     </row>
@@ -8146,7 +15366,7 @@
         <v>678</v>
       </c>
       <c r="E45">
-        <f>IF(ISERROR(B45),"",MATCH(C45,Main_240128!$A$2:$A$220,0))</f>
+        <f>IF(ISERROR(B45),"",MATCH(C45,Old_240128!$A$2:$A$220,0))</f>
         <v>187</v>
       </c>
     </row>
@@ -8158,7 +15378,7 @@
         <v>679</v>
       </c>
       <c r="E46">
-        <f>IF(ISERROR(B46),"",MATCH(C46,Main_240128!$A$2:$A$220,0))</f>
+        <f>IF(ISERROR(B46),"",MATCH(C46,Old_240128!$A$2:$A$220,0))</f>
         <v>188</v>
       </c>
     </row>
@@ -8170,7 +15390,7 @@
         <v>680</v>
       </c>
       <c r="E47">
-        <f>IF(ISERROR(B47),"",MATCH(C47,Main_240128!$A$2:$A$220,0))</f>
+        <f>IF(ISERROR(B47),"",MATCH(C47,Old_240128!$A$2:$A$220,0))</f>
         <v>189</v>
       </c>
     </row>
@@ -8182,7 +15402,7 @@
         <v>680</v>
       </c>
       <c r="E48">
-        <f>IF(ISERROR(B48),"",MATCH(C48,Main_240128!$A$2:$A$220,0))</f>
+        <f>IF(ISERROR(B48),"",MATCH(C48,Old_240128!$A$2:$A$220,0))</f>
         <v>190</v>
       </c>
     </row>
@@ -8194,7 +15414,7 @@
         <v>681</v>
       </c>
       <c r="E49">
-        <f>IF(ISERROR(B49),"",MATCH(C49,Main_240128!$A$2:$A$220,0))</f>
+        <f>IF(ISERROR(B49),"",MATCH(C49,Old_240128!$A$2:$A$220,0))</f>
         <v>191</v>
       </c>
     </row>
@@ -8206,7 +15426,7 @@
         <v>682</v>
       </c>
       <c r="E50">
-        <f>IF(ISERROR(B50),"",MATCH(C50,Main_240128!$A$2:$A$220,0))</f>
+        <f>IF(ISERROR(B50),"",MATCH(C50,Old_240128!$A$2:$A$220,0))</f>
         <v>192</v>
       </c>
     </row>
@@ -8218,7 +15438,7 @@
         <v>683</v>
       </c>
       <c r="E51">
-        <f>IF(ISERROR(B51),"",MATCH(C51,Main_240128!$A$2:$A$220,0))</f>
+        <f>IF(ISERROR(B51),"",MATCH(C51,Old_240128!$A$2:$A$220,0))</f>
         <v>193</v>
       </c>
     </row>
@@ -8230,7 +15450,7 @@
         <v>684</v>
       </c>
       <c r="E52">
-        <f>IF(ISERROR(B52),"",MATCH(C52,Main_240128!$A$2:$A$220,0))</f>
+        <f>IF(ISERROR(B52),"",MATCH(C52,Old_240128!$A$2:$A$220,0))</f>
         <v>194</v>
       </c>
     </row>
@@ -8242,7 +15462,7 @@
         <v>685</v>
       </c>
       <c r="E53">
-        <f>IF(ISERROR(B53),"",MATCH(C53,Main_240128!$A$2:$A$220,0))</f>
+        <f>IF(ISERROR(B53),"",MATCH(C53,Old_240128!$A$2:$A$220,0))</f>
         <v>195</v>
       </c>
     </row>
@@ -8254,7 +15474,7 @@
         <v>685</v>
       </c>
       <c r="E54">
-        <f>IF(ISERROR(B54),"",MATCH(C54,Main_240128!$A$2:$A$220,0))</f>
+        <f>IF(ISERROR(B54),"",MATCH(C54,Old_240128!$A$2:$A$220,0))</f>
         <v>196</v>
       </c>
     </row>
@@ -8266,7 +15486,7 @@
         <v>686</v>
       </c>
       <c r="E55">
-        <f>IF(ISERROR(B55),"",MATCH(C55,Main_240128!$A$2:$A$220,0))</f>
+        <f>IF(ISERROR(B55),"",MATCH(C55,Old_240128!$A$2:$A$220,0))</f>
         <v>197</v>
       </c>
     </row>
@@ -8278,7 +15498,7 @@
         <v>687</v>
       </c>
       <c r="E56">
-        <f>IF(ISERROR(B56),"",MATCH(C56,Main_240128!$A$2:$A$220,0))</f>
+        <f>IF(ISERROR(B56),"",MATCH(C56,Old_240128!$A$2:$A$220,0))</f>
         <v>198</v>
       </c>
     </row>
@@ -8290,7 +15510,7 @@
         <v>687</v>
       </c>
       <c r="E57">
-        <f>IF(ISERROR(B57),"",MATCH(C57,Main_240128!$A$2:$A$220,0))</f>
+        <f>IF(ISERROR(B57),"",MATCH(C57,Old_240128!$A$2:$A$220,0))</f>
         <v>199</v>
       </c>
     </row>
@@ -8302,7 +15522,7 @@
         <v>688</v>
       </c>
       <c r="E58">
-        <f>IF(ISERROR(B58),"",MATCH(C58,Main_240128!$A$2:$A$220,0))</f>
+        <f>IF(ISERROR(B58),"",MATCH(C58,Old_240128!$A$2:$A$220,0))</f>
         <v>200</v>
       </c>
     </row>
@@ -8314,7 +15534,7 @@
         <v>689</v>
       </c>
       <c r="E59">
-        <f>IF(ISERROR(B59),"",MATCH(C59,Main_240128!$A$2:$A$220,0))</f>
+        <f>IF(ISERROR(B59),"",MATCH(C59,Old_240128!$A$2:$A$220,0))</f>
         <v>201</v>
       </c>
     </row>
@@ -8326,7 +15546,7 @@
         <v>689</v>
       </c>
       <c r="E60">
-        <f>IF(ISERROR(B60),"",MATCH(C60,Main_240128!$A$2:$A$220,0))</f>
+        <f>IF(ISERROR(B60),"",MATCH(C60,Old_240128!$A$2:$A$220,0))</f>
         <v>202</v>
       </c>
     </row>
@@ -8338,7 +15558,7 @@
         <v>690</v>
       </c>
       <c r="E61">
-        <f>IF(ISERROR(B61),"",MATCH(C61,Main_240128!$A$2:$A$220,0))</f>
+        <f>IF(ISERROR(B61),"",MATCH(C61,Old_240128!$A$2:$A$220,0))</f>
         <v>203</v>
       </c>
     </row>
@@ -8350,7 +15570,7 @@
         <v>691</v>
       </c>
       <c r="E62">
-        <f>IF(ISERROR(B62),"",MATCH(C62,Main_240128!$A$2:$A$220,0))</f>
+        <f>IF(ISERROR(B62),"",MATCH(C62,Old_240128!$A$2:$A$220,0))</f>
         <v>204</v>
       </c>
     </row>
@@ -8362,7 +15582,7 @@
         <v>692</v>
       </c>
       <c r="E63">
-        <f>IF(ISERROR(B63),"",MATCH(C63,Main_240128!$A$2:$A$220,0))</f>
+        <f>IF(ISERROR(B63),"",MATCH(C63,Old_240128!$A$2:$A$220,0))</f>
         <v>205</v>
       </c>
     </row>
@@ -8374,7 +15594,7 @@
         <v>693</v>
       </c>
       <c r="E64">
-        <f>IF(ISERROR(B64),"",MATCH(C64,Main_240128!$A$2:$A$220,0))</f>
+        <f>IF(ISERROR(B64),"",MATCH(C64,Old_240128!$A$2:$A$220,0))</f>
         <v>206</v>
       </c>
     </row>
@@ -8386,7 +15606,7 @@
         <v>694</v>
       </c>
       <c r="E65">
-        <f>IF(ISERROR(B65),"",MATCH(C65,Main_240128!$A$2:$A$220,0))</f>
+        <f>IF(ISERROR(B65),"",MATCH(C65,Old_240128!$A$2:$A$220,0))</f>
         <v>207</v>
       </c>
     </row>
@@ -8398,7 +15618,7 @@
         <v>695</v>
       </c>
       <c r="E66">
-        <f>IF(ISERROR(B66),"",MATCH(C66,Main_240128!$A$2:$A$220,0))</f>
+        <f>IF(ISERROR(B66),"",MATCH(C66,Old_240128!$A$2:$A$220,0))</f>
         <v>208</v>
       </c>
     </row>
@@ -8410,7 +15630,7 @@
         <v>696</v>
       </c>
       <c r="E67">
-        <f>IF(ISERROR(B67),"",MATCH(C67,Main_240128!$A$2:$A$220,0))</f>
+        <f>IF(ISERROR(B67),"",MATCH(C67,Old_240128!$A$2:$A$220,0))</f>
         <v>209</v>
       </c>
     </row>
@@ -8422,7 +15642,7 @@
         <v>697</v>
       </c>
       <c r="E68">
-        <f>IF(ISERROR(B68),"",MATCH(C68,Main_240128!$A$2:$A$220,0))</f>
+        <f>IF(ISERROR(B68),"",MATCH(C68,Old_240128!$A$2:$A$220,0))</f>
         <v>210</v>
       </c>
     </row>
@@ -8434,7 +15654,7 @@
         <v>698</v>
       </c>
       <c r="E69">
-        <f>IF(ISERROR(B69),"",MATCH(C69,Main_240128!$A$2:$A$220,0))</f>
+        <f>IF(ISERROR(B69),"",MATCH(C69,Old_240128!$A$2:$A$220,0))</f>
         <v>211</v>
       </c>
     </row>
@@ -8446,7 +15666,7 @@
         <v>699</v>
       </c>
       <c r="E70">
-        <f>IF(ISERROR(B70),"",MATCH(C70,Main_240128!$A$2:$A$220,0))</f>
+        <f>IF(ISERROR(B70),"",MATCH(C70,Old_240128!$A$2:$A$220,0))</f>
         <v>212</v>
       </c>
     </row>
@@ -8458,7 +15678,7 @@
         <v>700</v>
       </c>
       <c r="E71">
-        <f>IF(ISERROR(B71),"",MATCH(C71,Main_240128!$A$2:$A$220,0))</f>
+        <f>IF(ISERROR(B71),"",MATCH(C71,Old_240128!$A$2:$A$220,0))</f>
         <v>213</v>
       </c>
     </row>
@@ -8470,7 +15690,7 @@
         <v>701</v>
       </c>
       <c r="E72">
-        <f>IF(ISERROR(B72),"",MATCH(C72,Main_240128!$A$2:$A$220,0))</f>
+        <f>IF(ISERROR(B72),"",MATCH(C72,Old_240128!$A$2:$A$220,0))</f>
         <v>214</v>
       </c>
     </row>
@@ -8482,7 +15702,7 @@
         <v>702</v>
       </c>
       <c r="E73">
-        <f>IF(ISERROR(B73),"",MATCH(C73,Main_240128!$A$2:$A$220,0))</f>
+        <f>IF(ISERROR(B73),"",MATCH(C73,Old_240128!$A$2:$A$220,0))</f>
         <v>215</v>
       </c>
     </row>
@@ -8494,7 +15714,7 @@
         <v>703</v>
       </c>
       <c r="E74">
-        <f>IF(ISERROR(B74),"",MATCH(C74,Main_240128!$A$2:$A$220,0))</f>
+        <f>IF(ISERROR(B74),"",MATCH(C74,Old_240128!$A$2:$A$220,0))</f>
         <v>138</v>
       </c>
     </row>
@@ -8506,7 +15726,7 @@
         <v>703</v>
       </c>
       <c r="E75">
-        <f>IF(ISERROR(B75),"",MATCH(C75,Main_240128!$A$2:$A$220,0))</f>
+        <f>IF(ISERROR(B75),"",MATCH(C75,Old_240128!$A$2:$A$220,0))</f>
         <v>139</v>
       </c>
     </row>
@@ -8518,7 +15738,7 @@
         <v>704</v>
       </c>
       <c r="E76">
-        <f>IF(ISERROR(B76),"",MATCH(C76,Main_240128!$A$2:$A$220,0))</f>
+        <f>IF(ISERROR(B76),"",MATCH(C76,Old_240128!$A$2:$A$220,0))</f>
         <v>140</v>
       </c>
     </row>
@@ -8530,7 +15750,7 @@
         <v>705</v>
       </c>
       <c r="E77">
-        <f>IF(ISERROR(B77),"",MATCH(C77,Main_240128!$A$2:$A$220,0))</f>
+        <f>IF(ISERROR(B77),"",MATCH(C77,Old_240128!$A$2:$A$220,0))</f>
         <v>141</v>
       </c>
     </row>
@@ -8542,7 +15762,7 @@
         <v>705</v>
       </c>
       <c r="E78">
-        <f>IF(ISERROR(B78),"",MATCH(C78,Main_240128!$A$2:$A$220,0))</f>
+        <f>IF(ISERROR(B78),"",MATCH(C78,Old_240128!$A$2:$A$220,0))</f>
         <v>142</v>
       </c>
     </row>
@@ -8554,7 +15774,7 @@
         <v>706</v>
       </c>
       <c r="E79">
-        <f>IF(ISERROR(B79),"",MATCH(C79,Main_240128!$A$2:$A$220,0))</f>
+        <f>IF(ISERROR(B79),"",MATCH(C79,Old_240128!$A$2:$A$220,0))</f>
         <v>143</v>
       </c>
     </row>
@@ -8566,7 +15786,7 @@
         <v>707</v>
       </c>
       <c r="E80">
-        <f>IF(ISERROR(B80),"",MATCH(C80,Main_240128!$A$2:$A$220,0))</f>
+        <f>IF(ISERROR(B80),"",MATCH(C80,Old_240128!$A$2:$A$220,0))</f>
         <v>122</v>
       </c>
     </row>
@@ -8578,7 +15798,7 @@
         <v>708</v>
       </c>
       <c r="E81">
-        <f>IF(ISERROR(B81),"",MATCH(C81,Main_240128!$A$2:$A$220,0))</f>
+        <f>IF(ISERROR(B81),"",MATCH(C81,Old_240128!$A$2:$A$220,0))</f>
         <v>123</v>
       </c>
     </row>
@@ -8590,7 +15810,7 @@
         <v>709</v>
       </c>
       <c r="E82">
-        <f>IF(ISERROR(B82),"",MATCH(C82,Main_240128!$A$2:$A$220,0))</f>
+        <f>IF(ISERROR(B82),"",MATCH(C82,Old_240128!$A$2:$A$220,0))</f>
         <v>129</v>
       </c>
     </row>
@@ -8602,7 +15822,7 @@
         <v>710</v>
       </c>
       <c r="E83">
-        <f>IF(ISERROR(B83),"",MATCH(C83,Main_240128!$A$2:$A$220,0))</f>
+        <f>IF(ISERROR(B83),"",MATCH(C83,Old_240128!$A$2:$A$220,0))</f>
         <v>130</v>
       </c>
     </row>
@@ -8614,7 +15834,7 @@
         <v>711</v>
       </c>
       <c r="E84">
-        <f>IF(ISERROR(B84),"",MATCH(C84,Main_240128!$A$2:$A$220,0))</f>
+        <f>IF(ISERROR(B84),"",MATCH(C84,Old_240128!$A$2:$A$220,0))</f>
         <v>1</v>
       </c>
     </row>
@@ -8626,7 +15846,7 @@
         <v>711</v>
       </c>
       <c r="E85">
-        <f>IF(ISERROR(B85),"",MATCH(C85,Main_240128!$A$2:$A$220,0))</f>
+        <f>IF(ISERROR(B85),"",MATCH(C85,Old_240128!$A$2:$A$220,0))</f>
         <v>2</v>
       </c>
     </row>
@@ -8638,7 +15858,7 @@
         <v>712</v>
       </c>
       <c r="E86">
-        <f>IF(ISERROR(B86),"",MATCH(C86,Main_240128!$A$2:$A$220,0))</f>
+        <f>IF(ISERROR(B86),"",MATCH(C86,Old_240128!$A$2:$A$220,0))</f>
         <v>3</v>
       </c>
     </row>
@@ -8650,7 +15870,7 @@
         <v>713</v>
       </c>
       <c r="E87">
-        <f>IF(ISERROR(B87),"",MATCH(C87,Main_240128!$A$2:$A$220,0))</f>
+        <f>IF(ISERROR(B87),"",MATCH(C87,Old_240128!$A$2:$A$220,0))</f>
         <v>4</v>
       </c>
     </row>
@@ -8662,7 +15882,7 @@
         <v>714</v>
       </c>
       <c r="E88">
-        <f>IF(ISERROR(B88),"",MATCH(C88,Main_240128!$A$2:$A$220,0))</f>
+        <f>IF(ISERROR(B88),"",MATCH(C88,Old_240128!$A$2:$A$220,0))</f>
         <v>5</v>
       </c>
     </row>
@@ -8674,7 +15894,7 @@
         <v>715</v>
       </c>
       <c r="E89">
-        <f>IF(ISERROR(B89),"",MATCH(C89,Main_240128!$A$2:$A$220,0))</f>
+        <f>IF(ISERROR(B89),"",MATCH(C89,Old_240128!$A$2:$A$220,0))</f>
         <v>6</v>
       </c>
     </row>
@@ -8686,7 +15906,7 @@
         <v>716</v>
       </c>
       <c r="E90">
-        <f>IF(ISERROR(B90),"",MATCH(C90,Main_240128!$A$2:$A$220,0))</f>
+        <f>IF(ISERROR(B90),"",MATCH(C90,Old_240128!$A$2:$A$220,0))</f>
         <v>7</v>
       </c>
     </row>
@@ -8698,7 +15918,7 @@
         <v>717</v>
       </c>
       <c r="E91">
-        <f>IF(ISERROR(B91),"",MATCH(C91,Main_240128!$A$2:$A$220,0))</f>
+        <f>IF(ISERROR(B91),"",MATCH(C91,Old_240128!$A$2:$A$220,0))</f>
         <v>8</v>
       </c>
     </row>
@@ -8710,7 +15930,7 @@
         <v>718</v>
       </c>
       <c r="E92">
-        <f>IF(ISERROR(B92),"",MATCH(C92,Main_240128!$A$2:$A$220,0))</f>
+        <f>IF(ISERROR(B92),"",MATCH(C92,Old_240128!$A$2:$A$220,0))</f>
         <v>9</v>
       </c>
     </row>
@@ -8722,7 +15942,7 @@
         <v>719</v>
       </c>
       <c r="E93">
-        <f>IF(ISERROR(B93),"",MATCH(C93,Main_240128!$A$2:$A$220,0))</f>
+        <f>IF(ISERROR(B93),"",MATCH(C93,Old_240128!$A$2:$A$220,0))</f>
         <v>10</v>
       </c>
     </row>
@@ -8734,7 +15954,7 @@
         <v>720</v>
       </c>
       <c r="E94">
-        <f>IF(ISERROR(B94),"",MATCH(C94,Main_240128!$A$2:$A$220,0))</f>
+        <f>IF(ISERROR(B94),"",MATCH(C94,Old_240128!$A$2:$A$220,0))</f>
         <v>11</v>
       </c>
     </row>
@@ -8746,7 +15966,7 @@
         <v>721</v>
       </c>
       <c r="E95">
-        <f>IF(ISERROR(B95),"",MATCH(C95,Main_240128!$A$2:$A$220,0))</f>
+        <f>IF(ISERROR(B95),"",MATCH(C95,Old_240128!$A$2:$A$220,0))</f>
         <v>13</v>
       </c>
     </row>
@@ -8758,7 +15978,7 @@
         <v>722</v>
       </c>
       <c r="E96">
-        <f>IF(ISERROR(B96),"",MATCH(C96,Main_240128!$A$2:$A$220,0))</f>
+        <f>IF(ISERROR(B96),"",MATCH(C96,Old_240128!$A$2:$A$220,0))</f>
         <v>14</v>
       </c>
     </row>
@@ -8770,7 +15990,7 @@
         <v>723</v>
       </c>
       <c r="E97">
-        <f>IF(ISERROR(B97),"",MATCH(C97,Main_240128!$A$2:$A$220,0))</f>
+        <f>IF(ISERROR(B97),"",MATCH(C97,Old_240128!$A$2:$A$220,0))</f>
         <v>15</v>
       </c>
     </row>
@@ -8782,7 +16002,7 @@
         <v>724</v>
       </c>
       <c r="E98">
-        <f>IF(ISERROR(B98),"",MATCH(C98,Main_240128!$A$2:$A$220,0))</f>
+        <f>IF(ISERROR(B98),"",MATCH(C98,Old_240128!$A$2:$A$220,0))</f>
         <v>16</v>
       </c>
     </row>
@@ -8794,7 +16014,7 @@
         <v>725</v>
       </c>
       <c r="E99">
-        <f>IF(ISERROR(B99),"",MATCH(C99,Main_240128!$A$2:$A$220,0))</f>
+        <f>IF(ISERROR(B99),"",MATCH(C99,Old_240128!$A$2:$A$220,0))</f>
         <v>12</v>
       </c>
     </row>
@@ -8806,7 +16026,7 @@
         <v>726</v>
       </c>
       <c r="E100">
-        <f>IF(ISERROR(B100),"",MATCH(C100,Main_240128!$A$2:$A$220,0))</f>
+        <f>IF(ISERROR(B100),"",MATCH(C100,Old_240128!$A$2:$A$220,0))</f>
         <v>87</v>
       </c>
     </row>
@@ -8818,7 +16038,7 @@
         <v>726</v>
       </c>
       <c r="E101">
-        <f>IF(ISERROR(B101),"",MATCH(C101,Main_240128!$A$2:$A$220,0))</f>
+        <f>IF(ISERROR(B101),"",MATCH(C101,Old_240128!$A$2:$A$220,0))</f>
         <v>88</v>
       </c>
     </row>
@@ -8830,7 +16050,7 @@
         <v>727</v>
       </c>
       <c r="E102">
-        <f>IF(ISERROR(B102),"",MATCH(C102,Main_240128!$A$2:$A$220,0))</f>
+        <f>IF(ISERROR(B102),"",MATCH(C102,Old_240128!$A$2:$A$220,0))</f>
         <v>89</v>
       </c>
     </row>
@@ -8842,7 +16062,7 @@
         <v>728</v>
       </c>
       <c r="E103">
-        <f>IF(ISERROR(B103),"",MATCH(C103,Main_240128!$A$2:$A$220,0))</f>
+        <f>IF(ISERROR(B103),"",MATCH(C103,Old_240128!$A$2:$A$220,0))</f>
         <v>92</v>
       </c>
     </row>
@@ -8854,7 +16074,7 @@
         <v>728</v>
       </c>
       <c r="E104">
-        <f>IF(ISERROR(B104),"",MATCH(C104,Main_240128!$A$2:$A$220,0))</f>
+        <f>IF(ISERROR(B104),"",MATCH(C104,Old_240128!$A$2:$A$220,0))</f>
         <v>93</v>
       </c>
     </row>
@@ -8866,7 +16086,7 @@
         <v>729</v>
       </c>
       <c r="E105">
-        <f>IF(ISERROR(B105),"",MATCH(C105,Main_240128!$A$2:$A$220,0))</f>
+        <f>IF(ISERROR(B105),"",MATCH(C105,Old_240128!$A$2:$A$220,0))</f>
         <v>94</v>
       </c>
     </row>
@@ -8878,7 +16098,7 @@
         <v>728</v>
       </c>
       <c r="E106">
-        <f>IF(ISERROR(B106),"",MATCH(C106,Main_240128!$A$2:$A$220,0))</f>
+        <f>IF(ISERROR(B106),"",MATCH(C106,Old_240128!$A$2:$A$220,0))</f>
         <v>95</v>
       </c>
     </row>
@@ -8890,7 +16110,7 @@
         <v>730</v>
       </c>
       <c r="E107">
-        <f>IF(ISERROR(B107),"",MATCH(C107,Main_240128!$A$2:$A$220,0))</f>
+        <f>IF(ISERROR(B107),"",MATCH(C107,Old_240128!$A$2:$A$220,0))</f>
         <v>18</v>
       </c>
     </row>
@@ -8902,7 +16122,7 @@
         <v>719</v>
       </c>
       <c r="E108">
-        <f>IF(ISERROR(B108),"",MATCH(C108,Main_240128!$A$2:$A$220,0))</f>
+        <f>IF(ISERROR(B108),"",MATCH(C108,Old_240128!$A$2:$A$220,0))</f>
         <v>19</v>
       </c>
     </row>
@@ -8914,7 +16134,7 @@
         <v>731</v>
       </c>
       <c r="E109">
-        <f>IF(ISERROR(B109),"",MATCH(C109,Main_240128!$A$2:$A$220,0))</f>
+        <f>IF(ISERROR(B109),"",MATCH(C109,Old_240128!$A$2:$A$220,0))</f>
         <v>20</v>
       </c>
     </row>
@@ -8926,7 +16146,7 @@
         <v>732</v>
       </c>
       <c r="E110">
-        <f>IF(ISERROR(B110),"",MATCH(C110,Main_240128!$A$2:$A$220,0))</f>
+        <f>IF(ISERROR(B110),"",MATCH(C110,Old_240128!$A$2:$A$220,0))</f>
         <v>21</v>
       </c>
     </row>
@@ -8938,7 +16158,7 @@
         <v>716</v>
       </c>
       <c r="E111">
-        <f>IF(ISERROR(B111),"",MATCH(C111,Main_240128!$A$2:$A$220,0))</f>
+        <f>IF(ISERROR(B111),"",MATCH(C111,Old_240128!$A$2:$A$220,0))</f>
         <v>22</v>
       </c>
     </row>
@@ -8950,7 +16170,7 @@
         <v>733</v>
       </c>
       <c r="E112">
-        <f>IF(ISERROR(B112),"",MATCH(C112,Main_240128!$A$2:$A$220,0))</f>
+        <f>IF(ISERROR(B112),"",MATCH(C112,Old_240128!$A$2:$A$220,0))</f>
         <v>23</v>
       </c>
     </row>
@@ -8962,7 +16182,7 @@
         <v>734</v>
       </c>
       <c r="E113">
-        <f>IF(ISERROR(B113),"",MATCH(C113,Main_240128!$A$2:$A$220,0))</f>
+        <f>IF(ISERROR(B113),"",MATCH(C113,Old_240128!$A$2:$A$220,0))</f>
         <v>24</v>
       </c>
     </row>
@@ -8974,7 +16194,7 @@
         <v>735</v>
       </c>
       <c r="E114">
-        <f>IF(ISERROR(B114),"",MATCH(C114,Main_240128!$A$2:$A$220,0))</f>
+        <f>IF(ISERROR(B114),"",MATCH(C114,Old_240128!$A$2:$A$220,0))</f>
         <v>25</v>
       </c>
     </row>
@@ -8986,7 +16206,7 @@
         <v>736</v>
       </c>
       <c r="E115">
-        <f>IF(ISERROR(B115),"",MATCH(C115,Main_240128!$A$2:$A$220,0))</f>
+        <f>IF(ISERROR(B115),"",MATCH(C115,Old_240128!$A$2:$A$220,0))</f>
         <v>26</v>
       </c>
     </row>
@@ -8998,7 +16218,7 @@
         <v>737</v>
       </c>
       <c r="E116">
-        <f>IF(ISERROR(B116),"",MATCH(C116,Main_240128!$A$2:$A$220,0))</f>
+        <f>IF(ISERROR(B116),"",MATCH(C116,Old_240128!$A$2:$A$220,0))</f>
         <v>27</v>
       </c>
     </row>
@@ -9010,7 +16230,7 @@
         <v>738</v>
       </c>
       <c r="E117">
-        <f>IF(ISERROR(B117),"",MATCH(C117,Main_240128!$A$2:$A$220,0))</f>
+        <f>IF(ISERROR(B117),"",MATCH(C117,Old_240128!$A$2:$A$220,0))</f>
         <v>28</v>
       </c>
     </row>
@@ -9022,7 +16242,7 @@
         <v>739</v>
       </c>
       <c r="E118">
-        <f>IF(ISERROR(B118),"",MATCH(C118,Main_240128!$A$2:$A$220,0))</f>
+        <f>IF(ISERROR(B118),"",MATCH(C118,Old_240128!$A$2:$A$220,0))</f>
         <v>29</v>
       </c>
     </row>
@@ -9034,7 +16254,7 @@
         <v>740</v>
       </c>
       <c r="E119">
-        <f>IF(ISERROR(B119),"",MATCH(C119,Main_240128!$A$2:$A$220,0))</f>
+        <f>IF(ISERROR(B119),"",MATCH(C119,Old_240128!$A$2:$A$220,0))</f>
         <v>30</v>
       </c>
     </row>
@@ -9046,7 +16266,7 @@
         <v>741</v>
       </c>
       <c r="E120">
-        <f>IF(ISERROR(B120),"",MATCH(C120,Main_240128!$A$2:$A$220,0))</f>
+        <f>IF(ISERROR(B120),"",MATCH(C120,Old_240128!$A$2:$A$220,0))</f>
         <v>31</v>
       </c>
     </row>
@@ -9058,7 +16278,7 @@
         <v>742</v>
       </c>
       <c r="E121">
-        <f>IF(ISERROR(B121),"",MATCH(C121,Main_240128!$A$2:$A$220,0))</f>
+        <f>IF(ISERROR(B121),"",MATCH(C121,Old_240128!$A$2:$A$220,0))</f>
         <v>117</v>
       </c>
     </row>
@@ -9070,7 +16290,7 @@
         <v>743</v>
       </c>
       <c r="E122">
-        <f>IF(ISERROR(B122),"",MATCH(C122,Main_240128!$A$2:$A$220,0))</f>
+        <f>IF(ISERROR(B122),"",MATCH(C122,Old_240128!$A$2:$A$220,0))</f>
         <v>121</v>
       </c>
     </row>
@@ -9082,7 +16302,7 @@
         <v>744</v>
       </c>
       <c r="E123">
-        <f>IF(ISERROR(B123),"",MATCH(C123,Main_240128!$A$2:$A$220,0))</f>
+        <f>IF(ISERROR(B123),"",MATCH(C123,Old_240128!$A$2:$A$220,0))</f>
         <v>218</v>
       </c>
     </row>
@@ -9094,7 +16314,7 @@
         <v>745</v>
       </c>
       <c r="E124">
-        <f>IF(ISERROR(B124),"",MATCH(C124,Main_240128!$A$2:$A$220,0))</f>
+        <f>IF(ISERROR(B124),"",MATCH(C124,Old_240128!$A$2:$A$220,0))</f>
         <v>219</v>
       </c>
     </row>
@@ -9106,7 +16326,7 @@
         <v>747</v>
       </c>
       <c r="E125">
-        <f>IF(ISERROR(B125),"",MATCH(C125,Main_240128!$A$2:$A$220,0))</f>
+        <f>IF(ISERROR(B125),"",MATCH(C125,Old_240128!$A$2:$A$220,0))</f>
         <v>32</v>
       </c>
     </row>
@@ -9118,7 +16338,7 @@
         <v>749</v>
       </c>
       <c r="E126">
-        <f>IF(ISERROR(B126),"",MATCH(C126,Main_240128!$A$2:$A$220,0))</f>
+        <f>IF(ISERROR(B126),"",MATCH(C126,Old_240128!$A$2:$A$220,0))</f>
         <v>33</v>
       </c>
     </row>
@@ -9130,7 +16350,7 @@
         <v>750</v>
       </c>
       <c r="E127">
-        <f>IF(ISERROR(B127),"",MATCH(C127,Main_240128!$A$2:$A$220,0))</f>
+        <f>IF(ISERROR(B127),"",MATCH(C127,Old_240128!$A$2:$A$220,0))</f>
         <v>34</v>
       </c>
     </row>
@@ -9142,7 +16362,7 @@
         <v>749</v>
       </c>
       <c r="E128">
-        <f>IF(ISERROR(B128),"",MATCH(C128,Main_240128!$A$2:$A$220,0))</f>
+        <f>IF(ISERROR(B128),"",MATCH(C128,Old_240128!$A$2:$A$220,0))</f>
         <v>35</v>
       </c>
     </row>
@@ -9154,7 +16374,7 @@
         <v>751</v>
       </c>
       <c r="E129">
-        <f>IF(ISERROR(B129),"",MATCH(C129,Main_240128!$A$2:$A$220,0))</f>
+        <f>IF(ISERROR(B129),"",MATCH(C129,Old_240128!$A$2:$A$220,0))</f>
         <v>96</v>
       </c>
     </row>
@@ -9166,7 +16386,7 @@
         <v>752</v>
       </c>
       <c r="E130">
-        <f>IF(ISERROR(B130),"",MATCH(C130,Main_240128!$A$2:$A$220,0))</f>
+        <f>IF(ISERROR(B130),"",MATCH(C130,Old_240128!$A$2:$A$220,0))</f>
         <v>17</v>
       </c>
     </row>
@@ -9178,7 +16398,7 @@
         <v>753</v>
       </c>
       <c r="E131">
-        <f>IF(ISERROR(B131),"",MATCH(C131,Main_240128!$A$2:$A$220,0))</f>
+        <f>IF(ISERROR(B131),"",MATCH(C131,Old_240128!$A$2:$A$220,0))</f>
         <v>36</v>
       </c>
     </row>
@@ -9190,7 +16410,7 @@
         <v>754</v>
       </c>
       <c r="E132">
-        <f>IF(ISERROR(B132),"",MATCH(C132,Main_240128!$A$2:$A$220,0))</f>
+        <f>IF(ISERROR(B132),"",MATCH(C132,Old_240128!$A$2:$A$220,0))</f>
         <v>37</v>
       </c>
     </row>
@@ -9202,7 +16422,7 @@
         <v>755</v>
       </c>
       <c r="E133">
-        <f>IF(ISERROR(B133),"",MATCH(C133,Main_240128!$A$2:$A$220,0))</f>
+        <f>IF(ISERROR(B133),"",MATCH(C133,Old_240128!$A$2:$A$220,0))</f>
         <v>54</v>
       </c>
     </row>
@@ -9214,7 +16434,7 @@
         <v>756</v>
       </c>
       <c r="E134">
-        <f>IF(ISERROR(B134),"",MATCH(C134,Main_240128!$A$2:$A$220,0))</f>
+        <f>IF(ISERROR(B134),"",MATCH(C134,Old_240128!$A$2:$A$220,0))</f>
         <v>71</v>
       </c>
     </row>
@@ -9226,7 +16446,7 @@
         <v>757</v>
       </c>
       <c r="E135">
-        <f>IF(ISERROR(B135),"",MATCH(C135,Main_240128!$A$2:$A$220,0))</f>
+        <f>IF(ISERROR(B135),"",MATCH(C135,Old_240128!$A$2:$A$220,0))</f>
         <v>38</v>
       </c>
     </row>
@@ -9238,7 +16458,7 @@
         <v>758</v>
       </c>
       <c r="E136">
-        <f>IF(ISERROR(B136),"",MATCH(C136,Main_240128!$A$2:$A$220,0))</f>
+        <f>IF(ISERROR(B136),"",MATCH(C136,Old_240128!$A$2:$A$220,0))</f>
         <v>39</v>
       </c>
     </row>
@@ -9250,7 +16470,7 @@
         <v>759</v>
       </c>
       <c r="E137">
-        <f>IF(ISERROR(B137),"",MATCH(C137,Main_240128!$A$2:$A$220,0))</f>
+        <f>IF(ISERROR(B137),"",MATCH(C137,Old_240128!$A$2:$A$220,0))</f>
         <v>40</v>
       </c>
     </row>
@@ -9262,7 +16482,7 @@
         <v>760</v>
       </c>
       <c r="E138">
-        <f>IF(ISERROR(B138),"",MATCH(C138,Main_240128!$A$2:$A$220,0))</f>
+        <f>IF(ISERROR(B138),"",MATCH(C138,Old_240128!$A$2:$A$220,0))</f>
         <v>41</v>
       </c>
     </row>
@@ -9274,7 +16494,7 @@
         <v>761</v>
       </c>
       <c r="E139">
-        <f>IF(ISERROR(B139),"",MATCH(C139,Main_240128!$A$2:$A$220,0))</f>
+        <f>IF(ISERROR(B139),"",MATCH(C139,Old_240128!$A$2:$A$220,0))</f>
         <v>42</v>
       </c>
     </row>
@@ -9286,7 +16506,7 @@
         <v>762</v>
       </c>
       <c r="E140">
-        <f>IF(ISERROR(B140),"",MATCH(C140,Main_240128!$A$2:$A$220,0))</f>
+        <f>IF(ISERROR(B140),"",MATCH(C140,Old_240128!$A$2:$A$220,0))</f>
         <v>43</v>
       </c>
     </row>
@@ -9298,7 +16518,7 @@
         <v>763</v>
       </c>
       <c r="E141">
-        <f>IF(ISERROR(B141),"",MATCH(C141,Main_240128!$A$2:$A$220,0))</f>
+        <f>IF(ISERROR(B141),"",MATCH(C141,Old_240128!$A$2:$A$220,0))</f>
         <v>44</v>
       </c>
     </row>
@@ -9310,7 +16530,7 @@
         <v>764</v>
       </c>
       <c r="E142">
-        <f>IF(ISERROR(B142),"",MATCH(C142,Main_240128!$A$2:$A$220,0))</f>
+        <f>IF(ISERROR(B142),"",MATCH(C142,Old_240128!$A$2:$A$220,0))</f>
         <v>45</v>
       </c>
     </row>
@@ -9322,7 +16542,7 @@
         <v>765</v>
       </c>
       <c r="E143">
-        <f>IF(ISERROR(B143),"",MATCH(C143,Main_240128!$A$2:$A$220,0))</f>
+        <f>IF(ISERROR(B143),"",MATCH(C143,Old_240128!$A$2:$A$220,0))</f>
         <v>46</v>
       </c>
     </row>
@@ -9334,7 +16554,7 @@
         <v>766</v>
       </c>
       <c r="E144">
-        <f>IF(ISERROR(B144),"",MATCH(C144,Main_240128!$A$2:$A$220,0))</f>
+        <f>IF(ISERROR(B144),"",MATCH(C144,Old_240128!$A$2:$A$220,0))</f>
         <v>47</v>
       </c>
     </row>
@@ -9346,7 +16566,7 @@
         <v>767</v>
       </c>
       <c r="E145">
-        <f>IF(ISERROR(B145),"",MATCH(C145,Main_240128!$A$2:$A$220,0))</f>
+        <f>IF(ISERROR(B145),"",MATCH(C145,Old_240128!$A$2:$A$220,0))</f>
         <v>48</v>
       </c>
     </row>
@@ -9358,7 +16578,7 @@
         <v>768</v>
       </c>
       <c r="E146">
-        <f>IF(ISERROR(B146),"",MATCH(C146,Main_240128!$A$2:$A$220,0))</f>
+        <f>IF(ISERROR(B146),"",MATCH(C146,Old_240128!$A$2:$A$220,0))</f>
         <v>49</v>
       </c>
     </row>
@@ -9370,7 +16590,7 @@
         <v>769</v>
       </c>
       <c r="E147">
-        <f>IF(ISERROR(B147),"",MATCH(C147,Main_240128!$A$2:$A$220,0))</f>
+        <f>IF(ISERROR(B147),"",MATCH(C147,Old_240128!$A$2:$A$220,0))</f>
         <v>50</v>
       </c>
     </row>
@@ -9382,7 +16602,7 @@
         <v>770</v>
       </c>
       <c r="E148">
-        <f>IF(ISERROR(B148),"",MATCH(C148,Main_240128!$A$2:$A$220,0))</f>
+        <f>IF(ISERROR(B148),"",MATCH(C148,Old_240128!$A$2:$A$220,0))</f>
         <v>51</v>
       </c>
     </row>
@@ -9394,7 +16614,7 @@
         <v>771</v>
       </c>
       <c r="E149">
-        <f>IF(ISERROR(B149),"",MATCH(C149,Main_240128!$A$2:$A$220,0))</f>
+        <f>IF(ISERROR(B149),"",MATCH(C149,Old_240128!$A$2:$A$220,0))</f>
         <v>52</v>
       </c>
     </row>
@@ -9406,7 +16626,7 @@
         <v>772</v>
       </c>
       <c r="E150">
-        <f>IF(ISERROR(B150),"",MATCH(C150,Main_240128!$A$2:$A$220,0))</f>
+        <f>IF(ISERROR(B150),"",MATCH(C150,Old_240128!$A$2:$A$220,0))</f>
         <v>53</v>
       </c>
     </row>
@@ -9418,7 +16638,7 @@
         <v>773</v>
       </c>
       <c r="E151">
-        <f>IF(ISERROR(B151),"",MATCH(C151,Main_240128!$A$2:$A$220,0))</f>
+        <f>IF(ISERROR(B151),"",MATCH(C151,Old_240128!$A$2:$A$220,0))</f>
         <v>55</v>
       </c>
     </row>
@@ -9430,7 +16650,7 @@
         <v>774</v>
       </c>
       <c r="E152">
-        <f>IF(ISERROR(B152),"",MATCH(C152,Main_240128!$A$2:$A$220,0))</f>
+        <f>IF(ISERROR(B152),"",MATCH(C152,Old_240128!$A$2:$A$220,0))</f>
         <v>56</v>
       </c>
     </row>
@@ -9442,7 +16662,7 @@
         <v>775</v>
       </c>
       <c r="E153">
-        <f>IF(ISERROR(B153),"",MATCH(C153,Main_240128!$A$2:$A$220,0))</f>
+        <f>IF(ISERROR(B153),"",MATCH(C153,Old_240128!$A$2:$A$220,0))</f>
         <v>57</v>
       </c>
     </row>
@@ -9454,7 +16674,7 @@
         <v>776</v>
       </c>
       <c r="E154">
-        <f>IF(ISERROR(B154),"",MATCH(C154,Main_240128!$A$2:$A$220,0))</f>
+        <f>IF(ISERROR(B154),"",MATCH(C154,Old_240128!$A$2:$A$220,0))</f>
         <v>58</v>
       </c>
     </row>
@@ -9466,7 +16686,7 @@
         <v>777</v>
       </c>
       <c r="E155">
-        <f>IF(ISERROR(B155),"",MATCH(C155,Main_240128!$A$2:$A$220,0))</f>
+        <f>IF(ISERROR(B155),"",MATCH(C155,Old_240128!$A$2:$A$220,0))</f>
         <v>59</v>
       </c>
     </row>
@@ -9478,7 +16698,7 @@
         <v>778</v>
       </c>
       <c r="E156">
-        <f>IF(ISERROR(B156),"",MATCH(C156,Main_240128!$A$2:$A$220,0))</f>
+        <f>IF(ISERROR(B156),"",MATCH(C156,Old_240128!$A$2:$A$220,0))</f>
         <v>60</v>
       </c>
     </row>
@@ -9490,7 +16710,7 @@
         <v>779</v>
       </c>
       <c r="E157">
-        <f>IF(ISERROR(B157),"",MATCH(C157,Main_240128!$A$2:$A$220,0))</f>
+        <f>IF(ISERROR(B157),"",MATCH(C157,Old_240128!$A$2:$A$220,0))</f>
         <v>61</v>
       </c>
     </row>
@@ -9502,7 +16722,7 @@
         <v>780</v>
       </c>
       <c r="E158">
-        <f>IF(ISERROR(B158),"",MATCH(C158,Main_240128!$A$2:$A$220,0))</f>
+        <f>IF(ISERROR(B158),"",MATCH(C158,Old_240128!$A$2:$A$220,0))</f>
         <v>62</v>
       </c>
     </row>
@@ -9514,7 +16734,7 @@
         <v>781</v>
       </c>
       <c r="E159">
-        <f>IF(ISERROR(B159),"",MATCH(C159,Main_240128!$A$2:$A$220,0))</f>
+        <f>IF(ISERROR(B159),"",MATCH(C159,Old_240128!$A$2:$A$220,0))</f>
         <v>63</v>
       </c>
     </row>
@@ -9526,7 +16746,7 @@
         <v>782</v>
       </c>
       <c r="E160">
-        <f>IF(ISERROR(B160),"",MATCH(C160,Main_240128!$A$2:$A$220,0))</f>
+        <f>IF(ISERROR(B160),"",MATCH(C160,Old_240128!$A$2:$A$220,0))</f>
         <v>64</v>
       </c>
     </row>
@@ -9538,7 +16758,7 @@
         <v>783</v>
       </c>
       <c r="E161">
-        <f>IF(ISERROR(B161),"",MATCH(C161,Main_240128!$A$2:$A$220,0))</f>
+        <f>IF(ISERROR(B161),"",MATCH(C161,Old_240128!$A$2:$A$220,0))</f>
         <v>65</v>
       </c>
     </row>
@@ -9550,7 +16770,7 @@
         <v>784</v>
       </c>
       <c r="E162">
-        <f>IF(ISERROR(B162),"",MATCH(C162,Main_240128!$A$2:$A$220,0))</f>
+        <f>IF(ISERROR(B162),"",MATCH(C162,Old_240128!$A$2:$A$220,0))</f>
         <v>66</v>
       </c>
     </row>
@@ -9562,7 +16782,7 @@
         <v>785</v>
       </c>
       <c r="E163">
-        <f>IF(ISERROR(B163),"",MATCH(C163,Main_240128!$A$2:$A$220,0))</f>
+        <f>IF(ISERROR(B163),"",MATCH(C163,Old_240128!$A$2:$A$220,0))</f>
         <v>67</v>
       </c>
     </row>
@@ -9574,7 +16794,7 @@
         <v>786</v>
       </c>
       <c r="E164">
-        <f>IF(ISERROR(B164),"",MATCH(C164,Main_240128!$A$2:$A$220,0))</f>
+        <f>IF(ISERROR(B164),"",MATCH(C164,Old_240128!$A$2:$A$220,0))</f>
         <v>68</v>
       </c>
     </row>
@@ -9586,7 +16806,7 @@
         <v>787</v>
       </c>
       <c r="E165">
-        <f>IF(ISERROR(B165),"",MATCH(C165,Main_240128!$A$2:$A$220,0))</f>
+        <f>IF(ISERROR(B165),"",MATCH(C165,Old_240128!$A$2:$A$220,0))</f>
         <v>69</v>
       </c>
     </row>
@@ -9598,7 +16818,7 @@
         <v>788</v>
       </c>
       <c r="E166">
-        <f>IF(ISERROR(B166),"",MATCH(C166,Main_240128!$A$2:$A$220,0))</f>
+        <f>IF(ISERROR(B166),"",MATCH(C166,Old_240128!$A$2:$A$220,0))</f>
         <v>70</v>
       </c>
     </row>
@@ -9610,7 +16830,7 @@
         <v>222</v>
       </c>
       <c r="E167">
-        <f>IF(ISERROR(B167),"",MATCH(C167,Main_240128!$A$2:$A$220,0))</f>
+        <f>IF(ISERROR(B167),"",MATCH(C167,Old_240128!$A$2:$A$220,0))</f>
         <v>72</v>
       </c>
     </row>
@@ -9622,7 +16842,7 @@
         <v>789</v>
       </c>
       <c r="E168">
-        <f>IF(ISERROR(B168),"",MATCH(C168,Main_240128!$A$2:$A$220,0))</f>
+        <f>IF(ISERROR(B168),"",MATCH(C168,Old_240128!$A$2:$A$220,0))</f>
         <v>73</v>
       </c>
     </row>
@@ -9634,7 +16854,7 @@
         <v>790</v>
       </c>
       <c r="E169">
-        <f>IF(ISERROR(B169),"",MATCH(C169,Main_240128!$A$2:$A$220,0))</f>
+        <f>IF(ISERROR(B169),"",MATCH(C169,Old_240128!$A$2:$A$220,0))</f>
         <v>74</v>
       </c>
     </row>
@@ -9646,7 +16866,7 @@
         <v>791</v>
       </c>
       <c r="E170">
-        <f>IF(ISERROR(B170),"",MATCH(C170,Main_240128!$A$2:$A$220,0))</f>
+        <f>IF(ISERROR(B170),"",MATCH(C170,Old_240128!$A$2:$A$220,0))</f>
         <v>75</v>
       </c>
     </row>
@@ -9658,7 +16878,7 @@
         <v>792</v>
       </c>
       <c r="E171">
-        <f>IF(ISERROR(B171),"",MATCH(C171,Main_240128!$A$2:$A$220,0))</f>
+        <f>IF(ISERROR(B171),"",MATCH(C171,Old_240128!$A$2:$A$220,0))</f>
         <v>76</v>
       </c>
     </row>
@@ -9670,7 +16890,7 @@
         <v>793</v>
       </c>
       <c r="E172">
-        <f>IF(ISERROR(B172),"",MATCH(C172,Main_240128!$A$2:$A$220,0))</f>
+        <f>IF(ISERROR(B172),"",MATCH(C172,Old_240128!$A$2:$A$220,0))</f>
         <v>77</v>
       </c>
     </row>
@@ -9682,7 +16902,7 @@
         <v>794</v>
       </c>
       <c r="E173">
-        <f>IF(ISERROR(B173),"",MATCH(C173,Main_240128!$A$2:$A$220,0))</f>
+        <f>IF(ISERROR(B173),"",MATCH(C173,Old_240128!$A$2:$A$220,0))</f>
         <v>78</v>
       </c>
     </row>
@@ -9694,7 +16914,7 @@
         <v>795</v>
       </c>
       <c r="E174">
-        <f>IF(ISERROR(B174),"",MATCH(C174,Main_240128!$A$2:$A$220,0))</f>
+        <f>IF(ISERROR(B174),"",MATCH(C174,Old_240128!$A$2:$A$220,0))</f>
         <v>79</v>
       </c>
     </row>
@@ -9706,7 +16926,7 @@
         <v>796</v>
       </c>
       <c r="E175">
-        <f>IF(ISERROR(B175),"",MATCH(C175,Main_240128!$A$2:$A$220,0))</f>
+        <f>IF(ISERROR(B175),"",MATCH(C175,Old_240128!$A$2:$A$220,0))</f>
         <v>80</v>
       </c>
     </row>
@@ -9718,7 +16938,7 @@
         <v>797</v>
       </c>
       <c r="E176">
-        <f>IF(ISERROR(B176),"",MATCH(C176,Main_240128!$A$2:$A$220,0))</f>
+        <f>IF(ISERROR(B176),"",MATCH(C176,Old_240128!$A$2:$A$220,0))</f>
         <v>81</v>
       </c>
     </row>
@@ -9730,7 +16950,7 @@
         <v>798</v>
       </c>
       <c r="E177">
-        <f>IF(ISERROR(B177),"",MATCH(C177,Main_240128!$A$2:$A$220,0))</f>
+        <f>IF(ISERROR(B177),"",MATCH(C177,Old_240128!$A$2:$A$220,0))</f>
         <v>82</v>
       </c>
     </row>
@@ -9742,7 +16962,7 @@
         <v>799</v>
       </c>
       <c r="E178">
-        <f>IF(ISERROR(B178),"",MATCH(C178,Main_240128!$A$2:$A$220,0))</f>
+        <f>IF(ISERROR(B178),"",MATCH(C178,Old_240128!$A$2:$A$220,0))</f>
         <v>83</v>
       </c>
     </row>
@@ -9754,7 +16974,7 @@
         <v>800</v>
       </c>
       <c r="E179">
-        <f>IF(ISERROR(B179),"",MATCH(C179,Main_240128!$A$2:$A$220,0))</f>
+        <f>IF(ISERROR(B179),"",MATCH(C179,Old_240128!$A$2:$A$220,0))</f>
         <v>84</v>
       </c>
     </row>
@@ -9766,7 +16986,7 @@
         <v>726</v>
       </c>
       <c r="E180">
-        <f>IF(ISERROR(B180),"",MATCH(C180,Main_240128!$A$2:$A$220,0))</f>
+        <f>IF(ISERROR(B180),"",MATCH(C180,Old_240128!$A$2:$A$220,0))</f>
         <v>85</v>
       </c>
     </row>
@@ -9778,7 +16998,7 @@
         <v>801</v>
       </c>
       <c r="E181">
-        <f>IF(ISERROR(B181),"",MATCH(C181,Main_240128!$A$2:$A$220,0))</f>
+        <f>IF(ISERROR(B181),"",MATCH(C181,Old_240128!$A$2:$A$220,0))</f>
         <v>86</v>
       </c>
     </row>
@@ -9790,7 +17010,7 @@
         <v>802</v>
       </c>
       <c r="E182">
-        <f>IF(ISERROR(B182),"",MATCH(C182,Main_240128!$A$2:$A$220,0))</f>
+        <f>IF(ISERROR(B182),"",MATCH(C182,Old_240128!$A$2:$A$220,0))</f>
         <v>90</v>
       </c>
     </row>
@@ -9802,7 +17022,7 @@
         <v>803</v>
       </c>
       <c r="E183">
-        <f>IF(ISERROR(B183),"",MATCH(C183,Main_240128!$A$2:$A$220,0))</f>
+        <f>IF(ISERROR(B183),"",MATCH(C183,Old_240128!$A$2:$A$220,0))</f>
         <v>91</v>
       </c>
     </row>
@@ -9814,7 +17034,7 @@
         <v>804</v>
       </c>
       <c r="E184">
-        <f>IF(ISERROR(B184),"",MATCH(C184,Main_240128!$A$2:$A$220,0))</f>
+        <f>IF(ISERROR(B184),"",MATCH(C184,Old_240128!$A$2:$A$220,0))</f>
         <v>97</v>
       </c>
     </row>
@@ -9826,7 +17046,7 @@
         <v>805</v>
       </c>
       <c r="E185">
-        <f>IF(ISERROR(B185),"",MATCH(C185,Main_240128!$A$2:$A$220,0))</f>
+        <f>IF(ISERROR(B185),"",MATCH(C185,Old_240128!$A$2:$A$220,0))</f>
         <v>98</v>
       </c>
     </row>
@@ -9838,7 +17058,7 @@
         <v>302</v>
       </c>
       <c r="E186">
-        <f>IF(ISERROR(B186),"",MATCH(C186,Main_240128!$A$2:$A$220,0))</f>
+        <f>IF(ISERROR(B186),"",MATCH(C186,Old_240128!$A$2:$A$220,0))</f>
         <v>99</v>
       </c>
     </row>
@@ -9850,7 +17070,7 @@
         <v>305</v>
       </c>
       <c r="E187">
-        <f>IF(ISERROR(B187),"",MATCH(C187,Main_240128!$A$2:$A$220,0))</f>
+        <f>IF(ISERROR(B187),"",MATCH(C187,Old_240128!$A$2:$A$220,0))</f>
         <v>100</v>
       </c>
     </row>
@@ -9862,7 +17082,7 @@
         <v>806</v>
       </c>
       <c r="E188">
-        <f>IF(ISERROR(B188),"",MATCH(C188,Main_240128!$A$2:$A$220,0))</f>
+        <f>IF(ISERROR(B188),"",MATCH(C188,Old_240128!$A$2:$A$220,0))</f>
         <v>101</v>
       </c>
     </row>
@@ -9874,7 +17094,7 @@
         <v>807</v>
       </c>
       <c r="E189">
-        <f>IF(ISERROR(B189),"",MATCH(C189,Main_240128!$A$2:$A$220,0))</f>
+        <f>IF(ISERROR(B189),"",MATCH(C189,Old_240128!$A$2:$A$220,0))</f>
         <v>102</v>
       </c>
     </row>
@@ -9886,7 +17106,7 @@
         <v>314</v>
       </c>
       <c r="E190">
-        <f>IF(ISERROR(B190),"",MATCH(C190,Main_240128!$A$2:$A$220,0))</f>
+        <f>IF(ISERROR(B190),"",MATCH(C190,Old_240128!$A$2:$A$220,0))</f>
         <v>103</v>
       </c>
     </row>
@@ -9898,7 +17118,7 @@
         <v>305</v>
       </c>
       <c r="E191">
-        <f>IF(ISERROR(B191),"",MATCH(C191,Main_240128!$A$2:$A$220,0))</f>
+        <f>IF(ISERROR(B191),"",MATCH(C191,Old_240128!$A$2:$A$220,0))</f>
         <v>104</v>
       </c>
     </row>
@@ -9910,7 +17130,7 @@
         <v>808</v>
       </c>
       <c r="E192">
-        <f>IF(ISERROR(B192),"",MATCH(C192,Main_240128!$A$2:$A$220,0))</f>
+        <f>IF(ISERROR(B192),"",MATCH(C192,Old_240128!$A$2:$A$220,0))</f>
         <v>105</v>
       </c>
     </row>
@@ -9922,7 +17142,7 @@
         <v>809</v>
       </c>
       <c r="E193">
-        <f>IF(ISERROR(B193),"",MATCH(C193,Main_240128!$A$2:$A$220,0))</f>
+        <f>IF(ISERROR(B193),"",MATCH(C193,Old_240128!$A$2:$A$220,0))</f>
         <v>106</v>
       </c>
     </row>
@@ -9934,7 +17154,7 @@
         <v>325</v>
       </c>
       <c r="E194">
-        <f>IF(ISERROR(B194),"",MATCH(C194,Main_240128!$A$2:$A$220,0))</f>
+        <f>IF(ISERROR(B194),"",MATCH(C194,Old_240128!$A$2:$A$220,0))</f>
         <v>107</v>
       </c>
     </row>
@@ -9946,7 +17166,7 @@
         <v>314</v>
       </c>
       <c r="E195">
-        <f>IF(ISERROR(B195),"",MATCH(C195,Main_240128!$A$2:$A$220,0))</f>
+        <f>IF(ISERROR(B195),"",MATCH(C195,Old_240128!$A$2:$A$220,0))</f>
         <v>108</v>
       </c>
     </row>
@@ -9958,7 +17178,7 @@
         <v>810</v>
       </c>
       <c r="E196">
-        <f>IF(ISERROR(B196),"",MATCH(C196,Main_240128!$A$2:$A$220,0))</f>
+        <f>IF(ISERROR(B196),"",MATCH(C196,Old_240128!$A$2:$A$220,0))</f>
         <v>109</v>
       </c>
     </row>
@@ -9970,7 +17190,7 @@
         <v>811</v>
       </c>
       <c r="E197">
-        <f>IF(ISERROR(B197),"",MATCH(C197,Main_240128!$A$2:$A$220,0))</f>
+        <f>IF(ISERROR(B197),"",MATCH(C197,Old_240128!$A$2:$A$220,0))</f>
         <v>110</v>
       </c>
     </row>
@@ -9982,7 +17202,7 @@
         <v>302</v>
       </c>
       <c r="E198">
-        <f>IF(ISERROR(B198),"",MATCH(C198,Main_240128!$A$2:$A$220,0))</f>
+        <f>IF(ISERROR(B198),"",MATCH(C198,Old_240128!$A$2:$A$220,0))</f>
         <v>111</v>
       </c>
     </row>
@@ -9994,7 +17214,7 @@
         <v>742</v>
       </c>
       <c r="E199">
-        <f>IF(ISERROR(B199),"",MATCH(C199,Main_240128!$A$2:$A$220,0))</f>
+        <f>IF(ISERROR(B199),"",MATCH(C199,Old_240128!$A$2:$A$220,0))</f>
         <v>112</v>
       </c>
     </row>
@@ -10006,7 +17226,7 @@
         <v>812</v>
       </c>
       <c r="E200">
-        <f>IF(ISERROR(B200),"",MATCH(C200,Main_240128!$A$2:$A$220,0))</f>
+        <f>IF(ISERROR(B200),"",MATCH(C200,Old_240128!$A$2:$A$220,0))</f>
         <v>113</v>
       </c>
     </row>
@@ -10018,7 +17238,7 @@
         <v>302</v>
       </c>
       <c r="E201">
-        <f>IF(ISERROR(B201),"",MATCH(C201,Main_240128!$A$2:$A$220,0))</f>
+        <f>IF(ISERROR(B201),"",MATCH(C201,Old_240128!$A$2:$A$220,0))</f>
         <v>114</v>
       </c>
     </row>
@@ -10030,7 +17250,7 @@
         <v>346</v>
       </c>
       <c r="E202">
-        <f>IF(ISERROR(B202),"",MATCH(C202,Main_240128!$A$2:$A$220,0))</f>
+        <f>IF(ISERROR(B202),"",MATCH(C202,Old_240128!$A$2:$A$220,0))</f>
         <v>115</v>
       </c>
     </row>
@@ -10042,7 +17262,7 @@
         <v>349</v>
       </c>
       <c r="E203">
-        <f>IF(ISERROR(B203),"",MATCH(C203,Main_240128!$A$2:$A$220,0))</f>
+        <f>IF(ISERROR(B203),"",MATCH(C203,Old_240128!$A$2:$A$220,0))</f>
         <v>116</v>
       </c>
     </row>
@@ -10054,7 +17274,7 @@
         <v>743</v>
       </c>
       <c r="E204">
-        <f>IF(ISERROR(B204),"",MATCH(C204,Main_240128!$A$2:$A$220,0))</f>
+        <f>IF(ISERROR(B204),"",MATCH(C204,Old_240128!$A$2:$A$220,0))</f>
         <v>118</v>
       </c>
     </row>
@@ -10066,7 +17286,7 @@
         <v>813</v>
       </c>
       <c r="E205">
-        <f>IF(ISERROR(B205),"",MATCH(C205,Main_240128!$A$2:$A$220,0))</f>
+        <f>IF(ISERROR(B205),"",MATCH(C205,Old_240128!$A$2:$A$220,0))</f>
         <v>119</v>
       </c>
     </row>
@@ -10078,7 +17298,7 @@
         <v>302</v>
       </c>
       <c r="E206">
-        <f>IF(ISERROR(B206),"",MATCH(C206,Main_240128!$A$2:$A$220,0))</f>
+        <f>IF(ISERROR(B206),"",MATCH(C206,Old_240128!$A$2:$A$220,0))</f>
         <v>120</v>
       </c>
     </row>
@@ -10090,7 +17310,7 @@
         <v>814</v>
       </c>
       <c r="E207">
-        <f>IF(ISERROR(B207),"",MATCH(C207,Main_240128!$A$2:$A$220,0))</f>
+        <f>IF(ISERROR(B207),"",MATCH(C207,Old_240128!$A$2:$A$220,0))</f>
         <v>216</v>
       </c>
     </row>
@@ -10102,7 +17322,7 @@
         <v>815</v>
       </c>
       <c r="E208">
-        <f>IF(ISERROR(B208),"",MATCH(C208,Main_240128!$A$2:$A$220,0))</f>
+        <f>IF(ISERROR(B208),"",MATCH(C208,Old_240128!$A$2:$A$220,0))</f>
         <v>217</v>
       </c>
     </row>
@@ -10114,7 +17334,7 @@
         <v>816</v>
       </c>
       <c r="E209">
-        <f>IF(ISERROR(B209),"",MATCH(C209,Main_240128!$A$2:$A$220,0))</f>
+        <f>IF(ISERROR(B209),"",MATCH(C209,Old_240128!$A$2:$A$220,0))</f>
         <v>135</v>
       </c>
     </row>
@@ -10126,7 +17346,7 @@
         <v>817</v>
       </c>
       <c r="E210">
-        <f>IF(ISERROR(B210),"",MATCH(C210,Main_240128!$A$2:$A$220,0))</f>
+        <f>IF(ISERROR(B210),"",MATCH(C210,Old_240128!$A$2:$A$220,0))</f>
         <v>136</v>
       </c>
     </row>
@@ -10138,7 +17358,7 @@
         <v>818</v>
       </c>
       <c r="E211">
-        <f>IF(ISERROR(B211),"",MATCH(C211,Main_240128!$A$2:$A$220,0))</f>
+        <f>IF(ISERROR(B211),"",MATCH(C211,Old_240128!$A$2:$A$220,0))</f>
         <v>137</v>
       </c>
     </row>
